--- a/U22_2017_entrysheet.xlsx
+++ b/U22_2017_entrysheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youga\Documents\G014A1417\team\BETWEEN THE STEEL\u22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youga\Documents\G014A1417\team\BETWEEN THE STEEL\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="206">
   <si>
     <t>氏名（ふりがな）</t>
   </si>
@@ -1412,10 +1412,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>タダシ</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>Yougan.Kaen@gmail.com</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -1633,14 +1629,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>名称Unity</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>Ver.5.6.0f3</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t xml:space="preserve">BETWEEN THE STEELは、四つのアームを持つロボットを操作し、出口を目指す3Dの思考アクションゲームです。
 プレイヤーはアームで掴んだ物を持ち上げたり、固定物を掴んで自機を持ち上げたり、掴んだ物を曲げたり、掴んだ物を破壊したりできます。
 これらの特性を生かして、マップに配置されているオブジェクトを加工、利用しながら出口までの道を作るのがこのゲームの特徴です。
@@ -1666,6 +1654,26 @@
     <rPh sb="0" eb="1">
       <t>ツカ</t>
     </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>08037514824</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>5.6.0f3</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Unity</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ただし</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -3206,7 +3214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3656,6 +3664,833 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="82" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3672,831 +4507,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="82" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -5845,6 +5857,288 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>450665</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>190837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>977</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>291561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="フリーフォーム 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2233550" y="14781183"/>
+          <a:ext cx="92504" cy="100724"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 70069"/>
+            <a:gd name="connsiteY0" fmla="*/ 21896 h 100724"/>
+            <a:gd name="connsiteX1" fmla="*/ 4379 w 70069"/>
+            <a:gd name="connsiteY1" fmla="*/ 52552 h 100724"/>
+            <a:gd name="connsiteX2" fmla="*/ 13138 w 70069"/>
+            <a:gd name="connsiteY2" fmla="*/ 65690 h 100724"/>
+            <a:gd name="connsiteX3" fmla="*/ 21896 w 70069"/>
+            <a:gd name="connsiteY3" fmla="*/ 100724 h 100724"/>
+            <a:gd name="connsiteX4" fmla="*/ 30655 w 70069"/>
+            <a:gd name="connsiteY4" fmla="*/ 87586 h 100724"/>
+            <a:gd name="connsiteX5" fmla="*/ 48172 w 70069"/>
+            <a:gd name="connsiteY5" fmla="*/ 48172 h 100724"/>
+            <a:gd name="connsiteX6" fmla="*/ 56931 w 70069"/>
+            <a:gd name="connsiteY6" fmla="*/ 17517 h 100724"/>
+            <a:gd name="connsiteX7" fmla="*/ 70069 w 70069"/>
+            <a:gd name="connsiteY7" fmla="*/ 0 h 100724"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="70069" h="100724">
+              <a:moveTo>
+                <a:pt x="0" y="21896"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="1460" y="32115"/>
+                <a:pt x="1413" y="42665"/>
+                <a:pt x="4379" y="52552"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5891" y="57593"/>
+                <a:pt x="10784" y="60982"/>
+                <a:pt x="13138" y="65690"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17627" y="74667"/>
+                <a:pt x="20231" y="92396"/>
+                <a:pt x="21896" y="100724"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="24816" y="96345"/>
+                <a:pt x="28517" y="92396"/>
+                <a:pt x="30655" y="87586"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="51504" y="40677"/>
+                <a:pt x="28350" y="77908"/>
+                <a:pt x="48172" y="48172"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="49574" y="42565"/>
+                <a:pt x="53792" y="23796"/>
+                <a:pt x="56931" y="17517"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="61882" y="7614"/>
+                <a:pt x="63911" y="6158"/>
+                <a:pt x="70069" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>461412</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>89237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11724</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>189961</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="フリーフォーム 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2244297" y="14386506"/>
+          <a:ext cx="92504" cy="100724"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 70069"/>
+            <a:gd name="connsiteY0" fmla="*/ 21896 h 100724"/>
+            <a:gd name="connsiteX1" fmla="*/ 4379 w 70069"/>
+            <a:gd name="connsiteY1" fmla="*/ 52552 h 100724"/>
+            <a:gd name="connsiteX2" fmla="*/ 13138 w 70069"/>
+            <a:gd name="connsiteY2" fmla="*/ 65690 h 100724"/>
+            <a:gd name="connsiteX3" fmla="*/ 21896 w 70069"/>
+            <a:gd name="connsiteY3" fmla="*/ 100724 h 100724"/>
+            <a:gd name="connsiteX4" fmla="*/ 30655 w 70069"/>
+            <a:gd name="connsiteY4" fmla="*/ 87586 h 100724"/>
+            <a:gd name="connsiteX5" fmla="*/ 48172 w 70069"/>
+            <a:gd name="connsiteY5" fmla="*/ 48172 h 100724"/>
+            <a:gd name="connsiteX6" fmla="*/ 56931 w 70069"/>
+            <a:gd name="connsiteY6" fmla="*/ 17517 h 100724"/>
+            <a:gd name="connsiteX7" fmla="*/ 70069 w 70069"/>
+            <a:gd name="connsiteY7" fmla="*/ 0 h 100724"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="70069" h="100724">
+              <a:moveTo>
+                <a:pt x="0" y="21896"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="1460" y="32115"/>
+                <a:pt x="1413" y="42665"/>
+                <a:pt x="4379" y="52552"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5891" y="57593"/>
+                <a:pt x="10784" y="60982"/>
+                <a:pt x="13138" y="65690"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17627" y="74667"/>
+                <a:pt x="20231" y="92396"/>
+                <a:pt x="21896" y="100724"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="24816" y="96345"/>
+                <a:pt x="28517" y="92396"/>
+                <a:pt x="30655" y="87586"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="51504" y="40677"/>
+                <a:pt x="28350" y="77908"/>
+                <a:pt x="48172" y="48172"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="49574" y="42565"/>
+                <a:pt x="53792" y="23796"/>
+                <a:pt x="56931" y="17517"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="61882" y="7614"/>
+                <a:pt x="63911" y="6158"/>
+                <a:pt x="70069" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6162,7 +6456,7 @@
   <dimension ref="A1:O200"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94:N99"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6185,103 +6479,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="221" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
       <c r="L1" s="111"/>
       <c r="M1" s="111"/>
       <c r="N1" s="112"/>
     </row>
     <row r="2" spans="1:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="267" t="s">
+      <c r="A2" s="198" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="268"/>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
-      <c r="G2" s="268"/>
-      <c r="H2" s="268"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
-      <c r="K2" s="268"/>
-      <c r="L2" s="268"/>
-      <c r="M2" s="268"/>
-      <c r="N2" s="268"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
     </row>
     <row r="3" spans="1:14" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="289" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="298" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="125" t="s">
+      <c r="C3" s="299"/>
+      <c r="D3" s="326" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="153" t="s">
+      <c r="E3" s="327"/>
+      <c r="F3" s="327"/>
+      <c r="G3" s="327"/>
+      <c r="H3" s="327"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="292" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
+      <c r="K3" s="293"/>
+      <c r="L3" s="293"/>
+      <c r="M3" s="293"/>
+      <c r="N3" s="294"/>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="149"/>
-      <c r="B4" s="161"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="128" t="s">
+      <c r="A4" s="290"/>
+      <c r="B4" s="300"/>
+      <c r="C4" s="301"/>
+      <c r="D4" s="329" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="156" t="s">
+      <c r="E4" s="330"/>
+      <c r="F4" s="330"/>
+      <c r="G4" s="330"/>
+      <c r="H4" s="330"/>
+      <c r="I4" s="331"/>
+      <c r="J4" s="295" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="158"/>
+      <c r="K4" s="296"/>
+      <c r="L4" s="296"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="297"/>
     </row>
     <row r="5" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="197" t="s">
+      <c r="A5" s="250" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="217" t="s">
+      <c r="B5" s="268" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="150" t="s">
+      <c r="C5" s="269"/>
+      <c r="D5" s="269"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="269"/>
+      <c r="G5" s="269"/>
+      <c r="H5" s="270"/>
+      <c r="I5" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="151"/>
-      <c r="K5" s="152"/>
+      <c r="J5" s="269"/>
+      <c r="K5" s="270"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24" t="s">
         <v>135</v>
@@ -6289,27 +6583,27 @@
       <c r="N5" s="25"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="198"/>
-      <c r="B6" s="134" t="s">
+      <c r="A6" s="251"/>
+      <c r="B6" s="335" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
+      <c r="C6" s="333"/>
+      <c r="D6" s="333"/>
+      <c r="E6" s="333"/>
       <c r="F6" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="131" t="s">
-        <v>194</v>
-      </c>
-      <c r="J6" s="132"/>
-      <c r="K6" s="133"/>
+      <c r="I6" s="332" t="s">
+        <v>193</v>
+      </c>
+      <c r="J6" s="333"/>
+      <c r="K6" s="334"/>
       <c r="L6" s="28" t="s">
         <v>132</v>
       </c>
@@ -6319,11 +6613,11 @@
       <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="198"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
+      <c r="A7" s="251"/>
+      <c r="B7" s="336"/>
+      <c r="C7" s="337"/>
+      <c r="D7" s="337"/>
+      <c r="E7" s="337"/>
       <c r="F7" s="30" t="s">
         <v>14</v>
       </c>
@@ -6331,11 +6625,11 @@
       <c r="H7" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="131" t="s">
-        <v>194</v>
-      </c>
-      <c r="J7" s="132"/>
-      <c r="K7" s="133"/>
+      <c r="I7" s="332" t="s">
+        <v>193</v>
+      </c>
+      <c r="J7" s="333"/>
+      <c r="K7" s="334"/>
       <c r="L7" s="32" t="s">
         <v>131</v>
       </c>
@@ -6343,11 +6637,11 @@
       <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="198"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
+      <c r="A8" s="251"/>
+      <c r="B8" s="336"/>
+      <c r="C8" s="337"/>
+      <c r="D8" s="337"/>
+      <c r="E8" s="337"/>
       <c r="F8" s="30" t="s">
         <v>14</v>
       </c>
@@ -6355,11 +6649,11 @@
       <c r="H8" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="131" t="s">
-        <v>195</v>
-      </c>
-      <c r="J8" s="132"/>
-      <c r="K8" s="133"/>
+      <c r="I8" s="332" t="s">
+        <v>194</v>
+      </c>
+      <c r="J8" s="333"/>
+      <c r="K8" s="334"/>
       <c r="L8" s="32" t="s">
         <v>131</v>
       </c>
@@ -6367,11 +6661,11 @@
       <c r="N8" s="34"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="198"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
+      <c r="A9" s="251"/>
+      <c r="B9" s="336"/>
+      <c r="C9" s="337"/>
+      <c r="D9" s="337"/>
+      <c r="E9" s="337"/>
       <c r="F9" s="30" t="s">
         <v>14</v>
       </c>
@@ -6379,11 +6673,11 @@
       <c r="H9" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="131" t="s">
-        <v>198</v>
-      </c>
-      <c r="J9" s="132"/>
-      <c r="K9" s="133"/>
+      <c r="I9" s="332" t="s">
+        <v>197</v>
+      </c>
+      <c r="J9" s="333"/>
+      <c r="K9" s="334"/>
       <c r="L9" s="32" t="s">
         <v>131</v>
       </c>
@@ -6391,11 +6685,11 @@
       <c r="N9" s="34"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="198"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
+      <c r="A10" s="251"/>
+      <c r="B10" s="336"/>
+      <c r="C10" s="337"/>
+      <c r="D10" s="337"/>
+      <c r="E10" s="337"/>
       <c r="F10" s="30" t="s">
         <v>14</v>
       </c>
@@ -6403,11 +6697,11 @@
       <c r="H10" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="131" t="s">
-        <v>198</v>
-      </c>
-      <c r="J10" s="132"/>
-      <c r="K10" s="133"/>
+      <c r="I10" s="332" t="s">
+        <v>197</v>
+      </c>
+      <c r="J10" s="333"/>
+      <c r="K10" s="334"/>
       <c r="L10" s="32" t="s">
         <v>131</v>
       </c>
@@ -6415,11 +6709,11 @@
       <c r="N10" s="34"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="198"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
+      <c r="A11" s="251"/>
+      <c r="B11" s="336"/>
+      <c r="C11" s="337"/>
+      <c r="D11" s="337"/>
+      <c r="E11" s="337"/>
       <c r="F11" s="30" t="s">
         <v>14</v>
       </c>
@@ -6427,11 +6721,11 @@
       <c r="H11" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="131" t="s">
-        <v>196</v>
-      </c>
-      <c r="J11" s="132"/>
-      <c r="K11" s="133"/>
+      <c r="I11" s="332" t="s">
+        <v>195</v>
+      </c>
+      <c r="J11" s="333"/>
+      <c r="K11" s="334"/>
       <c r="L11" s="32" t="s">
         <v>131</v>
       </c>
@@ -6439,13 +6733,13 @@
       <c r="N11" s="34"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="199"/>
-      <c r="B12" s="137" t="s">
+      <c r="A12" s="252"/>
+      <c r="B12" s="338" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
+      <c r="C12" s="339"/>
+      <c r="D12" s="339"/>
+      <c r="E12" s="339"/>
       <c r="F12" s="35" t="s">
         <v>14</v>
       </c>
@@ -6453,11 +6747,11 @@
       <c r="H12" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="131" t="s">
-        <v>197</v>
-      </c>
-      <c r="J12" s="132"/>
-      <c r="K12" s="133"/>
+      <c r="I12" s="332" t="s">
+        <v>196</v>
+      </c>
+      <c r="J12" s="333"/>
+      <c r="K12" s="334"/>
       <c r="L12" s="37" t="s">
         <v>131</v>
       </c>
@@ -6465,245 +6759,245 @@
       <c r="N12" s="39"/>
     </row>
     <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="145" t="s">
+      <c r="A13" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="208" t="s">
+      <c r="B13" s="260" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="209"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="281" t="s">
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="261"/>
+      <c r="F13" s="202" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="209"/>
-      <c r="H13" s="282"/>
-      <c r="I13" s="214" t="s">
+      <c r="G13" s="171"/>
+      <c r="H13" s="203"/>
+      <c r="I13" s="265" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="214"/>
-      <c r="K13" s="214"/>
-      <c r="L13" s="303" t="s">
+      <c r="J13" s="265"/>
+      <c r="K13" s="265"/>
+      <c r="L13" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="209"/>
-      <c r="N13" s="304"/>
+      <c r="M13" s="171"/>
+      <c r="N13" s="172"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="146"/>
-      <c r="B14" s="202" t="s">
+      <c r="A14" s="287"/>
+      <c r="B14" s="254" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="204"/>
+      <c r="C14" s="255"/>
+      <c r="D14" s="255"/>
+      <c r="E14" s="256"/>
       <c r="F14" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="341" t="s">
+      <c r="G14" s="159" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="342"/>
-      <c r="I14" s="211" t="s">
-        <v>190</v>
-      </c>
-      <c r="J14" s="212"/>
-      <c r="K14" s="213"/>
-      <c r="L14" s="318" t="s">
+      <c r="H14" s="160"/>
+      <c r="I14" s="262" t="s">
+        <v>189</v>
+      </c>
+      <c r="J14" s="263"/>
+      <c r="K14" s="264"/>
+      <c r="L14" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="319"/>
+      <c r="M14" s="131"/>
       <c r="N14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="146"/>
-      <c r="B15" s="202"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="204"/>
+      <c r="A15" s="287"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="255"/>
+      <c r="D15" s="255"/>
+      <c r="E15" s="256"/>
       <c r="F15" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="200" t="s">
+      <c r="G15" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="201"/>
-      <c r="I15" s="139" t="s">
-        <v>191</v>
-      </c>
-      <c r="J15" s="140"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="314" t="s">
+      <c r="H15" s="253"/>
+      <c r="I15" s="280" t="s">
+        <v>190</v>
+      </c>
+      <c r="J15" s="281"/>
+      <c r="K15" s="282"/>
+      <c r="L15" s="126" t="s">
         <v>136</v>
       </c>
-      <c r="M15" s="315"/>
+      <c r="M15" s="127"/>
       <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="146"/>
-      <c r="B16" s="202"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="204"/>
+      <c r="A16" s="287"/>
+      <c r="B16" s="254"/>
+      <c r="C16" s="255"/>
+      <c r="D16" s="255"/>
+      <c r="E16" s="256"/>
       <c r="F16" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="200" t="s">
+      <c r="G16" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="201"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="316" t="s">
-        <v>189</v>
-      </c>
-      <c r="M16" s="317"/>
+      <c r="H16" s="253"/>
+      <c r="I16" s="280"/>
+      <c r="J16" s="281"/>
+      <c r="K16" s="282"/>
+      <c r="L16" s="128" t="s">
+        <v>188</v>
+      </c>
+      <c r="M16" s="129"/>
       <c r="N16" s="44"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="147"/>
-      <c r="B17" s="205"/>
-      <c r="C17" s="206"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="207"/>
+      <c r="A17" s="288"/>
+      <c r="B17" s="257"/>
+      <c r="C17" s="258"/>
+      <c r="D17" s="258"/>
+      <c r="E17" s="259"/>
       <c r="F17" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="189" t="s">
+      <c r="G17" s="204" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="283"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="144"/>
+      <c r="H17" s="205"/>
+      <c r="I17" s="283"/>
+      <c r="J17" s="284"/>
+      <c r="K17" s="285"/>
       <c r="L17" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="M17" s="46">
-        <v>8037514824</v>
+      <c r="M17" s="344" t="s">
+        <v>201</v>
       </c>
       <c r="N17" s="47"/>
     </row>
     <row r="18" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="215" t="s">
+      <c r="A18" s="266" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="227" t="s">
+      <c r="B18" s="277" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="228"/>
-      <c r="D18" s="228"/>
-      <c r="E18" s="228"/>
-      <c r="F18" s="228"/>
-      <c r="G18" s="228"/>
-      <c r="H18" s="228"/>
-      <c r="I18" s="228"/>
-      <c r="J18" s="228"/>
-      <c r="K18" s="228"/>
-      <c r="L18" s="228"/>
-      <c r="M18" s="228"/>
-      <c r="N18" s="229"/>
+      <c r="C18" s="278"/>
+      <c r="D18" s="278"/>
+      <c r="E18" s="278"/>
+      <c r="F18" s="278"/>
+      <c r="G18" s="278"/>
+      <c r="H18" s="278"/>
+      <c r="I18" s="278"/>
+      <c r="J18" s="278"/>
+      <c r="K18" s="278"/>
+      <c r="L18" s="278"/>
+      <c r="M18" s="278"/>
+      <c r="N18" s="279"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="216"/>
-      <c r="B19" s="225" t="s">
+      <c r="A19" s="267"/>
+      <c r="B19" s="275" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="200"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="200"/>
-      <c r="L19" s="200"/>
-      <c r="M19" s="200"/>
-      <c r="N19" s="226"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="276"/>
     </row>
     <row r="20" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="216"/>
+      <c r="A20" s="267"/>
       <c r="B20" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="200" t="s">
+      <c r="D20" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="200"/>
+      <c r="E20" s="137"/>
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
-      <c r="H20" s="218"/>
-      <c r="I20" s="218"/>
-      <c r="J20" s="218"/>
-      <c r="K20" s="218"/>
-      <c r="L20" s="218"/>
-      <c r="M20" s="218"/>
-      <c r="N20" s="219"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="235"/>
+      <c r="K20" s="235"/>
+      <c r="L20" s="235"/>
+      <c r="M20" s="235"/>
+      <c r="N20" s="271"/>
     </row>
     <row r="21" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="216"/>
+      <c r="A21" s="267"/>
       <c r="B21" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="220" t="s">
+      <c r="C21" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="220"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="220" t="s">
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="220"/>
-      <c r="H21" s="252" t="s">
+      <c r="G21" s="138"/>
+      <c r="H21" s="222" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="252"/>
-      <c r="J21" s="252"/>
+      <c r="I21" s="222"/>
+      <c r="J21" s="222"/>
       <c r="K21" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="266"/>
-      <c r="M21" s="266"/>
+      <c r="L21" s="234"/>
+      <c r="M21" s="234"/>
       <c r="N21" s="52" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="216"/>
+      <c r="A22" s="267"/>
       <c r="B22" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="200" t="s">
+      <c r="C22" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="200"/>
-      <c r="E22" s="200"/>
-      <c r="F22" s="200" t="s">
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="200"/>
-      <c r="H22" s="253" t="s">
+      <c r="G22" s="137"/>
+      <c r="H22" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="I22" s="253"/>
-      <c r="J22" s="253"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
       <c r="K22" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="266"/>
-      <c r="M22" s="266"/>
+      <c r="L22" s="234"/>
+      <c r="M22" s="234"/>
       <c r="N22" s="52" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="216"/>
+      <c r="A23" s="267"/>
       <c r="B23" s="53" t="s">
         <v>11</v>
       </c>
@@ -6713,39 +7007,39 @@
       <c r="D23" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="320"/>
-      <c r="F23" s="320"/>
-      <c r="G23" s="320"/>
-      <c r="H23" s="320"/>
-      <c r="I23" s="320"/>
-      <c r="J23" s="320"/>
-      <c r="K23" s="320"/>
-      <c r="L23" s="320"/>
-      <c r="M23" s="320"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
       <c r="N23" s="55" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="216"/>
-      <c r="B24" s="221" t="s">
+      <c r="A24" s="267"/>
+      <c r="B24" s="272" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="222"/>
-      <c r="D24" s="222"/>
-      <c r="E24" s="222"/>
-      <c r="F24" s="222"/>
-      <c r="G24" s="222"/>
-      <c r="H24" s="222"/>
-      <c r="I24" s="222"/>
-      <c r="J24" s="222"/>
-      <c r="K24" s="222"/>
-      <c r="L24" s="222"/>
-      <c r="M24" s="222"/>
-      <c r="N24" s="223"/>
+      <c r="C24" s="273"/>
+      <c r="D24" s="273"/>
+      <c r="E24" s="273"/>
+      <c r="F24" s="273"/>
+      <c r="G24" s="273"/>
+      <c r="H24" s="273"/>
+      <c r="I24" s="273"/>
+      <c r="J24" s="273"/>
+      <c r="K24" s="273"/>
+      <c r="L24" s="273"/>
+      <c r="M24" s="273"/>
+      <c r="N24" s="274"/>
     </row>
     <row r="25" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="216"/>
+      <c r="A25" s="267"/>
       <c r="B25" s="53" t="s">
         <v>11</v>
       </c>
@@ -6758,120 +7052,120 @@
       <c r="E25" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="224" t="s">
+      <c r="F25" s="206" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="284"/>
-      <c r="H25" s="224" t="s">
+      <c r="G25" s="207"/>
+      <c r="H25" s="206" t="s">
         <v>143</v>
       </c>
-      <c r="I25" s="224"/>
-      <c r="J25" s="224"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
       <c r="K25" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="L25" s="265"/>
-      <c r="M25" s="265"/>
+      <c r="L25" s="233"/>
+      <c r="M25" s="233"/>
       <c r="N25" s="55" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="216"/>
-      <c r="B26" s="225" t="s">
+      <c r="A26" s="267"/>
+      <c r="B26" s="275" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="200"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="200"/>
-      <c r="F26" s="200"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="200"/>
-      <c r="I26" s="200"/>
-      <c r="J26" s="200"/>
-      <c r="K26" s="200"/>
-      <c r="L26" s="200"/>
-      <c r="M26" s="200"/>
-      <c r="N26" s="226"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="276"/>
     </row>
     <row r="27" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="216"/>
+      <c r="A27" s="267"/>
       <c r="B27" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="200" t="s">
+      <c r="D27" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="200"/>
-      <c r="F27" s="218"/>
-      <c r="G27" s="218"/>
-      <c r="H27" s="218"/>
-      <c r="I27" s="218"/>
-      <c r="J27" s="218"/>
-      <c r="K27" s="218"/>
-      <c r="L27" s="218"/>
-      <c r="M27" s="218"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="235"/>
+      <c r="K27" s="235"/>
+      <c r="L27" s="235"/>
+      <c r="M27" s="235"/>
       <c r="N27" s="58"/>
     </row>
     <row r="28" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="216"/>
+      <c r="A28" s="267"/>
       <c r="B28" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="220" t="s">
+      <c r="C28" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="220"/>
-      <c r="E28" s="220"/>
-      <c r="F28" s="321" t="s">
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="136" t="s">
         <v>138</v>
       </c>
-      <c r="G28" s="321"/>
-      <c r="H28" s="220"/>
-      <c r="I28" s="220"/>
-      <c r="J28" s="220"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
       <c r="K28" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="L28" s="266"/>
-      <c r="M28" s="266"/>
+      <c r="L28" s="234"/>
+      <c r="M28" s="234"/>
       <c r="N28" s="58" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="216"/>
+      <c r="A29" s="267"/>
       <c r="B29" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="200" t="s">
+      <c r="C29" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="200"/>
-      <c r="E29" s="200"/>
-      <c r="F29" s="200" t="s">
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="200"/>
-      <c r="H29" s="253" t="s">
+      <c r="G29" s="137"/>
+      <c r="H29" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="I29" s="253"/>
-      <c r="J29" s="253"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
       <c r="K29" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="266"/>
-      <c r="M29" s="266"/>
+      <c r="L29" s="234"/>
+      <c r="M29" s="234"/>
       <c r="N29" s="58" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="216"/>
+      <c r="A30" s="267"/>
       <c r="B30" s="48" t="s">
         <v>11</v>
       </c>
@@ -6881,29 +7175,29 @@
       <c r="D30" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="320"/>
-      <c r="F30" s="320"/>
-      <c r="G30" s="320"/>
-      <c r="H30" s="320"/>
-      <c r="I30" s="320"/>
-      <c r="J30" s="320"/>
-      <c r="K30" s="320"/>
-      <c r="L30" s="320"/>
-      <c r="M30" s="320"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
       <c r="N30" s="55" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="216"/>
+      <c r="A31" s="267"/>
       <c r="B31" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="222" t="s">
+      <c r="C31" s="273" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="222"/>
-      <c r="E31" s="222"/>
+      <c r="D31" s="273"/>
+      <c r="E31" s="273"/>
       <c r="F31" s="61" t="s">
         <v>56</v>
       </c>
@@ -6916,12 +7210,12 @@
       <c r="I31" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="325" t="s">
+      <c r="J31" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="K31" s="325"/>
-      <c r="L31" s="325"/>
-      <c r="M31" s="325"/>
+      <c r="K31" s="143"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="143"/>
       <c r="N31" s="63" t="s">
         <v>124</v>
       </c>
@@ -6931,25 +7225,25 @@
       <c r="A32" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="322" t="s">
-        <v>192</v>
-      </c>
-      <c r="C32" s="323"/>
-      <c r="D32" s="323"/>
-      <c r="E32" s="323"/>
-      <c r="F32" s="323"/>
-      <c r="G32" s="323"/>
-      <c r="H32" s="323"/>
-      <c r="I32" s="323"/>
-      <c r="J32" s="323"/>
-      <c r="K32" s="323"/>
-      <c r="L32" s="323"/>
-      <c r="M32" s="323"/>
-      <c r="N32" s="324"/>
+      <c r="B32" s="140" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="142"/>
       <c r="O32" s="7"/>
     </row>
     <row r="33" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="181" t="s">
+      <c r="A33" s="164" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="53" t="s">
@@ -6960,20 +7254,20 @@
       </c>
       <c r="D33" s="115"/>
       <c r="E33" s="115"/>
-      <c r="F33" s="332" t="s">
+      <c r="F33" s="150" t="s">
         <v>182</v>
       </c>
-      <c r="G33" s="333"/>
-      <c r="H33" s="333"/>
-      <c r="I33" s="333"/>
-      <c r="J33" s="333"/>
-      <c r="K33" s="333"/>
-      <c r="L33" s="333"/>
-      <c r="M33" s="333"/>
-      <c r="N33" s="334"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="151"/>
+      <c r="M33" s="151"/>
+      <c r="N33" s="152"/>
     </row>
     <row r="34" spans="1:14" s="114" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="182"/>
+      <c r="A34" s="165"/>
       <c r="B34" s="116" t="s">
         <v>180</v>
       </c>
@@ -6982,311 +7276,311 @@
       </c>
       <c r="D34" s="117"/>
       <c r="E34" s="117"/>
-      <c r="F34" s="122" t="s">
+      <c r="F34" s="342" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="123"/>
+      <c r="G34" s="342"/>
+      <c r="H34" s="342"/>
+      <c r="I34" s="342"/>
+      <c r="J34" s="342"/>
+      <c r="K34" s="342"/>
+      <c r="L34" s="342"/>
+      <c r="M34" s="342"/>
+      <c r="N34" s="343"/>
     </row>
     <row r="35" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="182"/>
+      <c r="A35" s="165"/>
       <c r="B35" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="124" t="s">
+      <c r="C35" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="120" t="s">
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="120"/>
-      <c r="N35" s="121"/>
+      <c r="G35" s="340"/>
+      <c r="H35" s="340"/>
+      <c r="I35" s="340"/>
+      <c r="J35" s="340"/>
+      <c r="K35" s="340"/>
+      <c r="L35" s="340"/>
+      <c r="M35" s="340"/>
+      <c r="N35" s="341"/>
     </row>
     <row r="36" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="182"/>
+      <c r="A36" s="165"/>
       <c r="B36" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="124" t="s">
+      <c r="C36" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="120" t="s">
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="340" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120"/>
-      <c r="N36" s="121"/>
+      <c r="G36" s="340"/>
+      <c r="H36" s="340"/>
+      <c r="I36" s="340"/>
+      <c r="J36" s="340"/>
+      <c r="K36" s="340"/>
+      <c r="L36" s="340"/>
+      <c r="M36" s="340"/>
+      <c r="N36" s="341"/>
     </row>
     <row r="37" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="182"/>
+      <c r="A37" s="165"/>
       <c r="B37" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="124" t="s">
+      <c r="C37" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="124"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="120" t="s">
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="340" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="120"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="120"/>
-      <c r="K37" s="120"/>
-      <c r="L37" s="120"/>
-      <c r="M37" s="120"/>
-      <c r="N37" s="121"/>
+      <c r="G37" s="340"/>
+      <c r="H37" s="340"/>
+      <c r="I37" s="340"/>
+      <c r="J37" s="340"/>
+      <c r="K37" s="340"/>
+      <c r="L37" s="340"/>
+      <c r="M37" s="340"/>
+      <c r="N37" s="341"/>
     </row>
     <row r="38" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="182"/>
+      <c r="A38" s="165"/>
       <c r="B38" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="124" t="s">
+      <c r="C38" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="120" t="s">
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="340" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="120"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="120"/>
-      <c r="J38" s="120"/>
-      <c r="K38" s="120"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="120"/>
-      <c r="N38" s="121"/>
+      <c r="G38" s="340"/>
+      <c r="H38" s="340"/>
+      <c r="I38" s="340"/>
+      <c r="J38" s="340"/>
+      <c r="K38" s="340"/>
+      <c r="L38" s="340"/>
+      <c r="M38" s="340"/>
+      <c r="N38" s="341"/>
     </row>
     <row r="39" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="182"/>
+      <c r="A39" s="165"/>
       <c r="B39" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="124" t="s">
+      <c r="C39" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="120" t="s">
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="340" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="120"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="120"/>
-      <c r="K39" s="120"/>
-      <c r="L39" s="120"/>
-      <c r="M39" s="120"/>
-      <c r="N39" s="121"/>
+      <c r="G39" s="340"/>
+      <c r="H39" s="340"/>
+      <c r="I39" s="340"/>
+      <c r="J39" s="340"/>
+      <c r="K39" s="340"/>
+      <c r="L39" s="340"/>
+      <c r="M39" s="340"/>
+      <c r="N39" s="341"/>
     </row>
     <row r="40" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="182"/>
+      <c r="A40" s="165"/>
       <c r="B40" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="124" t="s">
+      <c r="C40" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="120" t="s">
+      <c r="D40" s="134"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="340" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="121"/>
+      <c r="G40" s="340"/>
+      <c r="H40" s="340"/>
+      <c r="I40" s="340"/>
+      <c r="J40" s="340"/>
+      <c r="K40" s="340"/>
+      <c r="L40" s="340"/>
+      <c r="M40" s="340"/>
+      <c r="N40" s="341"/>
     </row>
     <row r="41" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="182"/>
+      <c r="A41" s="165"/>
       <c r="B41" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="191" t="s">
+      <c r="C41" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="191"/>
-      <c r="E41" s="191"/>
-      <c r="F41" s="122" t="s">
+      <c r="D41" s="121"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="342" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="122"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="122"/>
-      <c r="J41" s="122"/>
-      <c r="K41" s="122"/>
-      <c r="L41" s="122"/>
-      <c r="M41" s="122"/>
-      <c r="N41" s="123"/>
+      <c r="G41" s="342"/>
+      <c r="H41" s="342"/>
+      <c r="I41" s="342"/>
+      <c r="J41" s="342"/>
+      <c r="K41" s="342"/>
+      <c r="L41" s="342"/>
+      <c r="M41" s="342"/>
+      <c r="N41" s="343"/>
     </row>
     <row r="42" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="183"/>
+      <c r="A42" s="319"/>
       <c r="B42" s="66"/>
-      <c r="C42" s="189" t="s">
+      <c r="C42" s="204" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
-      <c r="J42" s="189"/>
-      <c r="K42" s="189"/>
-      <c r="L42" s="189"/>
-      <c r="M42" s="189"/>
-      <c r="N42" s="190"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="204"/>
+      <c r="H42" s="204"/>
+      <c r="I42" s="204"/>
+      <c r="J42" s="204"/>
+      <c r="K42" s="204"/>
+      <c r="L42" s="204"/>
+      <c r="M42" s="204"/>
+      <c r="N42" s="325"/>
     </row>
     <row r="43" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="145" t="s">
+      <c r="A43" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="173" t="s">
+      <c r="B43" s="311" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="174"/>
-      <c r="D43" s="310" t="s">
-        <v>193</v>
-      </c>
-      <c r="E43" s="310"/>
-      <c r="F43" s="310"/>
-      <c r="G43" s="310"/>
-      <c r="H43" s="310"/>
-      <c r="I43" s="310"/>
-      <c r="J43" s="310"/>
-      <c r="K43" s="310"/>
-      <c r="L43" s="310"/>
-      <c r="M43" s="310"/>
-      <c r="N43" s="311"/>
+      <c r="C43" s="312"/>
+      <c r="D43" s="195" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" s="195"/>
+      <c r="F43" s="195"/>
+      <c r="G43" s="195"/>
+      <c r="H43" s="195"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="195"/>
+      <c r="K43" s="195"/>
+      <c r="L43" s="195"/>
+      <c r="M43" s="195"/>
+      <c r="N43" s="196"/>
     </row>
     <row r="44" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="146"/>
-      <c r="B44" s="175" t="s">
+      <c r="A44" s="287"/>
+      <c r="B44" s="313" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="176"/>
-      <c r="D44" s="231" t="s">
+      <c r="C44" s="314"/>
+      <c r="D44" s="197" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="231"/>
-      <c r="F44" s="231"/>
-      <c r="G44" s="231"/>
-      <c r="H44" s="231"/>
-      <c r="I44" s="231"/>
-      <c r="J44" s="231"/>
+      <c r="E44" s="197"/>
+      <c r="F44" s="197"/>
+      <c r="G44" s="197"/>
+      <c r="H44" s="197"/>
+      <c r="I44" s="197"/>
+      <c r="J44" s="197"/>
       <c r="K44" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="L44" s="230"/>
-      <c r="M44" s="230"/>
+      <c r="L44" s="236"/>
+      <c r="M44" s="236"/>
       <c r="N44" s="68"/>
     </row>
     <row r="45" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="146"/>
-      <c r="B45" s="177"/>
-      <c r="C45" s="178"/>
-      <c r="D45" s="200" t="s">
+      <c r="A45" s="287"/>
+      <c r="B45" s="315"/>
+      <c r="C45" s="316"/>
+      <c r="D45" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="200"/>
-      <c r="F45" s="200"/>
-      <c r="G45" s="200"/>
-      <c r="H45" s="200"/>
-      <c r="I45" s="200"/>
-      <c r="J45" s="200"/>
-      <c r="K45" s="193" t="s">
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
+      <c r="J45" s="137"/>
+      <c r="K45" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="L45" s="193"/>
-      <c r="M45" s="193"/>
-      <c r="N45" s="194"/>
+      <c r="L45" s="132"/>
+      <c r="M45" s="132"/>
+      <c r="N45" s="133"/>
     </row>
     <row r="46" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="146"/>
-      <c r="B46" s="177"/>
-      <c r="C46" s="178"/>
-      <c r="D46" s="170" t="s">
+      <c r="A46" s="287"/>
+      <c r="B46" s="315"/>
+      <c r="C46" s="316"/>
+      <c r="D46" s="231" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="170"/>
-      <c r="F46" s="170"/>
-      <c r="G46" s="170"/>
-      <c r="H46" s="170"/>
-      <c r="I46" s="170"/>
-      <c r="J46" s="170"/>
+      <c r="E46" s="231"/>
+      <c r="F46" s="231"/>
+      <c r="G46" s="231"/>
+      <c r="H46" s="231"/>
+      <c r="I46" s="231"/>
+      <c r="J46" s="231"/>
       <c r="K46" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="L46" s="247"/>
-      <c r="M46" s="247"/>
+      <c r="L46" s="184"/>
+      <c r="M46" s="184"/>
       <c r="N46" s="101"/>
     </row>
     <row r="47" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="146"/>
-      <c r="B47" s="179"/>
-      <c r="C47" s="180"/>
-      <c r="D47" s="192" t="s">
+      <c r="A47" s="287"/>
+      <c r="B47" s="317"/>
+      <c r="C47" s="318"/>
+      <c r="D47" s="249" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="192"/>
-      <c r="F47" s="192"/>
-      <c r="G47" s="192"/>
-      <c r="H47" s="192"/>
-      <c r="I47" s="192"/>
-      <c r="J47" s="192"/>
-      <c r="K47" s="193" t="s">
+      <c r="E47" s="249"/>
+      <c r="F47" s="249"/>
+      <c r="G47" s="249"/>
+      <c r="H47" s="249"/>
+      <c r="I47" s="249"/>
+      <c r="J47" s="249"/>
+      <c r="K47" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="L47" s="193"/>
-      <c r="M47" s="193"/>
-      <c r="N47" s="194"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="132"/>
+      <c r="N47" s="133"/>
     </row>
     <row r="48" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="184"/>
-      <c r="B48" s="185" t="s">
+      <c r="A48" s="320"/>
+      <c r="B48" s="321" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="186"/>
-      <c r="D48" s="239"/>
-      <c r="E48" s="239"/>
-      <c r="F48" s="239"/>
-      <c r="G48" s="239"/>
-      <c r="H48" s="239"/>
-      <c r="I48" s="239"/>
-      <c r="J48" s="239"/>
-      <c r="K48" s="239"/>
-      <c r="L48" s="239"/>
-      <c r="M48" s="239"/>
-      <c r="N48" s="240"/>
+      <c r="C48" s="322"/>
+      <c r="D48" s="241"/>
+      <c r="E48" s="241"/>
+      <c r="F48" s="241"/>
+      <c r="G48" s="241"/>
+      <c r="H48" s="241"/>
+      <c r="I48" s="241"/>
+      <c r="J48" s="241"/>
+      <c r="K48" s="241"/>
+      <c r="L48" s="241"/>
+      <c r="M48" s="241"/>
+      <c r="N48" s="242"/>
     </row>
     <row r="49" spans="1:14" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="113"/>
@@ -7305,29 +7599,29 @@
       <c r="N49" s="102"/>
     </row>
     <row r="50" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="145" t="s">
+      <c r="A50" s="286" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="244" t="s">
+      <c r="B50" s="246" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="245"/>
-      <c r="D50" s="245"/>
-      <c r="E50" s="245"/>
-      <c r="F50" s="245"/>
-      <c r="G50" s="245"/>
-      <c r="H50" s="245"/>
-      <c r="I50" s="245"/>
-      <c r="J50" s="245"/>
-      <c r="K50" s="245"/>
-      <c r="L50" s="245"/>
-      <c r="M50" s="245"/>
-      <c r="N50" s="246"/>
+      <c r="C50" s="247"/>
+      <c r="D50" s="247"/>
+      <c r="E50" s="247"/>
+      <c r="F50" s="247"/>
+      <c r="G50" s="247"/>
+      <c r="H50" s="247"/>
+      <c r="I50" s="247"/>
+      <c r="J50" s="247"/>
+      <c r="K50" s="247"/>
+      <c r="L50" s="247"/>
+      <c r="M50" s="247"/>
+      <c r="N50" s="248"/>
     </row>
     <row r="51" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="146"/>
-      <c r="B51" s="187"/>
-      <c r="C51" s="188"/>
+      <c r="A51" s="287"/>
+      <c r="B51" s="323"/>
+      <c r="C51" s="324"/>
       <c r="D51" s="71"/>
       <c r="E51" s="72"/>
       <c r="F51" s="72"/>
@@ -7341,47 +7635,47 @@
       <c r="N51" s="70"/>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="146"/>
-      <c r="B52" s="241" t="s">
-        <v>199</v>
-      </c>
-      <c r="C52" s="242"/>
-      <c r="D52" s="242"/>
-      <c r="E52" s="242"/>
-      <c r="F52" s="242"/>
-      <c r="G52" s="242"/>
-      <c r="H52" s="242"/>
-      <c r="I52" s="242"/>
-      <c r="J52" s="242"/>
-      <c r="K52" s="242"/>
-      <c r="L52" s="242"/>
-      <c r="M52" s="242"/>
-      <c r="N52" s="243"/>
+      <c r="A52" s="287"/>
+      <c r="B52" s="243" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="244"/>
+      <c r="D52" s="244"/>
+      <c r="E52" s="244"/>
+      <c r="F52" s="244"/>
+      <c r="G52" s="244"/>
+      <c r="H52" s="244"/>
+      <c r="I52" s="244"/>
+      <c r="J52" s="244"/>
+      <c r="K52" s="244"/>
+      <c r="L52" s="244"/>
+      <c r="M52" s="244"/>
+      <c r="N52" s="245"/>
     </row>
     <row r="53" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="146"/>
-      <c r="B53" s="241"/>
-      <c r="C53" s="242"/>
-      <c r="D53" s="242"/>
-      <c r="E53" s="242"/>
-      <c r="F53" s="242"/>
-      <c r="G53" s="242"/>
-      <c r="H53" s="242"/>
-      <c r="I53" s="242"/>
-      <c r="J53" s="242"/>
-      <c r="K53" s="242"/>
-      <c r="L53" s="242"/>
-      <c r="M53" s="242"/>
-      <c r="N53" s="243"/>
+      <c r="A53" s="287"/>
+      <c r="B53" s="243"/>
+      <c r="C53" s="244"/>
+      <c r="D53" s="244"/>
+      <c r="E53" s="244"/>
+      <c r="F53" s="244"/>
+      <c r="G53" s="244"/>
+      <c r="H53" s="244"/>
+      <c r="I53" s="244"/>
+      <c r="J53" s="244"/>
+      <c r="K53" s="244"/>
+      <c r="L53" s="244"/>
+      <c r="M53" s="244"/>
+      <c r="N53" s="245"/>
     </row>
     <row r="54" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="146"/>
-      <c r="B54" s="241" t="s">
+      <c r="A54" s="287"/>
+      <c r="B54" s="243" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="242"/>
-      <c r="D54" s="242"/>
-      <c r="E54" s="242"/>
+      <c r="C54" s="244"/>
+      <c r="D54" s="244"/>
+      <c r="E54" s="244"/>
       <c r="F54" s="73"/>
       <c r="G54" s="73"/>
       <c r="H54" s="72"/>
@@ -7393,83 +7687,87 @@
       <c r="N54" s="70"/>
     </row>
     <row r="55" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="146"/>
-      <c r="B55" s="169" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" s="170"/>
-      <c r="D55" s="200"/>
-      <c r="E55" s="200"/>
-      <c r="F55" s="200"/>
-      <c r="G55" s="200"/>
-      <c r="H55" s="200"/>
-      <c r="I55" s="200"/>
+      <c r="A55" s="287"/>
+      <c r="B55" s="308" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="231"/>
+      <c r="D55" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" s="137"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="137"/>
+      <c r="H55" s="137"/>
+      <c r="I55" s="137"/>
       <c r="J55" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="K55" s="235"/>
-      <c r="L55" s="235"/>
-      <c r="M55" s="235"/>
-      <c r="N55" s="236"/>
+        <v>39</v>
+      </c>
+      <c r="K55" s="237" t="s">
+        <v>202</v>
+      </c>
+      <c r="L55" s="237"/>
+      <c r="M55" s="237"/>
+      <c r="N55" s="238"/>
     </row>
     <row r="56" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="147"/>
-      <c r="B56" s="171" t="s">
+      <c r="A56" s="288"/>
+      <c r="B56" s="309" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="172"/>
-      <c r="D56" s="189"/>
-      <c r="E56" s="189"/>
-      <c r="F56" s="189"/>
-      <c r="G56" s="189"/>
-      <c r="H56" s="189"/>
-      <c r="I56" s="189"/>
+      <c r="C56" s="310"/>
+      <c r="D56" s="204"/>
+      <c r="E56" s="204"/>
+      <c r="F56" s="204"/>
+      <c r="G56" s="204"/>
+      <c r="H56" s="204"/>
+      <c r="I56" s="204"/>
       <c r="J56" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="K56" s="237"/>
-      <c r="L56" s="237"/>
-      <c r="M56" s="237"/>
-      <c r="N56" s="238"/>
+      <c r="K56" s="239"/>
+      <c r="L56" s="239"/>
+      <c r="M56" s="239"/>
+      <c r="N56" s="240"/>
     </row>
     <row r="57" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="145" t="s">
+      <c r="A57" s="286" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="163" t="s">
+      <c r="B57" s="302" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="164"/>
-      <c r="D57" s="164"/>
-      <c r="E57" s="164"/>
-      <c r="F57" s="164"/>
-      <c r="G57" s="164"/>
-      <c r="H57" s="164"/>
-      <c r="I57" s="164"/>
-      <c r="J57" s="164"/>
-      <c r="K57" s="164"/>
-      <c r="L57" s="164"/>
-      <c r="M57" s="164"/>
-      <c r="N57" s="165"/>
+      <c r="C57" s="303"/>
+      <c r="D57" s="303"/>
+      <c r="E57" s="303"/>
+      <c r="F57" s="303"/>
+      <c r="G57" s="303"/>
+      <c r="H57" s="303"/>
+      <c r="I57" s="303"/>
+      <c r="J57" s="303"/>
+      <c r="K57" s="303"/>
+      <c r="L57" s="303"/>
+      <c r="M57" s="303"/>
+      <c r="N57" s="304"/>
     </row>
     <row r="58" spans="1:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="147"/>
-      <c r="B58" s="166"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
-      <c r="E58" s="167"/>
-      <c r="F58" s="167"/>
-      <c r="G58" s="167"/>
-      <c r="H58" s="167"/>
-      <c r="I58" s="167"/>
-      <c r="J58" s="167"/>
-      <c r="K58" s="167"/>
-      <c r="L58" s="167"/>
-      <c r="M58" s="167"/>
-      <c r="N58" s="168"/>
+      <c r="A58" s="288"/>
+      <c r="B58" s="305"/>
+      <c r="C58" s="306"/>
+      <c r="D58" s="306"/>
+      <c r="E58" s="306"/>
+      <c r="F58" s="306"/>
+      <c r="G58" s="306"/>
+      <c r="H58" s="306"/>
+      <c r="I58" s="306"/>
+      <c r="J58" s="306"/>
+      <c r="K58" s="306"/>
+      <c r="L58" s="306"/>
+      <c r="M58" s="306"/>
+      <c r="N58" s="307"/>
     </row>
     <row r="59" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="181" t="s">
+      <c r="A59" s="164" t="s">
         <v>49</v>
       </c>
       <c r="B59" s="75" t="s">
@@ -7489,45 +7787,45 @@
       <c r="N59" s="77"/>
     </row>
     <row r="60" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="234"/>
+      <c r="A60" s="166"/>
       <c r="B60" s="78"/>
-      <c r="C60" s="232" t="s">
+      <c r="C60" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="232"/>
-      <c r="E60" s="232"/>
-      <c r="F60" s="232"/>
-      <c r="G60" s="232"/>
-      <c r="H60" s="232"/>
-      <c r="I60" s="232"/>
-      <c r="J60" s="232"/>
-      <c r="K60" s="232"/>
-      <c r="L60" s="232"/>
-      <c r="M60" s="232"/>
-      <c r="N60" s="233"/>
+      <c r="D60" s="124"/>
+      <c r="E60" s="124"/>
+      <c r="F60" s="124"/>
+      <c r="G60" s="124"/>
+      <c r="H60" s="124"/>
+      <c r="I60" s="124"/>
+      <c r="J60" s="124"/>
+      <c r="K60" s="124"/>
+      <c r="L60" s="124"/>
+      <c r="M60" s="124"/>
+      <c r="N60" s="125"/>
     </row>
     <row r="61" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="279" t="s">
+      <c r="A61" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="271" t="s">
+      <c r="B61" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="C61" s="272"/>
-      <c r="D61" s="272"/>
-      <c r="E61" s="272"/>
-      <c r="F61" s="272"/>
-      <c r="G61" s="272"/>
-      <c r="H61" s="272"/>
-      <c r="I61" s="272"/>
-      <c r="J61" s="272"/>
-      <c r="K61" s="272"/>
-      <c r="L61" s="272"/>
-      <c r="M61" s="272"/>
-      <c r="N61" s="273"/>
+      <c r="C61" s="193"/>
+      <c r="D61" s="193"/>
+      <c r="E61" s="193"/>
+      <c r="F61" s="193"/>
+      <c r="G61" s="193"/>
+      <c r="H61" s="193"/>
+      <c r="I61" s="193"/>
+      <c r="J61" s="193"/>
+      <c r="K61" s="193"/>
+      <c r="L61" s="193"/>
+      <c r="M61" s="193"/>
+      <c r="N61" s="194"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="280"/>
+      <c r="A62" s="191"/>
       <c r="B62" s="69" t="s">
         <v>11</v>
       </c>
@@ -7551,7 +7849,7 @@
       <c r="N62" s="79"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="280"/>
+      <c r="A63" s="191"/>
       <c r="B63" s="69"/>
       <c r="C63" s="69" t="s">
         <v>58</v>
@@ -7569,67 +7867,67 @@
       <c r="N63" s="79"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="280"/>
+      <c r="A64" s="191"/>
       <c r="B64" s="69"/>
       <c r="C64" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="D64" s="193" t="s">
+      <c r="D64" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="E64" s="193"/>
-      <c r="F64" s="193"/>
-      <c r="G64" s="193"/>
-      <c r="H64" s="193"/>
-      <c r="I64" s="193"/>
-      <c r="J64" s="193"/>
-      <c r="K64" s="193"/>
-      <c r="L64" s="193"/>
-      <c r="M64" s="193"/>
-      <c r="N64" s="194"/>
+      <c r="E64" s="132"/>
+      <c r="F64" s="132"/>
+      <c r="G64" s="132"/>
+      <c r="H64" s="132"/>
+      <c r="I64" s="132"/>
+      <c r="J64" s="132"/>
+      <c r="K64" s="132"/>
+      <c r="L64" s="132"/>
+      <c r="M64" s="132"/>
+      <c r="N64" s="133"/>
     </row>
     <row r="65" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="299"/>
+      <c r="A65" s="192"/>
       <c r="B65" s="80"/>
       <c r="C65" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="D65" s="195" t="s">
+      <c r="D65" s="178" t="s">
         <v>79</v>
       </c>
-      <c r="E65" s="195"/>
-      <c r="F65" s="195"/>
-      <c r="G65" s="195"/>
-      <c r="H65" s="195"/>
-      <c r="I65" s="195"/>
-      <c r="J65" s="195"/>
-      <c r="K65" s="195"/>
-      <c r="L65" s="195"/>
-      <c r="M65" s="195"/>
-      <c r="N65" s="196"/>
+      <c r="E65" s="178"/>
+      <c r="F65" s="178"/>
+      <c r="G65" s="178"/>
+      <c r="H65" s="178"/>
+      <c r="I65" s="178"/>
+      <c r="J65" s="178"/>
+      <c r="K65" s="178"/>
+      <c r="L65" s="178"/>
+      <c r="M65" s="178"/>
+      <c r="N65" s="179"/>
     </row>
     <row r="66" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="279" t="s">
+      <c r="A66" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="271" t="s">
+      <c r="B66" s="189" t="s">
         <v>184</v>
       </c>
-      <c r="C66" s="272"/>
-      <c r="D66" s="272"/>
-      <c r="E66" s="272"/>
-      <c r="F66" s="272"/>
-      <c r="G66" s="272"/>
-      <c r="H66" s="272"/>
-      <c r="I66" s="272"/>
-      <c r="J66" s="272"/>
-      <c r="K66" s="272"/>
-      <c r="L66" s="272"/>
-      <c r="M66" s="272"/>
-      <c r="N66" s="273"/>
+      <c r="C66" s="193"/>
+      <c r="D66" s="193"/>
+      <c r="E66" s="193"/>
+      <c r="F66" s="193"/>
+      <c r="G66" s="193"/>
+      <c r="H66" s="193"/>
+      <c r="I66" s="193"/>
+      <c r="J66" s="193"/>
+      <c r="K66" s="193"/>
+      <c r="L66" s="193"/>
+      <c r="M66" s="193"/>
+      <c r="N66" s="194"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="280"/>
+      <c r="A67" s="191"/>
       <c r="B67" s="81" t="s">
         <v>11</v>
       </c>
@@ -7653,7 +7951,7 @@
       <c r="N67" s="79"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="280"/>
+      <c r="A68" s="191"/>
       <c r="B68" s="81"/>
       <c r="C68" s="69" t="s">
         <v>62</v>
@@ -7666,781 +7964,781 @@
       <c r="I68" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J68" s="193" t="s">
+      <c r="J68" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="K68" s="193"/>
-      <c r="L68" s="193"/>
-      <c r="M68" s="193"/>
-      <c r="N68" s="194"/>
+      <c r="K68" s="132"/>
+      <c r="L68" s="132"/>
+      <c r="M68" s="132"/>
+      <c r="N68" s="133"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="280"/>
+      <c r="A69" s="191"/>
       <c r="B69" s="81"/>
       <c r="C69" s="69" t="s">
         <v>63</v>
       </c>
       <c r="D69" s="69"/>
-      <c r="E69" s="193" t="s">
+      <c r="E69" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="F69" s="193"/>
-      <c r="G69" s="193"/>
-      <c r="H69" s="193"/>
-      <c r="I69" s="193"/>
-      <c r="J69" s="193"/>
-      <c r="K69" s="193"/>
-      <c r="L69" s="193"/>
-      <c r="M69" s="193"/>
-      <c r="N69" s="194"/>
+      <c r="F69" s="132"/>
+      <c r="G69" s="132"/>
+      <c r="H69" s="132"/>
+      <c r="I69" s="132"/>
+      <c r="J69" s="132"/>
+      <c r="K69" s="132"/>
+      <c r="L69" s="132"/>
+      <c r="M69" s="132"/>
+      <c r="N69" s="133"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="280"/>
+      <c r="A70" s="191"/>
       <c r="B70" s="81"/>
       <c r="C70" s="69"/>
       <c r="D70" s="69"/>
-      <c r="E70" s="193" t="s">
+      <c r="E70" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="F70" s="193"/>
-      <c r="G70" s="193"/>
-      <c r="H70" s="193"/>
-      <c r="I70" s="193"/>
-      <c r="J70" s="193"/>
-      <c r="K70" s="193"/>
-      <c r="L70" s="193"/>
-      <c r="M70" s="193"/>
-      <c r="N70" s="194"/>
+      <c r="F70" s="132"/>
+      <c r="G70" s="132"/>
+      <c r="H70" s="132"/>
+      <c r="I70" s="132"/>
+      <c r="J70" s="132"/>
+      <c r="K70" s="132"/>
+      <c r="L70" s="132"/>
+      <c r="M70" s="132"/>
+      <c r="N70" s="133"/>
     </row>
     <row r="71" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="280"/>
+      <c r="A71" s="191"/>
       <c r="B71" s="81"/>
       <c r="C71" s="69"/>
       <c r="D71" s="69"/>
-      <c r="E71" s="193" t="s">
+      <c r="E71" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="F71" s="193"/>
-      <c r="G71" s="193"/>
-      <c r="H71" s="193"/>
-      <c r="I71" s="193"/>
-      <c r="J71" s="193"/>
-      <c r="K71" s="193"/>
-      <c r="L71" s="193"/>
-      <c r="M71" s="193"/>
-      <c r="N71" s="194"/>
+      <c r="F71" s="132"/>
+      <c r="G71" s="132"/>
+      <c r="H71" s="132"/>
+      <c r="I71" s="132"/>
+      <c r="J71" s="132"/>
+      <c r="K71" s="132"/>
+      <c r="L71" s="132"/>
+      <c r="M71" s="132"/>
+      <c r="N71" s="133"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="181" t="s">
+      <c r="A72" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="300" t="s">
+      <c r="B72" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="301"/>
-      <c r="D72" s="301"/>
-      <c r="E72" s="301"/>
-      <c r="F72" s="301"/>
-      <c r="G72" s="301"/>
-      <c r="H72" s="301"/>
-      <c r="I72" s="301"/>
-      <c r="J72" s="301"/>
-      <c r="K72" s="301"/>
-      <c r="L72" s="301"/>
-      <c r="M72" s="301"/>
-      <c r="N72" s="302"/>
+      <c r="C72" s="168"/>
+      <c r="D72" s="168"/>
+      <c r="E72" s="168"/>
+      <c r="F72" s="168"/>
+      <c r="G72" s="168"/>
+      <c r="H72" s="168"/>
+      <c r="I72" s="168"/>
+      <c r="J72" s="168"/>
+      <c r="K72" s="168"/>
+      <c r="L72" s="168"/>
+      <c r="M72" s="168"/>
+      <c r="N72" s="169"/>
     </row>
     <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="182"/>
-      <c r="B73" s="274"/>
-      <c r="C73" s="247"/>
-      <c r="D73" s="247"/>
-      <c r="E73" s="247"/>
-      <c r="F73" s="247"/>
-      <c r="G73" s="247"/>
-      <c r="H73" s="247"/>
-      <c r="I73" s="247"/>
-      <c r="J73" s="247"/>
-      <c r="K73" s="247"/>
-      <c r="L73" s="247"/>
-      <c r="M73" s="247"/>
-      <c r="N73" s="275"/>
+      <c r="A73" s="165"/>
+      <c r="B73" s="183"/>
+      <c r="C73" s="184"/>
+      <c r="D73" s="184"/>
+      <c r="E73" s="184"/>
+      <c r="F73" s="184"/>
+      <c r="G73" s="184"/>
+      <c r="H73" s="184"/>
+      <c r="I73" s="184"/>
+      <c r="J73" s="184"/>
+      <c r="K73" s="184"/>
+      <c r="L73" s="184"/>
+      <c r="M73" s="184"/>
+      <c r="N73" s="185"/>
     </row>
     <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="182"/>
-      <c r="B74" s="274"/>
-      <c r="C74" s="247"/>
-      <c r="D74" s="247"/>
-      <c r="E74" s="247"/>
-      <c r="F74" s="247"/>
-      <c r="G74" s="247"/>
-      <c r="H74" s="247"/>
-      <c r="I74" s="247"/>
-      <c r="J74" s="247"/>
-      <c r="K74" s="247"/>
-      <c r="L74" s="247"/>
-      <c r="M74" s="247"/>
-      <c r="N74" s="275"/>
+      <c r="A74" s="165"/>
+      <c r="B74" s="183"/>
+      <c r="C74" s="184"/>
+      <c r="D74" s="184"/>
+      <c r="E74" s="184"/>
+      <c r="F74" s="184"/>
+      <c r="G74" s="184"/>
+      <c r="H74" s="184"/>
+      <c r="I74" s="184"/>
+      <c r="J74" s="184"/>
+      <c r="K74" s="184"/>
+      <c r="L74" s="184"/>
+      <c r="M74" s="184"/>
+      <c r="N74" s="185"/>
     </row>
     <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="182"/>
-      <c r="B75" s="274"/>
-      <c r="C75" s="247"/>
-      <c r="D75" s="247"/>
-      <c r="E75" s="247"/>
-      <c r="F75" s="247"/>
-      <c r="G75" s="247"/>
-      <c r="H75" s="247"/>
-      <c r="I75" s="247"/>
-      <c r="J75" s="247"/>
-      <c r="K75" s="247"/>
-      <c r="L75" s="247"/>
-      <c r="M75" s="247"/>
-      <c r="N75" s="275"/>
+      <c r="A75" s="165"/>
+      <c r="B75" s="183"/>
+      <c r="C75" s="184"/>
+      <c r="D75" s="184"/>
+      <c r="E75" s="184"/>
+      <c r="F75" s="184"/>
+      <c r="G75" s="184"/>
+      <c r="H75" s="184"/>
+      <c r="I75" s="184"/>
+      <c r="J75" s="184"/>
+      <c r="K75" s="184"/>
+      <c r="L75" s="184"/>
+      <c r="M75" s="184"/>
+      <c r="N75" s="185"/>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="234"/>
-      <c r="B76" s="276"/>
-      <c r="C76" s="277"/>
-      <c r="D76" s="277"/>
-      <c r="E76" s="277"/>
-      <c r="F76" s="277"/>
-      <c r="G76" s="277"/>
-      <c r="H76" s="277"/>
-      <c r="I76" s="277"/>
-      <c r="J76" s="277"/>
-      <c r="K76" s="277"/>
-      <c r="L76" s="277"/>
-      <c r="M76" s="277"/>
-      <c r="N76" s="278"/>
+      <c r="A76" s="166"/>
+      <c r="B76" s="186"/>
+      <c r="C76" s="187"/>
+      <c r="D76" s="187"/>
+      <c r="E76" s="187"/>
+      <c r="F76" s="187"/>
+      <c r="G76" s="187"/>
+      <c r="H76" s="187"/>
+      <c r="I76" s="187"/>
+      <c r="J76" s="187"/>
+      <c r="K76" s="187"/>
+      <c r="L76" s="187"/>
+      <c r="M76" s="187"/>
+      <c r="N76" s="188"/>
     </row>
     <row r="77" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="181" t="s">
+      <c r="A77" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="B77" s="329" t="s">
+      <c r="B77" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="C77" s="330"/>
-      <c r="D77" s="330"/>
-      <c r="E77" s="330"/>
-      <c r="F77" s="330"/>
-      <c r="G77" s="330"/>
-      <c r="H77" s="330"/>
-      <c r="I77" s="330"/>
-      <c r="J77" s="330"/>
-      <c r="K77" s="330"/>
-      <c r="L77" s="330"/>
-      <c r="M77" s="330"/>
-      <c r="N77" s="331"/>
+      <c r="C77" s="148"/>
+      <c r="D77" s="148"/>
+      <c r="E77" s="148"/>
+      <c r="F77" s="148"/>
+      <c r="G77" s="148"/>
+      <c r="H77" s="148"/>
+      <c r="I77" s="148"/>
+      <c r="J77" s="148"/>
+      <c r="K77" s="148"/>
+      <c r="L77" s="148"/>
+      <c r="M77" s="148"/>
+      <c r="N77" s="149"/>
     </row>
     <row r="78" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="182"/>
-      <c r="B78" s="274"/>
-      <c r="C78" s="247"/>
-      <c r="D78" s="247"/>
-      <c r="E78" s="247"/>
-      <c r="F78" s="247"/>
-      <c r="G78" s="247"/>
-      <c r="H78" s="247"/>
-      <c r="I78" s="247"/>
-      <c r="J78" s="247"/>
-      <c r="K78" s="247"/>
-      <c r="L78" s="247"/>
-      <c r="M78" s="247"/>
-      <c r="N78" s="275"/>
+      <c r="A78" s="165"/>
+      <c r="B78" s="183"/>
+      <c r="C78" s="184"/>
+      <c r="D78" s="184"/>
+      <c r="E78" s="184"/>
+      <c r="F78" s="184"/>
+      <c r="G78" s="184"/>
+      <c r="H78" s="184"/>
+      <c r="I78" s="184"/>
+      <c r="J78" s="184"/>
+      <c r="K78" s="184"/>
+      <c r="L78" s="184"/>
+      <c r="M78" s="184"/>
+      <c r="N78" s="185"/>
     </row>
     <row r="79" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="182"/>
-      <c r="B79" s="274"/>
-      <c r="C79" s="247"/>
-      <c r="D79" s="247"/>
-      <c r="E79" s="247"/>
-      <c r="F79" s="247"/>
-      <c r="G79" s="247"/>
-      <c r="H79" s="247"/>
-      <c r="I79" s="247"/>
-      <c r="J79" s="247"/>
-      <c r="K79" s="247"/>
-      <c r="L79" s="247"/>
-      <c r="M79" s="247"/>
-      <c r="N79" s="275"/>
+      <c r="A79" s="165"/>
+      <c r="B79" s="183"/>
+      <c r="C79" s="184"/>
+      <c r="D79" s="184"/>
+      <c r="E79" s="184"/>
+      <c r="F79" s="184"/>
+      <c r="G79" s="184"/>
+      <c r="H79" s="184"/>
+      <c r="I79" s="184"/>
+      <c r="J79" s="184"/>
+      <c r="K79" s="184"/>
+      <c r="L79" s="184"/>
+      <c r="M79" s="184"/>
+      <c r="N79" s="185"/>
     </row>
     <row r="80" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="182"/>
-      <c r="B80" s="274"/>
-      <c r="C80" s="247"/>
-      <c r="D80" s="247"/>
-      <c r="E80" s="247"/>
-      <c r="F80" s="247"/>
-      <c r="G80" s="247"/>
-      <c r="H80" s="247"/>
-      <c r="I80" s="247"/>
-      <c r="J80" s="247"/>
-      <c r="K80" s="247"/>
-      <c r="L80" s="247"/>
-      <c r="M80" s="247"/>
-      <c r="N80" s="275"/>
+      <c r="A80" s="165"/>
+      <c r="B80" s="183"/>
+      <c r="C80" s="184"/>
+      <c r="D80" s="184"/>
+      <c r="E80" s="184"/>
+      <c r="F80" s="184"/>
+      <c r="G80" s="184"/>
+      <c r="H80" s="184"/>
+      <c r="I80" s="184"/>
+      <c r="J80" s="184"/>
+      <c r="K80" s="184"/>
+      <c r="L80" s="184"/>
+      <c r="M80" s="184"/>
+      <c r="N80" s="185"/>
     </row>
     <row r="81" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="234"/>
-      <c r="B81" s="276"/>
-      <c r="C81" s="277"/>
-      <c r="D81" s="277"/>
-      <c r="E81" s="277"/>
-      <c r="F81" s="277"/>
-      <c r="G81" s="277"/>
-      <c r="H81" s="277"/>
-      <c r="I81" s="277"/>
-      <c r="J81" s="277"/>
-      <c r="K81" s="277"/>
-      <c r="L81" s="277"/>
-      <c r="M81" s="277"/>
-      <c r="N81" s="278"/>
+      <c r="A81" s="166"/>
+      <c r="B81" s="186"/>
+      <c r="C81" s="187"/>
+      <c r="D81" s="187"/>
+      <c r="E81" s="187"/>
+      <c r="F81" s="187"/>
+      <c r="G81" s="187"/>
+      <c r="H81" s="187"/>
+      <c r="I81" s="187"/>
+      <c r="J81" s="187"/>
+      <c r="K81" s="187"/>
+      <c r="L81" s="187"/>
+      <c r="M81" s="187"/>
+      <c r="N81" s="188"/>
     </row>
     <row r="82" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="181" t="s">
+      <c r="A82" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="271"/>
-      <c r="C82" s="295"/>
-      <c r="D82" s="295"/>
-      <c r="E82" s="295"/>
-      <c r="F82" s="295"/>
-      <c r="G82" s="295"/>
-      <c r="H82" s="295"/>
-      <c r="I82" s="295"/>
-      <c r="J82" s="295"/>
-      <c r="K82" s="295"/>
-      <c r="L82" s="295"/>
-      <c r="M82" s="295"/>
-      <c r="N82" s="296"/>
+      <c r="B82" s="189"/>
+      <c r="C82" s="181"/>
+      <c r="D82" s="181"/>
+      <c r="E82" s="181"/>
+      <c r="F82" s="181"/>
+      <c r="G82" s="181"/>
+      <c r="H82" s="181"/>
+      <c r="I82" s="181"/>
+      <c r="J82" s="181"/>
+      <c r="K82" s="181"/>
+      <c r="L82" s="181"/>
+      <c r="M82" s="181"/>
+      <c r="N82" s="182"/>
     </row>
     <row r="83" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="182"/>
-      <c r="B83" s="274"/>
-      <c r="C83" s="247"/>
-      <c r="D83" s="247"/>
-      <c r="E83" s="247"/>
-      <c r="F83" s="247"/>
-      <c r="G83" s="247"/>
-      <c r="H83" s="247"/>
-      <c r="I83" s="247"/>
-      <c r="J83" s="247"/>
-      <c r="K83" s="247"/>
-      <c r="L83" s="247"/>
-      <c r="M83" s="247"/>
-      <c r="N83" s="275"/>
+      <c r="A83" s="165"/>
+      <c r="B83" s="183"/>
+      <c r="C83" s="184"/>
+      <c r="D83" s="184"/>
+      <c r="E83" s="184"/>
+      <c r="F83" s="184"/>
+      <c r="G83" s="184"/>
+      <c r="H83" s="184"/>
+      <c r="I83" s="184"/>
+      <c r="J83" s="184"/>
+      <c r="K83" s="184"/>
+      <c r="L83" s="184"/>
+      <c r="M83" s="184"/>
+      <c r="N83" s="185"/>
     </row>
     <row r="84" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="182"/>
-      <c r="B84" s="274"/>
-      <c r="C84" s="247"/>
-      <c r="D84" s="247"/>
-      <c r="E84" s="247"/>
-      <c r="F84" s="247"/>
-      <c r="G84" s="247"/>
-      <c r="H84" s="247"/>
-      <c r="I84" s="247"/>
-      <c r="J84" s="247"/>
-      <c r="K84" s="247"/>
-      <c r="L84" s="247"/>
-      <c r="M84" s="247"/>
-      <c r="N84" s="275"/>
+      <c r="A84" s="165"/>
+      <c r="B84" s="183"/>
+      <c r="C84" s="184"/>
+      <c r="D84" s="184"/>
+      <c r="E84" s="184"/>
+      <c r="F84" s="184"/>
+      <c r="G84" s="184"/>
+      <c r="H84" s="184"/>
+      <c r="I84" s="184"/>
+      <c r="J84" s="184"/>
+      <c r="K84" s="184"/>
+      <c r="L84" s="184"/>
+      <c r="M84" s="184"/>
+      <c r="N84" s="185"/>
     </row>
     <row r="85" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="182"/>
-      <c r="B85" s="274"/>
-      <c r="C85" s="247"/>
-      <c r="D85" s="247"/>
-      <c r="E85" s="247"/>
-      <c r="F85" s="247"/>
-      <c r="G85" s="247"/>
-      <c r="H85" s="247"/>
-      <c r="I85" s="247"/>
-      <c r="J85" s="247"/>
-      <c r="K85" s="247"/>
-      <c r="L85" s="247"/>
-      <c r="M85" s="247"/>
-      <c r="N85" s="275"/>
+      <c r="A85" s="165"/>
+      <c r="B85" s="183"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
+      <c r="F85" s="184"/>
+      <c r="G85" s="184"/>
+      <c r="H85" s="184"/>
+      <c r="I85" s="184"/>
+      <c r="J85" s="184"/>
+      <c r="K85" s="184"/>
+      <c r="L85" s="184"/>
+      <c r="M85" s="184"/>
+      <c r="N85" s="185"/>
     </row>
     <row r="86" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="234"/>
-      <c r="B86" s="276"/>
-      <c r="C86" s="277"/>
-      <c r="D86" s="277"/>
-      <c r="E86" s="277"/>
-      <c r="F86" s="277"/>
-      <c r="G86" s="277"/>
-      <c r="H86" s="277"/>
-      <c r="I86" s="277"/>
-      <c r="J86" s="277"/>
-      <c r="K86" s="277"/>
-      <c r="L86" s="277"/>
-      <c r="M86" s="277"/>
-      <c r="N86" s="278"/>
+      <c r="A86" s="166"/>
+      <c r="B86" s="186"/>
+      <c r="C86" s="187"/>
+      <c r="D86" s="187"/>
+      <c r="E86" s="187"/>
+      <c r="F86" s="187"/>
+      <c r="G86" s="187"/>
+      <c r="H86" s="187"/>
+      <c r="I86" s="187"/>
+      <c r="J86" s="187"/>
+      <c r="K86" s="187"/>
+      <c r="L86" s="187"/>
+      <c r="M86" s="187"/>
+      <c r="N86" s="188"/>
     </row>
     <row r="87" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="279" t="s">
+      <c r="A87" s="190" t="s">
         <v>72</v>
       </c>
-      <c r="B87" s="343" t="s">
-        <v>202</v>
-      </c>
-      <c r="C87" s="295"/>
-      <c r="D87" s="295"/>
-      <c r="E87" s="295"/>
-      <c r="F87" s="295"/>
-      <c r="G87" s="295"/>
-      <c r="H87" s="295"/>
-      <c r="I87" s="295"/>
-      <c r="J87" s="295"/>
-      <c r="K87" s="295"/>
-      <c r="L87" s="295"/>
-      <c r="M87" s="295"/>
-      <c r="N87" s="296"/>
+      <c r="B87" s="180" t="s">
+        <v>199</v>
+      </c>
+      <c r="C87" s="181"/>
+      <c r="D87" s="181"/>
+      <c r="E87" s="181"/>
+      <c r="F87" s="181"/>
+      <c r="G87" s="181"/>
+      <c r="H87" s="181"/>
+      <c r="I87" s="181"/>
+      <c r="J87" s="181"/>
+      <c r="K87" s="181"/>
+      <c r="L87" s="181"/>
+      <c r="M87" s="181"/>
+      <c r="N87" s="182"/>
     </row>
     <row r="88" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="280"/>
-      <c r="B88" s="274"/>
-      <c r="C88" s="247"/>
-      <c r="D88" s="247"/>
-      <c r="E88" s="247"/>
-      <c r="F88" s="247"/>
-      <c r="G88" s="247"/>
-      <c r="H88" s="247"/>
-      <c r="I88" s="247"/>
-      <c r="J88" s="247"/>
-      <c r="K88" s="247"/>
-      <c r="L88" s="247"/>
-      <c r="M88" s="247"/>
-      <c r="N88" s="275"/>
+      <c r="A88" s="191"/>
+      <c r="B88" s="183"/>
+      <c r="C88" s="184"/>
+      <c r="D88" s="184"/>
+      <c r="E88" s="184"/>
+      <c r="F88" s="184"/>
+      <c r="G88" s="184"/>
+      <c r="H88" s="184"/>
+      <c r="I88" s="184"/>
+      <c r="J88" s="184"/>
+      <c r="K88" s="184"/>
+      <c r="L88" s="184"/>
+      <c r="M88" s="184"/>
+      <c r="N88" s="185"/>
     </row>
     <row r="89" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="280"/>
-      <c r="B89" s="274"/>
-      <c r="C89" s="247"/>
-      <c r="D89" s="247"/>
-      <c r="E89" s="247"/>
-      <c r="F89" s="247"/>
-      <c r="G89" s="247"/>
-      <c r="H89" s="247"/>
-      <c r="I89" s="247"/>
-      <c r="J89" s="247"/>
-      <c r="K89" s="247"/>
-      <c r="L89" s="247"/>
-      <c r="M89" s="247"/>
-      <c r="N89" s="275"/>
+      <c r="A89" s="191"/>
+      <c r="B89" s="183"/>
+      <c r="C89" s="184"/>
+      <c r="D89" s="184"/>
+      <c r="E89" s="184"/>
+      <c r="F89" s="184"/>
+      <c r="G89" s="184"/>
+      <c r="H89" s="184"/>
+      <c r="I89" s="184"/>
+      <c r="J89" s="184"/>
+      <c r="K89" s="184"/>
+      <c r="L89" s="184"/>
+      <c r="M89" s="184"/>
+      <c r="N89" s="185"/>
     </row>
     <row r="90" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="280"/>
-      <c r="B90" s="274"/>
-      <c r="C90" s="247"/>
-      <c r="D90" s="247"/>
-      <c r="E90" s="247"/>
-      <c r="F90" s="247"/>
-      <c r="G90" s="247"/>
-      <c r="H90" s="247"/>
-      <c r="I90" s="247"/>
-      <c r="J90" s="247"/>
-      <c r="K90" s="247"/>
-      <c r="L90" s="247"/>
-      <c r="M90" s="247"/>
-      <c r="N90" s="275"/>
+      <c r="A90" s="191"/>
+      <c r="B90" s="183"/>
+      <c r="C90" s="184"/>
+      <c r="D90" s="184"/>
+      <c r="E90" s="184"/>
+      <c r="F90" s="184"/>
+      <c r="G90" s="184"/>
+      <c r="H90" s="184"/>
+      <c r="I90" s="184"/>
+      <c r="J90" s="184"/>
+      <c r="K90" s="184"/>
+      <c r="L90" s="184"/>
+      <c r="M90" s="184"/>
+      <c r="N90" s="185"/>
     </row>
     <row r="91" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="280"/>
-      <c r="B91" s="274"/>
-      <c r="C91" s="247"/>
-      <c r="D91" s="247"/>
-      <c r="E91" s="247"/>
-      <c r="F91" s="247"/>
-      <c r="G91" s="247"/>
-      <c r="H91" s="247"/>
-      <c r="I91" s="247"/>
-      <c r="J91" s="247"/>
-      <c r="K91" s="247"/>
-      <c r="L91" s="247"/>
-      <c r="M91" s="247"/>
-      <c r="N91" s="275"/>
+      <c r="A91" s="191"/>
+      <c r="B91" s="183"/>
+      <c r="C91" s="184"/>
+      <c r="D91" s="184"/>
+      <c r="E91" s="184"/>
+      <c r="F91" s="184"/>
+      <c r="G91" s="184"/>
+      <c r="H91" s="184"/>
+      <c r="I91" s="184"/>
+      <c r="J91" s="184"/>
+      <c r="K91" s="184"/>
+      <c r="L91" s="184"/>
+      <c r="M91" s="184"/>
+      <c r="N91" s="185"/>
     </row>
     <row r="92" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="280"/>
-      <c r="B92" s="274"/>
-      <c r="C92" s="247"/>
-      <c r="D92" s="247"/>
-      <c r="E92" s="247"/>
-      <c r="F92" s="247"/>
-      <c r="G92" s="247"/>
-      <c r="H92" s="247"/>
-      <c r="I92" s="247"/>
-      <c r="J92" s="247"/>
-      <c r="K92" s="247"/>
-      <c r="L92" s="247"/>
-      <c r="M92" s="247"/>
-      <c r="N92" s="275"/>
+      <c r="A92" s="191"/>
+      <c r="B92" s="183"/>
+      <c r="C92" s="184"/>
+      <c r="D92" s="184"/>
+      <c r="E92" s="184"/>
+      <c r="F92" s="184"/>
+      <c r="G92" s="184"/>
+      <c r="H92" s="184"/>
+      <c r="I92" s="184"/>
+      <c r="J92" s="184"/>
+      <c r="K92" s="184"/>
+      <c r="L92" s="184"/>
+      <c r="M92" s="184"/>
+      <c r="N92" s="185"/>
     </row>
     <row r="93" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="299"/>
-      <c r="B93" s="276"/>
-      <c r="C93" s="277"/>
-      <c r="D93" s="277"/>
-      <c r="E93" s="277"/>
-      <c r="F93" s="277"/>
-      <c r="G93" s="277"/>
-      <c r="H93" s="277"/>
-      <c r="I93" s="277"/>
-      <c r="J93" s="277"/>
-      <c r="K93" s="277"/>
-      <c r="L93" s="277"/>
-      <c r="M93" s="277"/>
-      <c r="N93" s="278"/>
+      <c r="A93" s="192"/>
+      <c r="B93" s="186"/>
+      <c r="C93" s="187"/>
+      <c r="D93" s="187"/>
+      <c r="E93" s="187"/>
+      <c r="F93" s="187"/>
+      <c r="G93" s="187"/>
+      <c r="H93" s="187"/>
+      <c r="I93" s="187"/>
+      <c r="J93" s="187"/>
+      <c r="K93" s="187"/>
+      <c r="L93" s="187"/>
+      <c r="M93" s="187"/>
+      <c r="N93" s="188"/>
     </row>
     <row r="94" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="181" t="s">
+      <c r="A94" s="164" t="s">
         <v>148</v>
       </c>
-      <c r="B94" s="343" t="s">
-        <v>203</v>
-      </c>
-      <c r="C94" s="295"/>
-      <c r="D94" s="295"/>
-      <c r="E94" s="295"/>
-      <c r="F94" s="295"/>
-      <c r="G94" s="295"/>
-      <c r="H94" s="295"/>
-      <c r="I94" s="295"/>
-      <c r="J94" s="295"/>
-      <c r="K94" s="295"/>
-      <c r="L94" s="295"/>
-      <c r="M94" s="295"/>
-      <c r="N94" s="296"/>
+      <c r="B94" s="180" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" s="181"/>
+      <c r="D94" s="181"/>
+      <c r="E94" s="181"/>
+      <c r="F94" s="181"/>
+      <c r="G94" s="181"/>
+      <c r="H94" s="181"/>
+      <c r="I94" s="181"/>
+      <c r="J94" s="181"/>
+      <c r="K94" s="181"/>
+      <c r="L94" s="181"/>
+      <c r="M94" s="181"/>
+      <c r="N94" s="182"/>
     </row>
     <row r="95" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="182"/>
-      <c r="B95" s="274"/>
-      <c r="C95" s="247"/>
-      <c r="D95" s="247"/>
-      <c r="E95" s="247"/>
-      <c r="F95" s="247"/>
-      <c r="G95" s="247"/>
-      <c r="H95" s="247"/>
-      <c r="I95" s="247"/>
-      <c r="J95" s="247"/>
-      <c r="K95" s="247"/>
-      <c r="L95" s="247"/>
-      <c r="M95" s="247"/>
-      <c r="N95" s="275"/>
+      <c r="A95" s="165"/>
+      <c r="B95" s="183"/>
+      <c r="C95" s="184"/>
+      <c r="D95" s="184"/>
+      <c r="E95" s="184"/>
+      <c r="F95" s="184"/>
+      <c r="G95" s="184"/>
+      <c r="H95" s="184"/>
+      <c r="I95" s="184"/>
+      <c r="J95" s="184"/>
+      <c r="K95" s="184"/>
+      <c r="L95" s="184"/>
+      <c r="M95" s="184"/>
+      <c r="N95" s="185"/>
     </row>
     <row r="96" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="182"/>
-      <c r="B96" s="274"/>
-      <c r="C96" s="247"/>
-      <c r="D96" s="247"/>
-      <c r="E96" s="247"/>
-      <c r="F96" s="247"/>
-      <c r="G96" s="247"/>
-      <c r="H96" s="247"/>
-      <c r="I96" s="247"/>
-      <c r="J96" s="247"/>
-      <c r="K96" s="247"/>
-      <c r="L96" s="247"/>
-      <c r="M96" s="247"/>
-      <c r="N96" s="275"/>
+      <c r="A96" s="165"/>
+      <c r="B96" s="183"/>
+      <c r="C96" s="184"/>
+      <c r="D96" s="184"/>
+      <c r="E96" s="184"/>
+      <c r="F96" s="184"/>
+      <c r="G96" s="184"/>
+      <c r="H96" s="184"/>
+      <c r="I96" s="184"/>
+      <c r="J96" s="184"/>
+      <c r="K96" s="184"/>
+      <c r="L96" s="184"/>
+      <c r="M96" s="184"/>
+      <c r="N96" s="185"/>
     </row>
     <row r="97" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="182"/>
-      <c r="B97" s="274"/>
-      <c r="C97" s="247"/>
-      <c r="D97" s="247"/>
-      <c r="E97" s="247"/>
-      <c r="F97" s="247"/>
-      <c r="G97" s="247"/>
-      <c r="H97" s="247"/>
-      <c r="I97" s="247"/>
-      <c r="J97" s="247"/>
-      <c r="K97" s="247"/>
-      <c r="L97" s="247"/>
-      <c r="M97" s="247"/>
-      <c r="N97" s="275"/>
+      <c r="A97" s="165"/>
+      <c r="B97" s="183"/>
+      <c r="C97" s="184"/>
+      <c r="D97" s="184"/>
+      <c r="E97" s="184"/>
+      <c r="F97" s="184"/>
+      <c r="G97" s="184"/>
+      <c r="H97" s="184"/>
+      <c r="I97" s="184"/>
+      <c r="J97" s="184"/>
+      <c r="K97" s="184"/>
+      <c r="L97" s="184"/>
+      <c r="M97" s="184"/>
+      <c r="N97" s="185"/>
     </row>
     <row r="98" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="182"/>
-      <c r="B98" s="274"/>
-      <c r="C98" s="247"/>
-      <c r="D98" s="247"/>
-      <c r="E98" s="247"/>
-      <c r="F98" s="247"/>
-      <c r="G98" s="247"/>
-      <c r="H98" s="247"/>
-      <c r="I98" s="247"/>
-      <c r="J98" s="247"/>
-      <c r="K98" s="247"/>
-      <c r="L98" s="247"/>
-      <c r="M98" s="247"/>
-      <c r="N98" s="275"/>
+      <c r="A98" s="165"/>
+      <c r="B98" s="183"/>
+      <c r="C98" s="184"/>
+      <c r="D98" s="184"/>
+      <c r="E98" s="184"/>
+      <c r="F98" s="184"/>
+      <c r="G98" s="184"/>
+      <c r="H98" s="184"/>
+      <c r="I98" s="184"/>
+      <c r="J98" s="184"/>
+      <c r="K98" s="184"/>
+      <c r="L98" s="184"/>
+      <c r="M98" s="184"/>
+      <c r="N98" s="185"/>
     </row>
     <row r="99" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="234"/>
-      <c r="B99" s="276"/>
-      <c r="C99" s="277"/>
-      <c r="D99" s="277"/>
-      <c r="E99" s="277"/>
-      <c r="F99" s="277"/>
-      <c r="G99" s="277"/>
-      <c r="H99" s="277"/>
-      <c r="I99" s="277"/>
-      <c r="J99" s="277"/>
-      <c r="K99" s="277"/>
-      <c r="L99" s="277"/>
-      <c r="M99" s="277"/>
-      <c r="N99" s="278"/>
+      <c r="A99" s="166"/>
+      <c r="B99" s="186"/>
+      <c r="C99" s="187"/>
+      <c r="D99" s="187"/>
+      <c r="E99" s="187"/>
+      <c r="F99" s="187"/>
+      <c r="G99" s="187"/>
+      <c r="H99" s="187"/>
+      <c r="I99" s="187"/>
+      <c r="J99" s="187"/>
+      <c r="K99" s="187"/>
+      <c r="L99" s="187"/>
+      <c r="M99" s="187"/>
+      <c r="N99" s="188"/>
     </row>
     <row r="100" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="181" t="s">
+      <c r="A100" s="164" t="s">
         <v>73</v>
       </c>
-      <c r="B100" s="271"/>
-      <c r="C100" s="295"/>
-      <c r="D100" s="295"/>
-      <c r="E100" s="295"/>
-      <c r="F100" s="295"/>
-      <c r="G100" s="295"/>
-      <c r="H100" s="295"/>
-      <c r="I100" s="295"/>
-      <c r="J100" s="295"/>
-      <c r="K100" s="295"/>
-      <c r="L100" s="295"/>
-      <c r="M100" s="295"/>
-      <c r="N100" s="296"/>
+      <c r="B100" s="189"/>
+      <c r="C100" s="181"/>
+      <c r="D100" s="181"/>
+      <c r="E100" s="181"/>
+      <c r="F100" s="181"/>
+      <c r="G100" s="181"/>
+      <c r="H100" s="181"/>
+      <c r="I100" s="181"/>
+      <c r="J100" s="181"/>
+      <c r="K100" s="181"/>
+      <c r="L100" s="181"/>
+      <c r="M100" s="181"/>
+      <c r="N100" s="182"/>
     </row>
     <row r="101" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="182"/>
-      <c r="B101" s="274"/>
-      <c r="C101" s="247"/>
-      <c r="D101" s="247"/>
-      <c r="E101" s="247"/>
-      <c r="F101" s="247"/>
-      <c r="G101" s="247"/>
-      <c r="H101" s="247"/>
-      <c r="I101" s="247"/>
-      <c r="J101" s="247"/>
-      <c r="K101" s="247"/>
-      <c r="L101" s="247"/>
-      <c r="M101" s="247"/>
-      <c r="N101" s="275"/>
+      <c r="A101" s="165"/>
+      <c r="B101" s="183"/>
+      <c r="C101" s="184"/>
+      <c r="D101" s="184"/>
+      <c r="E101" s="184"/>
+      <c r="F101" s="184"/>
+      <c r="G101" s="184"/>
+      <c r="H101" s="184"/>
+      <c r="I101" s="184"/>
+      <c r="J101" s="184"/>
+      <c r="K101" s="184"/>
+      <c r="L101" s="184"/>
+      <c r="M101" s="184"/>
+      <c r="N101" s="185"/>
     </row>
     <row r="102" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="182"/>
-      <c r="B102" s="274"/>
-      <c r="C102" s="247"/>
-      <c r="D102" s="247"/>
-      <c r="E102" s="247"/>
-      <c r="F102" s="247"/>
-      <c r="G102" s="247"/>
-      <c r="H102" s="247"/>
-      <c r="I102" s="247"/>
-      <c r="J102" s="247"/>
-      <c r="K102" s="247"/>
-      <c r="L102" s="247"/>
-      <c r="M102" s="247"/>
-      <c r="N102" s="275"/>
+      <c r="A102" s="165"/>
+      <c r="B102" s="183"/>
+      <c r="C102" s="184"/>
+      <c r="D102" s="184"/>
+      <c r="E102" s="184"/>
+      <c r="F102" s="184"/>
+      <c r="G102" s="184"/>
+      <c r="H102" s="184"/>
+      <c r="I102" s="184"/>
+      <c r="J102" s="184"/>
+      <c r="K102" s="184"/>
+      <c r="L102" s="184"/>
+      <c r="M102" s="184"/>
+      <c r="N102" s="185"/>
     </row>
     <row r="103" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="182"/>
-      <c r="B103" s="274"/>
-      <c r="C103" s="247"/>
-      <c r="D103" s="247"/>
-      <c r="E103" s="247"/>
-      <c r="F103" s="247"/>
-      <c r="G103" s="247"/>
-      <c r="H103" s="247"/>
-      <c r="I103" s="247"/>
-      <c r="J103" s="247"/>
-      <c r="K103" s="247"/>
-      <c r="L103" s="247"/>
-      <c r="M103" s="247"/>
-      <c r="N103" s="275"/>
+      <c r="A103" s="165"/>
+      <c r="B103" s="183"/>
+      <c r="C103" s="184"/>
+      <c r="D103" s="184"/>
+      <c r="E103" s="184"/>
+      <c r="F103" s="184"/>
+      <c r="G103" s="184"/>
+      <c r="H103" s="184"/>
+      <c r="I103" s="184"/>
+      <c r="J103" s="184"/>
+      <c r="K103" s="184"/>
+      <c r="L103" s="184"/>
+      <c r="M103" s="184"/>
+      <c r="N103" s="185"/>
     </row>
     <row r="104" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="182"/>
-      <c r="B104" s="274"/>
-      <c r="C104" s="247"/>
-      <c r="D104" s="247"/>
-      <c r="E104" s="247"/>
-      <c r="F104" s="247"/>
-      <c r="G104" s="247"/>
-      <c r="H104" s="247"/>
-      <c r="I104" s="247"/>
-      <c r="J104" s="247"/>
-      <c r="K104" s="247"/>
-      <c r="L104" s="247"/>
-      <c r="M104" s="247"/>
-      <c r="N104" s="275"/>
+      <c r="A104" s="165"/>
+      <c r="B104" s="183"/>
+      <c r="C104" s="184"/>
+      <c r="D104" s="184"/>
+      <c r="E104" s="184"/>
+      <c r="F104" s="184"/>
+      <c r="G104" s="184"/>
+      <c r="H104" s="184"/>
+      <c r="I104" s="184"/>
+      <c r="J104" s="184"/>
+      <c r="K104" s="184"/>
+      <c r="L104" s="184"/>
+      <c r="M104" s="184"/>
+      <c r="N104" s="185"/>
     </row>
     <row r="105" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="182"/>
-      <c r="B105" s="274"/>
-      <c r="C105" s="247"/>
-      <c r="D105" s="247"/>
-      <c r="E105" s="247"/>
-      <c r="F105" s="247"/>
-      <c r="G105" s="247"/>
-      <c r="H105" s="247"/>
-      <c r="I105" s="247"/>
-      <c r="J105" s="247"/>
-      <c r="K105" s="247"/>
-      <c r="L105" s="247"/>
-      <c r="M105" s="247"/>
-      <c r="N105" s="275"/>
+      <c r="A105" s="165"/>
+      <c r="B105" s="183"/>
+      <c r="C105" s="184"/>
+      <c r="D105" s="184"/>
+      <c r="E105" s="184"/>
+      <c r="F105" s="184"/>
+      <c r="G105" s="184"/>
+      <c r="H105" s="184"/>
+      <c r="I105" s="184"/>
+      <c r="J105" s="184"/>
+      <c r="K105" s="184"/>
+      <c r="L105" s="184"/>
+      <c r="M105" s="184"/>
+      <c r="N105" s="185"/>
     </row>
     <row r="106" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="181" t="s">
+      <c r="A106" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="B106" s="271"/>
-      <c r="C106" s="295"/>
-      <c r="D106" s="295"/>
-      <c r="E106" s="295"/>
-      <c r="F106" s="295"/>
-      <c r="G106" s="295"/>
-      <c r="H106" s="295"/>
-      <c r="I106" s="295"/>
-      <c r="J106" s="295"/>
-      <c r="K106" s="295"/>
-      <c r="L106" s="295"/>
-      <c r="M106" s="295"/>
-      <c r="N106" s="296"/>
+      <c r="B106" s="189"/>
+      <c r="C106" s="181"/>
+      <c r="D106" s="181"/>
+      <c r="E106" s="181"/>
+      <c r="F106" s="181"/>
+      <c r="G106" s="181"/>
+      <c r="H106" s="181"/>
+      <c r="I106" s="181"/>
+      <c r="J106" s="181"/>
+      <c r="K106" s="181"/>
+      <c r="L106" s="181"/>
+      <c r="M106" s="181"/>
+      <c r="N106" s="182"/>
     </row>
     <row r="107" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="182"/>
-      <c r="B107" s="274"/>
-      <c r="C107" s="247"/>
-      <c r="D107" s="247"/>
-      <c r="E107" s="247"/>
-      <c r="F107" s="247"/>
-      <c r="G107" s="247"/>
-      <c r="H107" s="247"/>
-      <c r="I107" s="247"/>
-      <c r="J107" s="247"/>
-      <c r="K107" s="247"/>
-      <c r="L107" s="247"/>
-      <c r="M107" s="247"/>
-      <c r="N107" s="275"/>
+      <c r="A107" s="165"/>
+      <c r="B107" s="183"/>
+      <c r="C107" s="184"/>
+      <c r="D107" s="184"/>
+      <c r="E107" s="184"/>
+      <c r="F107" s="184"/>
+      <c r="G107" s="184"/>
+      <c r="H107" s="184"/>
+      <c r="I107" s="184"/>
+      <c r="J107" s="184"/>
+      <c r="K107" s="184"/>
+      <c r="L107" s="184"/>
+      <c r="M107" s="184"/>
+      <c r="N107" s="185"/>
     </row>
     <row r="108" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="182"/>
-      <c r="B108" s="274"/>
-      <c r="C108" s="247"/>
-      <c r="D108" s="247"/>
-      <c r="E108" s="247"/>
-      <c r="F108" s="247"/>
-      <c r="G108" s="247"/>
-      <c r="H108" s="247"/>
-      <c r="I108" s="247"/>
-      <c r="J108" s="247"/>
-      <c r="K108" s="247"/>
-      <c r="L108" s="247"/>
-      <c r="M108" s="247"/>
-      <c r="N108" s="275"/>
+      <c r="A108" s="165"/>
+      <c r="B108" s="183"/>
+      <c r="C108" s="184"/>
+      <c r="D108" s="184"/>
+      <c r="E108" s="184"/>
+      <c r="F108" s="184"/>
+      <c r="G108" s="184"/>
+      <c r="H108" s="184"/>
+      <c r="I108" s="184"/>
+      <c r="J108" s="184"/>
+      <c r="K108" s="184"/>
+      <c r="L108" s="184"/>
+      <c r="M108" s="184"/>
+      <c r="N108" s="185"/>
     </row>
     <row r="109" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="182"/>
-      <c r="B109" s="274"/>
-      <c r="C109" s="247"/>
-      <c r="D109" s="247"/>
-      <c r="E109" s="247"/>
-      <c r="F109" s="247"/>
-      <c r="G109" s="247"/>
-      <c r="H109" s="247"/>
-      <c r="I109" s="247"/>
-      <c r="J109" s="247"/>
-      <c r="K109" s="247"/>
-      <c r="L109" s="247"/>
-      <c r="M109" s="247"/>
-      <c r="N109" s="275"/>
+      <c r="A109" s="165"/>
+      <c r="B109" s="183"/>
+      <c r="C109" s="184"/>
+      <c r="D109" s="184"/>
+      <c r="E109" s="184"/>
+      <c r="F109" s="184"/>
+      <c r="G109" s="184"/>
+      <c r="H109" s="184"/>
+      <c r="I109" s="184"/>
+      <c r="J109" s="184"/>
+      <c r="K109" s="184"/>
+      <c r="L109" s="184"/>
+      <c r="M109" s="184"/>
+      <c r="N109" s="185"/>
     </row>
     <row r="110" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="234"/>
-      <c r="B110" s="276"/>
-      <c r="C110" s="277"/>
-      <c r="D110" s="277"/>
-      <c r="E110" s="277"/>
-      <c r="F110" s="277"/>
-      <c r="G110" s="277"/>
-      <c r="H110" s="277"/>
-      <c r="I110" s="277"/>
-      <c r="J110" s="277"/>
-      <c r="K110" s="277"/>
-      <c r="L110" s="277"/>
-      <c r="M110" s="277"/>
-      <c r="N110" s="278"/>
+      <c r="A110" s="166"/>
+      <c r="B110" s="186"/>
+      <c r="C110" s="187"/>
+      <c r="D110" s="187"/>
+      <c r="E110" s="187"/>
+      <c r="F110" s="187"/>
+      <c r="G110" s="187"/>
+      <c r="H110" s="187"/>
+      <c r="I110" s="187"/>
+      <c r="J110" s="187"/>
+      <c r="K110" s="187"/>
+      <c r="L110" s="187"/>
+      <c r="M110" s="187"/>
+      <c r="N110" s="188"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="279" t="s">
+      <c r="A111" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="295"/>
-      <c r="C111" s="295"/>
-      <c r="D111" s="295"/>
-      <c r="E111" s="295"/>
-      <c r="F111" s="295"/>
-      <c r="G111" s="295"/>
-      <c r="H111" s="295"/>
-      <c r="I111" s="295"/>
-      <c r="J111" s="295"/>
-      <c r="K111" s="295"/>
-      <c r="L111" s="295"/>
-      <c r="M111" s="295"/>
-      <c r="N111" s="296"/>
+      <c r="B111" s="181"/>
+      <c r="C111" s="181"/>
+      <c r="D111" s="181"/>
+      <c r="E111" s="181"/>
+      <c r="F111" s="181"/>
+      <c r="G111" s="181"/>
+      <c r="H111" s="181"/>
+      <c r="I111" s="181"/>
+      <c r="J111" s="181"/>
+      <c r="K111" s="181"/>
+      <c r="L111" s="181"/>
+      <c r="M111" s="181"/>
+      <c r="N111" s="182"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" s="280"/>
-      <c r="B112" s="247"/>
-      <c r="C112" s="247"/>
-      <c r="D112" s="247"/>
-      <c r="E112" s="247"/>
-      <c r="F112" s="247"/>
-      <c r="G112" s="247"/>
-      <c r="H112" s="247"/>
-      <c r="I112" s="247"/>
-      <c r="J112" s="247"/>
-      <c r="K112" s="247"/>
-      <c r="L112" s="247"/>
-      <c r="M112" s="247"/>
-      <c r="N112" s="275"/>
+      <c r="A112" s="191"/>
+      <c r="B112" s="184"/>
+      <c r="C112" s="184"/>
+      <c r="D112" s="184"/>
+      <c r="E112" s="184"/>
+      <c r="F112" s="184"/>
+      <c r="G112" s="184"/>
+      <c r="H112" s="184"/>
+      <c r="I112" s="184"/>
+      <c r="J112" s="184"/>
+      <c r="K112" s="184"/>
+      <c r="L112" s="184"/>
+      <c r="M112" s="184"/>
+      <c r="N112" s="185"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" s="280"/>
-      <c r="B113" s="247"/>
-      <c r="C113" s="247"/>
-      <c r="D113" s="247"/>
-      <c r="E113" s="247"/>
-      <c r="F113" s="247"/>
-      <c r="G113" s="247"/>
-      <c r="H113" s="247"/>
-      <c r="I113" s="247"/>
-      <c r="J113" s="247"/>
-      <c r="K113" s="247"/>
-      <c r="L113" s="247"/>
-      <c r="M113" s="247"/>
-      <c r="N113" s="275"/>
+      <c r="A113" s="191"/>
+      <c r="B113" s="184"/>
+      <c r="C113" s="184"/>
+      <c r="D113" s="184"/>
+      <c r="E113" s="184"/>
+      <c r="F113" s="184"/>
+      <c r="G113" s="184"/>
+      <c r="H113" s="184"/>
+      <c r="I113" s="184"/>
+      <c r="J113" s="184"/>
+      <c r="K113" s="184"/>
+      <c r="L113" s="184"/>
+      <c r="M113" s="184"/>
+      <c r="N113" s="185"/>
     </row>
     <row r="114" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="294"/>
-      <c r="B114" s="297"/>
-      <c r="C114" s="297"/>
-      <c r="D114" s="297"/>
-      <c r="E114" s="297"/>
-      <c r="F114" s="297"/>
-      <c r="G114" s="297"/>
-      <c r="H114" s="297"/>
-      <c r="I114" s="297"/>
-      <c r="J114" s="297"/>
-      <c r="K114" s="297"/>
-      <c r="L114" s="297"/>
-      <c r="M114" s="297"/>
-      <c r="N114" s="298"/>
+      <c r="A114" s="217"/>
+      <c r="B114" s="218"/>
+      <c r="C114" s="218"/>
+      <c r="D114" s="218"/>
+      <c r="E114" s="218"/>
+      <c r="F114" s="218"/>
+      <c r="G114" s="218"/>
+      <c r="H114" s="218"/>
+      <c r="I114" s="218"/>
+      <c r="J114" s="218"/>
+      <c r="K114" s="218"/>
+      <c r="L114" s="218"/>
+      <c r="M114" s="218"/>
+      <c r="N114" s="219"/>
     </row>
     <row r="115" spans="1:14" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
@@ -8459,385 +8757,385 @@
       <c r="N115" s="6"/>
     </row>
     <row r="116" spans="1:14" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="264" t="s">
+      <c r="A116" s="232" t="s">
         <v>85</v>
       </c>
-      <c r="B116" s="285" t="s">
+      <c r="B116" s="208" t="s">
         <v>174</v>
       </c>
-      <c r="C116" s="286"/>
-      <c r="D116" s="286"/>
-      <c r="E116" s="286"/>
-      <c r="F116" s="286"/>
-      <c r="G116" s="286"/>
-      <c r="H116" s="286"/>
-      <c r="I116" s="286"/>
-      <c r="J116" s="286"/>
-      <c r="K116" s="286"/>
-      <c r="L116" s="286"/>
-      <c r="M116" s="286"/>
-      <c r="N116" s="287"/>
+      <c r="C116" s="209"/>
+      <c r="D116" s="209"/>
+      <c r="E116" s="209"/>
+      <c r="F116" s="209"/>
+      <c r="G116" s="209"/>
+      <c r="H116" s="209"/>
+      <c r="I116" s="209"/>
+      <c r="J116" s="209"/>
+      <c r="K116" s="209"/>
+      <c r="L116" s="209"/>
+      <c r="M116" s="209"/>
+      <c r="N116" s="210"/>
     </row>
     <row r="117" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="182"/>
-      <c r="B117" s="288"/>
-      <c r="C117" s="289"/>
-      <c r="D117" s="289"/>
-      <c r="E117" s="289"/>
-      <c r="F117" s="289"/>
-      <c r="G117" s="289"/>
-      <c r="H117" s="289"/>
-      <c r="I117" s="289"/>
-      <c r="J117" s="289"/>
-      <c r="K117" s="289"/>
-      <c r="L117" s="289"/>
-      <c r="M117" s="289"/>
-      <c r="N117" s="290"/>
+      <c r="A117" s="165"/>
+      <c r="B117" s="211"/>
+      <c r="C117" s="212"/>
+      <c r="D117" s="212"/>
+      <c r="E117" s="212"/>
+      <c r="F117" s="212"/>
+      <c r="G117" s="212"/>
+      <c r="H117" s="212"/>
+      <c r="I117" s="212"/>
+      <c r="J117" s="212"/>
+      <c r="K117" s="212"/>
+      <c r="L117" s="212"/>
+      <c r="M117" s="212"/>
+      <c r="N117" s="213"/>
     </row>
     <row r="118" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="182"/>
-      <c r="B118" s="288"/>
-      <c r="C118" s="289"/>
-      <c r="D118" s="289"/>
-      <c r="E118" s="289"/>
-      <c r="F118" s="289"/>
-      <c r="G118" s="289"/>
-      <c r="H118" s="289"/>
-      <c r="I118" s="289"/>
-      <c r="J118" s="289"/>
-      <c r="K118" s="289"/>
-      <c r="L118" s="289"/>
-      <c r="M118" s="289"/>
-      <c r="N118" s="290"/>
+      <c r="A118" s="165"/>
+      <c r="B118" s="211"/>
+      <c r="C118" s="212"/>
+      <c r="D118" s="212"/>
+      <c r="E118" s="212"/>
+      <c r="F118" s="212"/>
+      <c r="G118" s="212"/>
+      <c r="H118" s="212"/>
+      <c r="I118" s="212"/>
+      <c r="J118" s="212"/>
+      <c r="K118" s="212"/>
+      <c r="L118" s="212"/>
+      <c r="M118" s="212"/>
+      <c r="N118" s="213"/>
     </row>
     <row r="119" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="182"/>
-      <c r="B119" s="288"/>
-      <c r="C119" s="289"/>
-      <c r="D119" s="289"/>
-      <c r="E119" s="289"/>
-      <c r="F119" s="289"/>
-      <c r="G119" s="289"/>
-      <c r="H119" s="289"/>
-      <c r="I119" s="289"/>
-      <c r="J119" s="289"/>
-      <c r="K119" s="289"/>
-      <c r="L119" s="289"/>
-      <c r="M119" s="289"/>
-      <c r="N119" s="290"/>
+      <c r="A119" s="165"/>
+      <c r="B119" s="211"/>
+      <c r="C119" s="212"/>
+      <c r="D119" s="212"/>
+      <c r="E119" s="212"/>
+      <c r="F119" s="212"/>
+      <c r="G119" s="212"/>
+      <c r="H119" s="212"/>
+      <c r="I119" s="212"/>
+      <c r="J119" s="212"/>
+      <c r="K119" s="212"/>
+      <c r="L119" s="212"/>
+      <c r="M119" s="212"/>
+      <c r="N119" s="213"/>
     </row>
     <row r="120" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="182"/>
-      <c r="B120" s="288"/>
-      <c r="C120" s="289"/>
-      <c r="D120" s="289"/>
-      <c r="E120" s="289"/>
-      <c r="F120" s="289"/>
-      <c r="G120" s="289"/>
-      <c r="H120" s="289"/>
-      <c r="I120" s="289"/>
-      <c r="J120" s="289"/>
-      <c r="K120" s="289"/>
-      <c r="L120" s="289"/>
-      <c r="M120" s="289"/>
-      <c r="N120" s="290"/>
+      <c r="A120" s="165"/>
+      <c r="B120" s="211"/>
+      <c r="C120" s="212"/>
+      <c r="D120" s="212"/>
+      <c r="E120" s="212"/>
+      <c r="F120" s="212"/>
+      <c r="G120" s="212"/>
+      <c r="H120" s="212"/>
+      <c r="I120" s="212"/>
+      <c r="J120" s="212"/>
+      <c r="K120" s="212"/>
+      <c r="L120" s="212"/>
+      <c r="M120" s="212"/>
+      <c r="N120" s="213"/>
     </row>
     <row r="121" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="182"/>
-      <c r="B121" s="288"/>
-      <c r="C121" s="289"/>
-      <c r="D121" s="289"/>
-      <c r="E121" s="289"/>
-      <c r="F121" s="289"/>
-      <c r="G121" s="289"/>
-      <c r="H121" s="289"/>
-      <c r="I121" s="289"/>
-      <c r="J121" s="289"/>
-      <c r="K121" s="289"/>
-      <c r="L121" s="289"/>
-      <c r="M121" s="289"/>
-      <c r="N121" s="290"/>
+      <c r="A121" s="165"/>
+      <c r="B121" s="211"/>
+      <c r="C121" s="212"/>
+      <c r="D121" s="212"/>
+      <c r="E121" s="212"/>
+      <c r="F121" s="212"/>
+      <c r="G121" s="212"/>
+      <c r="H121" s="212"/>
+      <c r="I121" s="212"/>
+      <c r="J121" s="212"/>
+      <c r="K121" s="212"/>
+      <c r="L121" s="212"/>
+      <c r="M121" s="212"/>
+      <c r="N121" s="213"/>
     </row>
     <row r="122" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="182"/>
-      <c r="B122" s="288"/>
-      <c r="C122" s="289"/>
-      <c r="D122" s="289"/>
-      <c r="E122" s="289"/>
-      <c r="F122" s="289"/>
-      <c r="G122" s="289"/>
-      <c r="H122" s="289"/>
-      <c r="I122" s="289"/>
-      <c r="J122" s="289"/>
-      <c r="K122" s="289"/>
-      <c r="L122" s="289"/>
-      <c r="M122" s="289"/>
-      <c r="N122" s="290"/>
+      <c r="A122" s="165"/>
+      <c r="B122" s="211"/>
+      <c r="C122" s="212"/>
+      <c r="D122" s="212"/>
+      <c r="E122" s="212"/>
+      <c r="F122" s="212"/>
+      <c r="G122" s="212"/>
+      <c r="H122" s="212"/>
+      <c r="I122" s="212"/>
+      <c r="J122" s="212"/>
+      <c r="K122" s="212"/>
+      <c r="L122" s="212"/>
+      <c r="M122" s="212"/>
+      <c r="N122" s="213"/>
     </row>
     <row r="123" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="182"/>
-      <c r="B123" s="288"/>
-      <c r="C123" s="289"/>
-      <c r="D123" s="289"/>
-      <c r="E123" s="289"/>
-      <c r="F123" s="289"/>
-      <c r="G123" s="289"/>
-      <c r="H123" s="289"/>
-      <c r="I123" s="289"/>
-      <c r="J123" s="289"/>
-      <c r="K123" s="289"/>
-      <c r="L123" s="289"/>
-      <c r="M123" s="289"/>
-      <c r="N123" s="290"/>
+      <c r="A123" s="165"/>
+      <c r="B123" s="211"/>
+      <c r="C123" s="212"/>
+      <c r="D123" s="212"/>
+      <c r="E123" s="212"/>
+      <c r="F123" s="212"/>
+      <c r="G123" s="212"/>
+      <c r="H123" s="212"/>
+      <c r="I123" s="212"/>
+      <c r="J123" s="212"/>
+      <c r="K123" s="212"/>
+      <c r="L123" s="212"/>
+      <c r="M123" s="212"/>
+      <c r="N123" s="213"/>
     </row>
     <row r="124" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="182"/>
-      <c r="B124" s="288"/>
-      <c r="C124" s="289"/>
-      <c r="D124" s="289"/>
-      <c r="E124" s="289"/>
-      <c r="F124" s="289"/>
-      <c r="G124" s="289"/>
-      <c r="H124" s="289"/>
-      <c r="I124" s="289"/>
-      <c r="J124" s="289"/>
-      <c r="K124" s="289"/>
-      <c r="L124" s="289"/>
-      <c r="M124" s="289"/>
-      <c r="N124" s="290"/>
+      <c r="A124" s="165"/>
+      <c r="B124" s="211"/>
+      <c r="C124" s="212"/>
+      <c r="D124" s="212"/>
+      <c r="E124" s="212"/>
+      <c r="F124" s="212"/>
+      <c r="G124" s="212"/>
+      <c r="H124" s="212"/>
+      <c r="I124" s="212"/>
+      <c r="J124" s="212"/>
+      <c r="K124" s="212"/>
+      <c r="L124" s="212"/>
+      <c r="M124" s="212"/>
+      <c r="N124" s="213"/>
     </row>
     <row r="125" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="182"/>
-      <c r="B125" s="288"/>
-      <c r="C125" s="289"/>
-      <c r="D125" s="289"/>
-      <c r="E125" s="289"/>
-      <c r="F125" s="289"/>
-      <c r="G125" s="289"/>
-      <c r="H125" s="289"/>
-      <c r="I125" s="289"/>
-      <c r="J125" s="289"/>
-      <c r="K125" s="289"/>
-      <c r="L125" s="289"/>
-      <c r="M125" s="289"/>
-      <c r="N125" s="290"/>
+      <c r="A125" s="165"/>
+      <c r="B125" s="211"/>
+      <c r="C125" s="212"/>
+      <c r="D125" s="212"/>
+      <c r="E125" s="212"/>
+      <c r="F125" s="212"/>
+      <c r="G125" s="212"/>
+      <c r="H125" s="212"/>
+      <c r="I125" s="212"/>
+      <c r="J125" s="212"/>
+      <c r="K125" s="212"/>
+      <c r="L125" s="212"/>
+      <c r="M125" s="212"/>
+      <c r="N125" s="213"/>
     </row>
     <row r="126" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="182"/>
-      <c r="B126" s="288"/>
-      <c r="C126" s="289"/>
-      <c r="D126" s="289"/>
-      <c r="E126" s="289"/>
-      <c r="F126" s="289"/>
-      <c r="G126" s="289"/>
-      <c r="H126" s="289"/>
-      <c r="I126" s="289"/>
-      <c r="J126" s="289"/>
-      <c r="K126" s="289"/>
-      <c r="L126" s="289"/>
-      <c r="M126" s="289"/>
-      <c r="N126" s="290"/>
+      <c r="A126" s="165"/>
+      <c r="B126" s="211"/>
+      <c r="C126" s="212"/>
+      <c r="D126" s="212"/>
+      <c r="E126" s="212"/>
+      <c r="F126" s="212"/>
+      <c r="G126" s="212"/>
+      <c r="H126" s="212"/>
+      <c r="I126" s="212"/>
+      <c r="J126" s="212"/>
+      <c r="K126" s="212"/>
+      <c r="L126" s="212"/>
+      <c r="M126" s="212"/>
+      <c r="N126" s="213"/>
     </row>
     <row r="127" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="182"/>
-      <c r="B127" s="288"/>
-      <c r="C127" s="289"/>
-      <c r="D127" s="289"/>
-      <c r="E127" s="289"/>
-      <c r="F127" s="289"/>
-      <c r="G127" s="289"/>
-      <c r="H127" s="289"/>
-      <c r="I127" s="289"/>
-      <c r="J127" s="289"/>
-      <c r="K127" s="289"/>
-      <c r="L127" s="289"/>
-      <c r="M127" s="289"/>
-      <c r="N127" s="290"/>
+      <c r="A127" s="165"/>
+      <c r="B127" s="211"/>
+      <c r="C127" s="212"/>
+      <c r="D127" s="212"/>
+      <c r="E127" s="212"/>
+      <c r="F127" s="212"/>
+      <c r="G127" s="212"/>
+      <c r="H127" s="212"/>
+      <c r="I127" s="212"/>
+      <c r="J127" s="212"/>
+      <c r="K127" s="212"/>
+      <c r="L127" s="212"/>
+      <c r="M127" s="212"/>
+      <c r="N127" s="213"/>
     </row>
     <row r="128" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="182"/>
-      <c r="B128" s="288"/>
-      <c r="C128" s="289"/>
-      <c r="D128" s="289"/>
-      <c r="E128" s="289"/>
-      <c r="F128" s="289"/>
-      <c r="G128" s="289"/>
-      <c r="H128" s="289"/>
-      <c r="I128" s="289"/>
-      <c r="J128" s="289"/>
-      <c r="K128" s="289"/>
-      <c r="L128" s="289"/>
-      <c r="M128" s="289"/>
-      <c r="N128" s="290"/>
+      <c r="A128" s="165"/>
+      <c r="B128" s="211"/>
+      <c r="C128" s="212"/>
+      <c r="D128" s="212"/>
+      <c r="E128" s="212"/>
+      <c r="F128" s="212"/>
+      <c r="G128" s="212"/>
+      <c r="H128" s="212"/>
+      <c r="I128" s="212"/>
+      <c r="J128" s="212"/>
+      <c r="K128" s="212"/>
+      <c r="L128" s="212"/>
+      <c r="M128" s="212"/>
+      <c r="N128" s="213"/>
     </row>
     <row r="129" spans="1:14" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="182"/>
-      <c r="B129" s="291"/>
-      <c r="C129" s="292"/>
-      <c r="D129" s="292"/>
-      <c r="E129" s="292"/>
-      <c r="F129" s="292"/>
-      <c r="G129" s="292"/>
-      <c r="H129" s="292"/>
-      <c r="I129" s="292"/>
-      <c r="J129" s="292"/>
-      <c r="K129" s="292"/>
-      <c r="L129" s="292"/>
-      <c r="M129" s="292"/>
-      <c r="N129" s="293"/>
+      <c r="A129" s="165"/>
+      <c r="B129" s="214"/>
+      <c r="C129" s="215"/>
+      <c r="D129" s="215"/>
+      <c r="E129" s="215"/>
+      <c r="F129" s="215"/>
+      <c r="G129" s="215"/>
+      <c r="H129" s="215"/>
+      <c r="I129" s="215"/>
+      <c r="J129" s="215"/>
+      <c r="K129" s="215"/>
+      <c r="L129" s="215"/>
+      <c r="M129" s="215"/>
+      <c r="N129" s="216"/>
     </row>
     <row r="130" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="181" t="s">
+      <c r="A130" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="B130" s="335" t="s">
+      <c r="B130" s="153" t="s">
         <v>177</v>
       </c>
-      <c r="C130" s="336"/>
-      <c r="D130" s="336"/>
-      <c r="E130" s="336"/>
-      <c r="F130" s="336"/>
-      <c r="G130" s="336"/>
-      <c r="H130" s="336"/>
-      <c r="I130" s="336"/>
-      <c r="J130" s="336"/>
-      <c r="K130" s="336"/>
-      <c r="L130" s="336"/>
-      <c r="M130" s="336"/>
-      <c r="N130" s="337"/>
+      <c r="C130" s="154"/>
+      <c r="D130" s="154"/>
+      <c r="E130" s="154"/>
+      <c r="F130" s="154"/>
+      <c r="G130" s="154"/>
+      <c r="H130" s="154"/>
+      <c r="I130" s="154"/>
+      <c r="J130" s="154"/>
+      <c r="K130" s="154"/>
+      <c r="L130" s="154"/>
+      <c r="M130" s="154"/>
+      <c r="N130" s="155"/>
     </row>
     <row r="131" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="182"/>
-      <c r="B131" s="338"/>
-      <c r="C131" s="339"/>
-      <c r="D131" s="339"/>
-      <c r="E131" s="339"/>
-      <c r="F131" s="339"/>
-      <c r="G131" s="339"/>
-      <c r="H131" s="339"/>
-      <c r="I131" s="339"/>
-      <c r="J131" s="339"/>
-      <c r="K131" s="339"/>
-      <c r="L131" s="339"/>
-      <c r="M131" s="339"/>
-      <c r="N131" s="340"/>
+      <c r="A131" s="165"/>
+      <c r="B131" s="156"/>
+      <c r="C131" s="157"/>
+      <c r="D131" s="157"/>
+      <c r="E131" s="157"/>
+      <c r="F131" s="157"/>
+      <c r="G131" s="157"/>
+      <c r="H131" s="157"/>
+      <c r="I131" s="157"/>
+      <c r="J131" s="157"/>
+      <c r="K131" s="157"/>
+      <c r="L131" s="157"/>
+      <c r="M131" s="157"/>
+      <c r="N131" s="158"/>
     </row>
     <row r="132" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="182"/>
-      <c r="B132" s="338"/>
-      <c r="C132" s="339"/>
-      <c r="D132" s="339"/>
-      <c r="E132" s="339"/>
-      <c r="F132" s="339"/>
-      <c r="G132" s="339"/>
-      <c r="H132" s="339"/>
-      <c r="I132" s="339"/>
-      <c r="J132" s="339"/>
-      <c r="K132" s="339"/>
-      <c r="L132" s="339"/>
-      <c r="M132" s="339"/>
-      <c r="N132" s="340"/>
+      <c r="A132" s="165"/>
+      <c r="B132" s="156"/>
+      <c r="C132" s="157"/>
+      <c r="D132" s="157"/>
+      <c r="E132" s="157"/>
+      <c r="F132" s="157"/>
+      <c r="G132" s="157"/>
+      <c r="H132" s="157"/>
+      <c r="I132" s="157"/>
+      <c r="J132" s="157"/>
+      <c r="K132" s="157"/>
+      <c r="L132" s="157"/>
+      <c r="M132" s="157"/>
+      <c r="N132" s="158"/>
     </row>
     <row r="133" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="182"/>
-      <c r="B133" s="338"/>
-      <c r="C133" s="339"/>
-      <c r="D133" s="339"/>
-      <c r="E133" s="339"/>
-      <c r="F133" s="339"/>
-      <c r="G133" s="339"/>
-      <c r="H133" s="339"/>
-      <c r="I133" s="339"/>
-      <c r="J133" s="339"/>
-      <c r="K133" s="339"/>
-      <c r="L133" s="339"/>
-      <c r="M133" s="339"/>
-      <c r="N133" s="340"/>
+      <c r="A133" s="165"/>
+      <c r="B133" s="156"/>
+      <c r="C133" s="157"/>
+      <c r="D133" s="157"/>
+      <c r="E133" s="157"/>
+      <c r="F133" s="157"/>
+      <c r="G133" s="157"/>
+      <c r="H133" s="157"/>
+      <c r="I133" s="157"/>
+      <c r="J133" s="157"/>
+      <c r="K133" s="157"/>
+      <c r="L133" s="157"/>
+      <c r="M133" s="157"/>
+      <c r="N133" s="158"/>
     </row>
     <row r="134" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="182"/>
-      <c r="B134" s="338"/>
-      <c r="C134" s="339"/>
-      <c r="D134" s="339"/>
-      <c r="E134" s="339"/>
-      <c r="F134" s="339"/>
-      <c r="G134" s="339"/>
-      <c r="H134" s="339"/>
-      <c r="I134" s="339"/>
-      <c r="J134" s="339"/>
-      <c r="K134" s="339"/>
-      <c r="L134" s="339"/>
-      <c r="M134" s="339"/>
-      <c r="N134" s="340"/>
+      <c r="A134" s="165"/>
+      <c r="B134" s="156"/>
+      <c r="C134" s="157"/>
+      <c r="D134" s="157"/>
+      <c r="E134" s="157"/>
+      <c r="F134" s="157"/>
+      <c r="G134" s="157"/>
+      <c r="H134" s="157"/>
+      <c r="I134" s="157"/>
+      <c r="J134" s="157"/>
+      <c r="K134" s="157"/>
+      <c r="L134" s="157"/>
+      <c r="M134" s="157"/>
+      <c r="N134" s="158"/>
     </row>
     <row r="135" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="182"/>
-      <c r="B135" s="338"/>
-      <c r="C135" s="339"/>
-      <c r="D135" s="339"/>
-      <c r="E135" s="339"/>
-      <c r="F135" s="339"/>
-      <c r="G135" s="339"/>
-      <c r="H135" s="339"/>
-      <c r="I135" s="339"/>
-      <c r="J135" s="339"/>
-      <c r="K135" s="339"/>
-      <c r="L135" s="339"/>
-      <c r="M135" s="339"/>
-      <c r="N135" s="340"/>
+      <c r="A135" s="165"/>
+      <c r="B135" s="156"/>
+      <c r="C135" s="157"/>
+      <c r="D135" s="157"/>
+      <c r="E135" s="157"/>
+      <c r="F135" s="157"/>
+      <c r="G135" s="157"/>
+      <c r="H135" s="157"/>
+      <c r="I135" s="157"/>
+      <c r="J135" s="157"/>
+      <c r="K135" s="157"/>
+      <c r="L135" s="157"/>
+      <c r="M135" s="157"/>
+      <c r="N135" s="158"/>
     </row>
     <row r="136" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="182"/>
-      <c r="B136" s="338"/>
-      <c r="C136" s="339"/>
-      <c r="D136" s="339"/>
-      <c r="E136" s="339"/>
-      <c r="F136" s="339"/>
-      <c r="G136" s="339"/>
-      <c r="H136" s="339"/>
-      <c r="I136" s="339"/>
-      <c r="J136" s="339"/>
-      <c r="K136" s="339"/>
-      <c r="L136" s="339"/>
-      <c r="M136" s="339"/>
-      <c r="N136" s="340"/>
+      <c r="A136" s="165"/>
+      <c r="B136" s="156"/>
+      <c r="C136" s="157"/>
+      <c r="D136" s="157"/>
+      <c r="E136" s="157"/>
+      <c r="F136" s="157"/>
+      <c r="G136" s="157"/>
+      <c r="H136" s="157"/>
+      <c r="I136" s="157"/>
+      <c r="J136" s="157"/>
+      <c r="K136" s="157"/>
+      <c r="L136" s="157"/>
+      <c r="M136" s="157"/>
+      <c r="N136" s="158"/>
     </row>
     <row r="137" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="182"/>
-      <c r="B137" s="338"/>
-      <c r="C137" s="339"/>
-      <c r="D137" s="339"/>
-      <c r="E137" s="339"/>
-      <c r="F137" s="339"/>
-      <c r="G137" s="339"/>
-      <c r="H137" s="339"/>
-      <c r="I137" s="339"/>
-      <c r="J137" s="339"/>
-      <c r="K137" s="339"/>
-      <c r="L137" s="339"/>
-      <c r="M137" s="339"/>
-      <c r="N137" s="340"/>
+      <c r="A137" s="165"/>
+      <c r="B137" s="156"/>
+      <c r="C137" s="157"/>
+      <c r="D137" s="157"/>
+      <c r="E137" s="157"/>
+      <c r="F137" s="157"/>
+      <c r="G137" s="157"/>
+      <c r="H137" s="157"/>
+      <c r="I137" s="157"/>
+      <c r="J137" s="157"/>
+      <c r="K137" s="157"/>
+      <c r="L137" s="157"/>
+      <c r="M137" s="157"/>
+      <c r="N137" s="158"/>
     </row>
     <row r="138" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="182"/>
-      <c r="B138" s="326" t="s">
+      <c r="A138" s="165"/>
+      <c r="B138" s="144" t="s">
         <v>152</v>
       </c>
-      <c r="C138" s="326"/>
-      <c r="D138" s="326"/>
-      <c r="E138" s="326"/>
-      <c r="F138" s="326"/>
-      <c r="G138" s="326"/>
-      <c r="H138" s="326"/>
-      <c r="I138" s="326"/>
-      <c r="J138" s="326"/>
-      <c r="K138" s="326"/>
-      <c r="L138" s="326"/>
-      <c r="M138" s="326"/>
-      <c r="N138" s="327"/>
+      <c r="C138" s="144"/>
+      <c r="D138" s="144"/>
+      <c r="E138" s="144"/>
+      <c r="F138" s="144"/>
+      <c r="G138" s="144"/>
+      <c r="H138" s="144"/>
+      <c r="I138" s="144"/>
+      <c r="J138" s="144"/>
+      <c r="K138" s="144"/>
+      <c r="L138" s="144"/>
+      <c r="M138" s="144"/>
+      <c r="N138" s="145"/>
     </row>
     <row r="139" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="182"/>
+      <c r="A139" s="165"/>
       <c r="B139" s="8"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -8853,24 +9151,24 @@
       <c r="N139" s="1"/>
     </row>
     <row r="140" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="256"/>
+      <c r="A140" s="225"/>
       <c r="B140" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="C140" s="254" t="s">
+      <c r="C140" s="223" t="s">
         <v>87</v>
       </c>
-      <c r="D140" s="254"/>
-      <c r="E140" s="254"/>
-      <c r="F140" s="254"/>
-      <c r="G140" s="254"/>
-      <c r="H140" s="254"/>
-      <c r="I140" s="254"/>
-      <c r="J140" s="254"/>
-      <c r="K140" s="254"/>
-      <c r="L140" s="254"/>
-      <c r="M140" s="254"/>
-      <c r="N140" s="255"/>
+      <c r="D140" s="223"/>
+      <c r="E140" s="223"/>
+      <c r="F140" s="223"/>
+      <c r="G140" s="223"/>
+      <c r="H140" s="223"/>
+      <c r="I140" s="223"/>
+      <c r="J140" s="223"/>
+      <c r="K140" s="223"/>
+      <c r="L140" s="223"/>
+      <c r="M140" s="223"/>
+      <c r="N140" s="224"/>
     </row>
     <row r="141" spans="1:14" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -8879,10 +9177,10 @@
       </c>
     </row>
     <row r="144" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I144" s="328" t="s">
+      <c r="I144" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="J144" s="328"/>
+      <c r="J144" s="146"/>
       <c r="K144" s="83" t="s">
         <v>173</v>
       </c>
@@ -8903,7 +9201,7 @@
     </row>
     <row r="148" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="149" spans="1:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="261" t="s">
+      <c r="A149" s="230" t="s">
         <v>92</v>
       </c>
       <c r="B149" s="84" t="s">
@@ -8923,7 +9221,7 @@
       <c r="N149" s="86"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A150" s="262"/>
+      <c r="A150" s="176"/>
       <c r="B150" s="69" t="s">
         <v>56</v>
       </c>
@@ -8943,7 +9241,7 @@
       <c r="N150" s="79"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A151" s="262"/>
+      <c r="A151" s="176"/>
       <c r="B151" s="69" t="s">
         <v>56</v>
       </c>
@@ -8963,25 +9261,25 @@
       <c r="N151" s="79"/>
     </row>
     <row r="152" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="262"/>
+      <c r="A152" s="176"/>
       <c r="B152" s="69"/>
-      <c r="C152" s="257" t="s">
+      <c r="C152" s="226" t="s">
         <v>94</v>
       </c>
-      <c r="D152" s="257"/>
-      <c r="E152" s="257"/>
-      <c r="F152" s="257"/>
-      <c r="G152" s="257"/>
-      <c r="H152" s="257"/>
-      <c r="I152" s="257"/>
-      <c r="J152" s="257"/>
-      <c r="K152" s="257"/>
-      <c r="L152" s="257"/>
-      <c r="M152" s="257"/>
-      <c r="N152" s="258"/>
+      <c r="D152" s="226"/>
+      <c r="E152" s="226"/>
+      <c r="F152" s="226"/>
+      <c r="G152" s="226"/>
+      <c r="H152" s="226"/>
+      <c r="I152" s="226"/>
+      <c r="J152" s="226"/>
+      <c r="K152" s="226"/>
+      <c r="L152" s="226"/>
+      <c r="M152" s="226"/>
+      <c r="N152" s="227"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A153" s="262"/>
+      <c r="A153" s="176"/>
       <c r="B153" s="69" t="s">
         <v>56</v>
       </c>
@@ -9001,41 +9299,41 @@
       <c r="N153" s="79"/>
     </row>
     <row r="154" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="262"/>
+      <c r="A154" s="176"/>
       <c r="B154" s="69"/>
-      <c r="C154" s="259" t="s">
+      <c r="C154" s="228" t="s">
         <v>183</v>
       </c>
-      <c r="D154" s="259"/>
-      <c r="E154" s="259"/>
-      <c r="F154" s="259"/>
-      <c r="G154" s="259"/>
-      <c r="H154" s="259"/>
-      <c r="I154" s="259"/>
-      <c r="J154" s="259"/>
-      <c r="K154" s="259"/>
-      <c r="L154" s="259"/>
-      <c r="M154" s="259"/>
-      <c r="N154" s="260"/>
+      <c r="D154" s="228"/>
+      <c r="E154" s="228"/>
+      <c r="F154" s="228"/>
+      <c r="G154" s="228"/>
+      <c r="H154" s="228"/>
+      <c r="I154" s="228"/>
+      <c r="J154" s="228"/>
+      <c r="K154" s="228"/>
+      <c r="L154" s="228"/>
+      <c r="M154" s="228"/>
+      <c r="N154" s="229"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A155" s="262"/>
+      <c r="A155" s="176"/>
       <c r="B155" s="69"/>
-      <c r="C155" s="259"/>
-      <c r="D155" s="259"/>
-      <c r="E155" s="259"/>
-      <c r="F155" s="259"/>
-      <c r="G155" s="259"/>
-      <c r="H155" s="259"/>
-      <c r="I155" s="259"/>
-      <c r="J155" s="259"/>
-      <c r="K155" s="259"/>
-      <c r="L155" s="259"/>
-      <c r="M155" s="259"/>
-      <c r="N155" s="260"/>
+      <c r="C155" s="228"/>
+      <c r="D155" s="228"/>
+      <c r="E155" s="228"/>
+      <c r="F155" s="228"/>
+      <c r="G155" s="228"/>
+      <c r="H155" s="228"/>
+      <c r="I155" s="228"/>
+      <c r="J155" s="228"/>
+      <c r="K155" s="228"/>
+      <c r="L155" s="228"/>
+      <c r="M155" s="228"/>
+      <c r="N155" s="229"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A156" s="262"/>
+      <c r="A156" s="176"/>
       <c r="B156" s="69" t="s">
         <v>56</v>
       </c>
@@ -9055,7 +9353,7 @@
       <c r="N156" s="79"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A157" s="262"/>
+      <c r="A157" s="176"/>
       <c r="B157" s="69" t="s">
         <v>56</v>
       </c>
@@ -9075,7 +9373,7 @@
       <c r="N157" s="79"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A158" s="262"/>
+      <c r="A158" s="176"/>
       <c r="B158" s="69" t="s">
         <v>11</v>
       </c>
@@ -9095,7 +9393,7 @@
       <c r="N158" s="79"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A159" s="262"/>
+      <c r="A159" s="176"/>
       <c r="B159" s="69" t="s">
         <v>11</v>
       </c>
@@ -9115,7 +9413,7 @@
       <c r="N159" s="79"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A160" s="262"/>
+      <c r="A160" s="176"/>
       <c r="B160" s="69" t="s">
         <v>11</v>
       </c>
@@ -9135,7 +9433,7 @@
       <c r="N160" s="79"/>
     </row>
     <row r="161" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="263"/>
+      <c r="A161" s="177"/>
       <c r="B161" s="80" t="s">
         <v>11</v>
       </c>
@@ -9155,7 +9453,7 @@
       <c r="N161" s="87"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A162" s="309" t="s">
+      <c r="A162" s="175" t="s">
         <v>102</v>
       </c>
       <c r="B162" s="88" t="s">
@@ -9175,127 +9473,127 @@
       <c r="N162" s="79"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A163" s="262"/>
+      <c r="A163" s="176"/>
       <c r="B163" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C163" s="193" t="s">
+      <c r="C163" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="D163" s="193"/>
-      <c r="E163" s="193"/>
-      <c r="F163" s="193"/>
-      <c r="G163" s="193"/>
-      <c r="H163" s="193"/>
-      <c r="I163" s="193"/>
-      <c r="J163" s="193"/>
-      <c r="K163" s="193"/>
-      <c r="L163" s="193"/>
-      <c r="M163" s="193"/>
-      <c r="N163" s="194"/>
+      <c r="D163" s="132"/>
+      <c r="E163" s="132"/>
+      <c r="F163" s="132"/>
+      <c r="G163" s="132"/>
+      <c r="H163" s="132"/>
+      <c r="I163" s="132"/>
+      <c r="J163" s="132"/>
+      <c r="K163" s="132"/>
+      <c r="L163" s="132"/>
+      <c r="M163" s="132"/>
+      <c r="N163" s="133"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A164" s="262"/>
+      <c r="A164" s="176"/>
       <c r="B164" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="193" t="s">
+      <c r="C164" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="D164" s="193"/>
-      <c r="E164" s="193"/>
-      <c r="F164" s="193"/>
-      <c r="G164" s="193"/>
-      <c r="H164" s="193"/>
-      <c r="I164" s="193"/>
-      <c r="J164" s="193"/>
-      <c r="K164" s="193"/>
-      <c r="L164" s="193"/>
-      <c r="M164" s="193"/>
-      <c r="N164" s="194"/>
+      <c r="D164" s="132"/>
+      <c r="E164" s="132"/>
+      <c r="F164" s="132"/>
+      <c r="G164" s="132"/>
+      <c r="H164" s="132"/>
+      <c r="I164" s="132"/>
+      <c r="J164" s="132"/>
+      <c r="K164" s="132"/>
+      <c r="L164" s="132"/>
+      <c r="M164" s="132"/>
+      <c r="N164" s="133"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A165" s="262"/>
+      <c r="A165" s="176"/>
       <c r="B165" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C165" s="193" t="s">
+      <c r="C165" s="132" t="s">
         <v>117</v>
       </c>
-      <c r="D165" s="193"/>
-      <c r="E165" s="193"/>
-      <c r="F165" s="193"/>
-      <c r="G165" s="193"/>
-      <c r="H165" s="193"/>
-      <c r="I165" s="193"/>
-      <c r="J165" s="193"/>
-      <c r="K165" s="193"/>
-      <c r="L165" s="193"/>
-      <c r="M165" s="193"/>
-      <c r="N165" s="194"/>
+      <c r="D165" s="132"/>
+      <c r="E165" s="132"/>
+      <c r="F165" s="132"/>
+      <c r="G165" s="132"/>
+      <c r="H165" s="132"/>
+      <c r="I165" s="132"/>
+      <c r="J165" s="132"/>
+      <c r="K165" s="132"/>
+      <c r="L165" s="132"/>
+      <c r="M165" s="132"/>
+      <c r="N165" s="133"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A166" s="262"/>
+      <c r="A166" s="176"/>
       <c r="B166" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C166" s="193" t="s">
+      <c r="C166" s="132" t="s">
         <v>118</v>
       </c>
-      <c r="D166" s="193"/>
-      <c r="E166" s="193"/>
-      <c r="F166" s="193"/>
-      <c r="G166" s="193"/>
-      <c r="H166" s="193"/>
-      <c r="I166" s="193"/>
-      <c r="J166" s="193"/>
-      <c r="K166" s="193"/>
-      <c r="L166" s="193"/>
-      <c r="M166" s="193"/>
-      <c r="N166" s="194"/>
+      <c r="D166" s="132"/>
+      <c r="E166" s="132"/>
+      <c r="F166" s="132"/>
+      <c r="G166" s="132"/>
+      <c r="H166" s="132"/>
+      <c r="I166" s="132"/>
+      <c r="J166" s="132"/>
+      <c r="K166" s="132"/>
+      <c r="L166" s="132"/>
+      <c r="M166" s="132"/>
+      <c r="N166" s="133"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A167" s="262"/>
+      <c r="A167" s="176"/>
       <c r="B167" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C167" s="269" t="s">
+      <c r="C167" s="200" t="s">
         <v>149</v>
       </c>
-      <c r="D167" s="269"/>
-      <c r="E167" s="269"/>
-      <c r="F167" s="269"/>
-      <c r="G167" s="269"/>
-      <c r="H167" s="269"/>
-      <c r="I167" s="269"/>
-      <c r="J167" s="269"/>
-      <c r="K167" s="269"/>
-      <c r="L167" s="269"/>
-      <c r="M167" s="269"/>
-      <c r="N167" s="270"/>
+      <c r="D167" s="200"/>
+      <c r="E167" s="200"/>
+      <c r="F167" s="200"/>
+      <c r="G167" s="200"/>
+      <c r="H167" s="200"/>
+      <c r="I167" s="200"/>
+      <c r="J167" s="200"/>
+      <c r="K167" s="200"/>
+      <c r="L167" s="200"/>
+      <c r="M167" s="200"/>
+      <c r="N167" s="201"/>
     </row>
     <row r="168" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="263"/>
+      <c r="A168" s="177"/>
       <c r="B168" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C168" s="195" t="s">
+      <c r="C168" s="178" t="s">
         <v>119</v>
       </c>
-      <c r="D168" s="195"/>
-      <c r="E168" s="195"/>
-      <c r="F168" s="195"/>
-      <c r="G168" s="195"/>
-      <c r="H168" s="195"/>
-      <c r="I168" s="195"/>
-      <c r="J168" s="195"/>
-      <c r="K168" s="195"/>
-      <c r="L168" s="195"/>
-      <c r="M168" s="195"/>
-      <c r="N168" s="196"/>
+      <c r="D168" s="178"/>
+      <c r="E168" s="178"/>
+      <c r="F168" s="178"/>
+      <c r="G168" s="178"/>
+      <c r="H168" s="178"/>
+      <c r="I168" s="178"/>
+      <c r="J168" s="178"/>
+      <c r="K168" s="178"/>
+      <c r="L168" s="178"/>
+      <c r="M168" s="178"/>
+      <c r="N168" s="179"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A169" s="309" t="s">
+      <c r="A169" s="175" t="s">
         <v>154</v>
       </c>
       <c r="B169" s="88" t="s">
@@ -9315,87 +9613,87 @@
       <c r="N169" s="70"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A170" s="262"/>
+      <c r="A170" s="176"/>
       <c r="B170" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="C170" s="193" t="s">
+      <c r="C170" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="D170" s="193"/>
-      <c r="E170" s="193"/>
-      <c r="F170" s="193"/>
-      <c r="G170" s="193"/>
-      <c r="H170" s="193"/>
-      <c r="I170" s="193"/>
-      <c r="J170" s="193"/>
-      <c r="K170" s="193"/>
-      <c r="L170" s="193"/>
-      <c r="M170" s="193"/>
-      <c r="N170" s="194"/>
+      <c r="D170" s="132"/>
+      <c r="E170" s="132"/>
+      <c r="F170" s="132"/>
+      <c r="G170" s="132"/>
+      <c r="H170" s="132"/>
+      <c r="I170" s="132"/>
+      <c r="J170" s="132"/>
+      <c r="K170" s="132"/>
+      <c r="L170" s="132"/>
+      <c r="M170" s="132"/>
+      <c r="N170" s="133"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A171" s="262"/>
+      <c r="A171" s="176"/>
       <c r="B171" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C171" s="193" t="s">
+      <c r="C171" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="D171" s="193"/>
-      <c r="E171" s="193"/>
-      <c r="F171" s="193"/>
-      <c r="G171" s="193"/>
-      <c r="H171" s="193"/>
-      <c r="I171" s="193"/>
-      <c r="J171" s="193"/>
-      <c r="K171" s="193"/>
-      <c r="L171" s="193"/>
-      <c r="M171" s="193"/>
-      <c r="N171" s="194"/>
+      <c r="D171" s="132"/>
+      <c r="E171" s="132"/>
+      <c r="F171" s="132"/>
+      <c r="G171" s="132"/>
+      <c r="H171" s="132"/>
+      <c r="I171" s="132"/>
+      <c r="J171" s="132"/>
+      <c r="K171" s="132"/>
+      <c r="L171" s="132"/>
+      <c r="M171" s="132"/>
+      <c r="N171" s="133"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A172" s="262"/>
+      <c r="A172" s="176"/>
       <c r="B172" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C172" s="193" t="s">
+      <c r="C172" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="D172" s="193"/>
-      <c r="E172" s="193"/>
-      <c r="F172" s="193"/>
-      <c r="G172" s="193"/>
-      <c r="H172" s="193"/>
-      <c r="I172" s="193"/>
-      <c r="J172" s="193"/>
-      <c r="K172" s="193"/>
-      <c r="L172" s="193"/>
-      <c r="M172" s="193"/>
-      <c r="N172" s="194"/>
+      <c r="D172" s="132"/>
+      <c r="E172" s="132"/>
+      <c r="F172" s="132"/>
+      <c r="G172" s="132"/>
+      <c r="H172" s="132"/>
+      <c r="I172" s="132"/>
+      <c r="J172" s="132"/>
+      <c r="K172" s="132"/>
+      <c r="L172" s="132"/>
+      <c r="M172" s="132"/>
+      <c r="N172" s="133"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A173" s="262"/>
+      <c r="A173" s="176"/>
       <c r="B173" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C173" s="193" t="s">
+      <c r="C173" s="132" t="s">
         <v>165</v>
       </c>
-      <c r="D173" s="193"/>
-      <c r="E173" s="193"/>
-      <c r="F173" s="193"/>
-      <c r="G173" s="193"/>
-      <c r="H173" s="193"/>
-      <c r="I173" s="193"/>
-      <c r="J173" s="193"/>
-      <c r="K173" s="193"/>
-      <c r="L173" s="193"/>
-      <c r="M173" s="193"/>
-      <c r="N173" s="194"/>
+      <c r="D173" s="132"/>
+      <c r="E173" s="132"/>
+      <c r="F173" s="132"/>
+      <c r="G173" s="132"/>
+      <c r="H173" s="132"/>
+      <c r="I173" s="132"/>
+      <c r="J173" s="132"/>
+      <c r="K173" s="132"/>
+      <c r="L173" s="132"/>
+      <c r="M173" s="132"/>
+      <c r="N173" s="133"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A174" s="262"/>
+      <c r="A174" s="176"/>
       <c r="B174" s="89" t="s">
         <v>56</v>
       </c>
@@ -9415,136 +9713,136 @@
       <c r="N174" s="99"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A175" s="262"/>
+      <c r="A175" s="176"/>
       <c r="B175" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C175" s="193" t="s">
+      <c r="C175" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="D175" s="193"/>
-      <c r="E175" s="193"/>
-      <c r="F175" s="193"/>
-      <c r="G175" s="193"/>
-      <c r="H175" s="193"/>
-      <c r="I175" s="193"/>
-      <c r="J175" s="193"/>
-      <c r="K175" s="193"/>
-      <c r="L175" s="193"/>
-      <c r="M175" s="193"/>
-      <c r="N175" s="194"/>
+      <c r="D175" s="132"/>
+      <c r="E175" s="132"/>
+      <c r="F175" s="132"/>
+      <c r="G175" s="132"/>
+      <c r="H175" s="132"/>
+      <c r="I175" s="132"/>
+      <c r="J175" s="132"/>
+      <c r="K175" s="132"/>
+      <c r="L175" s="132"/>
+      <c r="M175" s="132"/>
+      <c r="N175" s="133"/>
     </row>
     <row r="176" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="263"/>
+      <c r="A176" s="177"/>
       <c r="B176" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="C176" s="195" t="s">
+      <c r="C176" s="178" t="s">
         <v>119</v>
       </c>
-      <c r="D176" s="195"/>
-      <c r="E176" s="195"/>
-      <c r="F176" s="195"/>
-      <c r="G176" s="195"/>
-      <c r="H176" s="195"/>
-      <c r="I176" s="195"/>
-      <c r="J176" s="195"/>
-      <c r="K176" s="195"/>
-      <c r="L176" s="195"/>
-      <c r="M176" s="195"/>
-      <c r="N176" s="196"/>
+      <c r="D176" s="178"/>
+      <c r="E176" s="178"/>
+      <c r="F176" s="178"/>
+      <c r="G176" s="178"/>
+      <c r="H176" s="178"/>
+      <c r="I176" s="178"/>
+      <c r="J176" s="178"/>
+      <c r="K176" s="178"/>
+      <c r="L176" s="178"/>
+      <c r="M176" s="178"/>
+      <c r="N176" s="179"/>
     </row>
     <row r="177" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="248" t="s">
+      <c r="A177" s="173" t="s">
         <v>153</v>
       </c>
-      <c r="B177" s="305" t="s">
+      <c r="B177" s="161" t="s">
         <v>167</v>
       </c>
-      <c r="C177" s="306"/>
-      <c r="D177" s="306"/>
-      <c r="E177" s="306"/>
-      <c r="F177" s="306"/>
-      <c r="G177" s="306"/>
-      <c r="H177" s="306"/>
-      <c r="I177" s="306"/>
-      <c r="J177" s="306"/>
-      <c r="K177" s="306"/>
-      <c r="L177" s="306"/>
-      <c r="M177" s="306"/>
-      <c r="N177" s="307"/>
+      <c r="C177" s="162"/>
+      <c r="D177" s="162"/>
+      <c r="E177" s="162"/>
+      <c r="F177" s="162"/>
+      <c r="G177" s="162"/>
+      <c r="H177" s="162"/>
+      <c r="I177" s="162"/>
+      <c r="J177" s="162"/>
+      <c r="K177" s="162"/>
+      <c r="L177" s="162"/>
+      <c r="M177" s="162"/>
+      <c r="N177" s="163"/>
     </row>
     <row r="178" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="250"/>
-      <c r="B178" s="308" t="s">
+      <c r="A178" s="174"/>
+      <c r="B178" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="C178" s="232"/>
-      <c r="D178" s="232"/>
-      <c r="E178" s="232"/>
-      <c r="F178" s="232"/>
-      <c r="G178" s="232"/>
-      <c r="H178" s="232"/>
-      <c r="I178" s="232"/>
-      <c r="J178" s="232"/>
-      <c r="K178" s="232"/>
-      <c r="L178" s="232"/>
-      <c r="M178" s="232"/>
+      <c r="C178" s="124"/>
+      <c r="D178" s="124"/>
+      <c r="E178" s="124"/>
+      <c r="F178" s="124"/>
+      <c r="G178" s="124"/>
+      <c r="H178" s="124"/>
+      <c r="I178" s="124"/>
+      <c r="J178" s="124"/>
+      <c r="K178" s="124"/>
+      <c r="L178" s="124"/>
+      <c r="M178" s="124"/>
       <c r="N178" s="94"/>
     </row>
     <row r="179" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="248" t="s">
+      <c r="A179" s="173" t="s">
         <v>170</v>
       </c>
-      <c r="B179" s="305" t="s">
+      <c r="B179" s="161" t="s">
         <v>172</v>
       </c>
-      <c r="C179" s="306"/>
-      <c r="D179" s="306"/>
-      <c r="E179" s="306"/>
-      <c r="F179" s="306"/>
-      <c r="G179" s="306"/>
-      <c r="H179" s="306"/>
-      <c r="I179" s="306"/>
-      <c r="J179" s="306"/>
-      <c r="K179" s="306"/>
-      <c r="L179" s="306"/>
-      <c r="M179" s="306"/>
-      <c r="N179" s="307"/>
+      <c r="C179" s="162"/>
+      <c r="D179" s="162"/>
+      <c r="E179" s="162"/>
+      <c r="F179" s="162"/>
+      <c r="G179" s="162"/>
+      <c r="H179" s="162"/>
+      <c r="I179" s="162"/>
+      <c r="J179" s="162"/>
+      <c r="K179" s="162"/>
+      <c r="L179" s="162"/>
+      <c r="M179" s="162"/>
+      <c r="N179" s="163"/>
     </row>
     <row r="180" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="249"/>
-      <c r="B180" s="312" t="s">
+      <c r="A180" s="220"/>
+      <c r="B180" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="C180" s="191"/>
-      <c r="D180" s="191"/>
-      <c r="E180" s="191"/>
-      <c r="F180" s="191"/>
-      <c r="G180" s="191"/>
-      <c r="H180" s="191"/>
-      <c r="I180" s="191"/>
-      <c r="J180" s="191"/>
-      <c r="K180" s="191"/>
-      <c r="L180" s="191"/>
-      <c r="M180" s="191"/>
-      <c r="N180" s="313"/>
+      <c r="C180" s="121"/>
+      <c r="D180" s="121"/>
+      <c r="E180" s="121"/>
+      <c r="F180" s="121"/>
+      <c r="G180" s="121"/>
+      <c r="H180" s="121"/>
+      <c r="I180" s="121"/>
+      <c r="J180" s="121"/>
+      <c r="K180" s="121"/>
+      <c r="L180" s="121"/>
+      <c r="M180" s="121"/>
+      <c r="N180" s="122"/>
     </row>
     <row r="181" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="250"/>
-      <c r="B181" s="308"/>
-      <c r="C181" s="232"/>
-      <c r="D181" s="232"/>
-      <c r="E181" s="232"/>
-      <c r="F181" s="232"/>
-      <c r="G181" s="232"/>
-      <c r="H181" s="232"/>
-      <c r="I181" s="232"/>
-      <c r="J181" s="232"/>
-      <c r="K181" s="232"/>
-      <c r="L181" s="232"/>
-      <c r="M181" s="232"/>
-      <c r="N181" s="233"/>
+      <c r="A181" s="174"/>
+      <c r="B181" s="123"/>
+      <c r="C181" s="124"/>
+      <c r="D181" s="124"/>
+      <c r="E181" s="124"/>
+      <c r="F181" s="124"/>
+      <c r="G181" s="124"/>
+      <c r="H181" s="124"/>
+      <c r="I181" s="124"/>
+      <c r="J181" s="124"/>
+      <c r="K181" s="124"/>
+      <c r="L181" s="124"/>
+      <c r="M181" s="124"/>
+      <c r="N181" s="125"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="21" t="s">
@@ -9847,6 +10145,168 @@
     <protectedRange password="CAED" sqref="B116:N137" name="範囲1"/>
   </protectedRanges>
   <mergeCells count="186">
+    <mergeCell ref="F35:N35"/>
+    <mergeCell ref="F34:N34"/>
+    <mergeCell ref="F36:N36"/>
+    <mergeCell ref="F37:N37"/>
+    <mergeCell ref="F38:N38"/>
+    <mergeCell ref="F39:N39"/>
+    <mergeCell ref="F40:N40"/>
+    <mergeCell ref="F41:N41"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="I15:K17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B57:N57"/>
+    <mergeCell ref="B58:N58"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C47"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="C42:N42"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="D64:N64"/>
+    <mergeCell ref="D65:N65"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B14:E17"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A18:A31"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B24:N24"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B26:N26"/>
+    <mergeCell ref="B19:N19"/>
+    <mergeCell ref="B18:N18"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="C60:N60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="D48:N48"/>
+    <mergeCell ref="B52:N53"/>
+    <mergeCell ref="B50:N50"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C163:N163"/>
+    <mergeCell ref="C164:N164"/>
+    <mergeCell ref="C165:N165"/>
+    <mergeCell ref="C166:N166"/>
+    <mergeCell ref="C140:N140"/>
+    <mergeCell ref="A130:A140"/>
+    <mergeCell ref="C152:N152"/>
+    <mergeCell ref="C154:N155"/>
+    <mergeCell ref="A149:A161"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="A116:A129"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="C167:N167"/>
+    <mergeCell ref="C168:N168"/>
+    <mergeCell ref="B66:N66"/>
+    <mergeCell ref="B78:N81"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="I69:N69"/>
+    <mergeCell ref="I70:N70"/>
+    <mergeCell ref="I71:N71"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B73:N76"/>
+    <mergeCell ref="B116:N129"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="B106:N110"/>
+    <mergeCell ref="B111:N114"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:N86"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B72:N72"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:N177"/>
+    <mergeCell ref="B178:M178"/>
+    <mergeCell ref="A162:A168"/>
+    <mergeCell ref="A169:A176"/>
+    <mergeCell ref="C170:N170"/>
+    <mergeCell ref="C171:N171"/>
+    <mergeCell ref="C173:N173"/>
+    <mergeCell ref="C175:N175"/>
+    <mergeCell ref="C176:N176"/>
+    <mergeCell ref="B87:N93"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="B94:N99"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="B100:N105"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="B61:N61"/>
+    <mergeCell ref="D43:N43"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="B180:N181"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
@@ -9871,168 +10331,6 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="B179:N179"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="B72:N72"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:N177"/>
-    <mergeCell ref="B178:M178"/>
-    <mergeCell ref="A162:A168"/>
-    <mergeCell ref="A169:A176"/>
-    <mergeCell ref="C170:N170"/>
-    <mergeCell ref="C171:N171"/>
-    <mergeCell ref="C173:N173"/>
-    <mergeCell ref="C175:N175"/>
-    <mergeCell ref="C176:N176"/>
-    <mergeCell ref="B87:N93"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="B94:N99"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="B100:N105"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="B61:N61"/>
-    <mergeCell ref="D43:N43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="C167:N167"/>
-    <mergeCell ref="C168:N168"/>
-    <mergeCell ref="B66:N66"/>
-    <mergeCell ref="B78:N81"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="I69:N69"/>
-    <mergeCell ref="I70:N70"/>
-    <mergeCell ref="I71:N71"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B73:N76"/>
-    <mergeCell ref="B116:N129"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="B106:N110"/>
-    <mergeCell ref="B111:N114"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:N86"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C163:N163"/>
-    <mergeCell ref="C164:N164"/>
-    <mergeCell ref="C165:N165"/>
-    <mergeCell ref="C166:N166"/>
-    <mergeCell ref="C140:N140"/>
-    <mergeCell ref="A130:A140"/>
-    <mergeCell ref="C152:N152"/>
-    <mergeCell ref="C154:N155"/>
-    <mergeCell ref="A149:A161"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="A116:A129"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="C60:N60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="D48:N48"/>
-    <mergeCell ref="B52:N53"/>
-    <mergeCell ref="B50:N50"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="D64:N64"/>
-    <mergeCell ref="D65:N65"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B14:E17"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A18:A31"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B24:N24"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B26:N26"/>
-    <mergeCell ref="B19:N19"/>
-    <mergeCell ref="B18:N18"/>
-    <mergeCell ref="I15:K17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B57:N57"/>
-    <mergeCell ref="B58:N58"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C47"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="C42:N42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F35:N35"/>
-    <mergeCell ref="F34:N34"/>
-    <mergeCell ref="F36:N36"/>
-    <mergeCell ref="F37:N37"/>
-    <mergeCell ref="F38:N38"/>
-    <mergeCell ref="F39:N39"/>
-    <mergeCell ref="F40:N40"/>
-    <mergeCell ref="F41:N41"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <hyperlinks>

--- a/U22_2017_entrysheet.xlsx
+++ b/U22_2017_entrysheet.xlsx
@@ -3664,30 +3664,748 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3712,18 +4430,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3732,18 +4438,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3815,700 +4509,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -5859,157 +5859,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>450665</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>190837</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>632374</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>94122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>291561</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="フリーフォーム 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2233550" y="14781183"/>
-          <a:ext cx="92504" cy="100724"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 70069"/>
-            <a:gd name="connsiteY0" fmla="*/ 21896 h 100724"/>
-            <a:gd name="connsiteX1" fmla="*/ 4379 w 70069"/>
-            <a:gd name="connsiteY1" fmla="*/ 52552 h 100724"/>
-            <a:gd name="connsiteX2" fmla="*/ 13138 w 70069"/>
-            <a:gd name="connsiteY2" fmla="*/ 65690 h 100724"/>
-            <a:gd name="connsiteX3" fmla="*/ 21896 w 70069"/>
-            <a:gd name="connsiteY3" fmla="*/ 100724 h 100724"/>
-            <a:gd name="connsiteX4" fmla="*/ 30655 w 70069"/>
-            <a:gd name="connsiteY4" fmla="*/ 87586 h 100724"/>
-            <a:gd name="connsiteX5" fmla="*/ 48172 w 70069"/>
-            <a:gd name="connsiteY5" fmla="*/ 48172 h 100724"/>
-            <a:gd name="connsiteX6" fmla="*/ 56931 w 70069"/>
-            <a:gd name="connsiteY6" fmla="*/ 17517 h 100724"/>
-            <a:gd name="connsiteX7" fmla="*/ 70069 w 70069"/>
-            <a:gd name="connsiteY7" fmla="*/ 0 h 100724"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX5" y="connsiteY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX6" y="connsiteY6"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX7" y="connsiteY7"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="70069" h="100724">
-              <a:moveTo>
-                <a:pt x="0" y="21896"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="1460" y="32115"/>
-                <a:pt x="1413" y="42665"/>
-                <a:pt x="4379" y="52552"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="5891" y="57593"/>
-                <a:pt x="10784" y="60982"/>
-                <a:pt x="13138" y="65690"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="17627" y="74667"/>
-                <a:pt x="20231" y="92396"/>
-                <a:pt x="21896" y="100724"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="24816" y="96345"/>
-                <a:pt x="28517" y="92396"/>
-                <a:pt x="30655" y="87586"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="51504" y="40677"/>
-                <a:pt x="28350" y="77908"/>
-                <a:pt x="48172" y="48172"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="49574" y="42565"/>
-                <a:pt x="53792" y="23796"/>
-                <a:pt x="56931" y="17517"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="61882" y="7614"/>
-                <a:pt x="63911" y="6158"/>
-                <a:pt x="70069" y="0"/>
-              </a:cubicBezTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>461412</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>724878</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>89237</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>11724</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>189961</xdr:rowOff>
+      <xdr:rowOff>194846</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6018,7 +5877,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2244297" y="14386506"/>
+          <a:off x="3118643" y="14391391"/>
           <a:ext cx="92504" cy="100724"/>
         </a:xfrm>
         <a:custGeom>
@@ -6455,7 +6314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O200"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -6479,103 +6338,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="252" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
       <c r="L1" s="111"/>
       <c r="M1" s="111"/>
       <c r="N1" s="112"/>
     </row>
     <row r="2" spans="1:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="268" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="269"/>
+      <c r="N2" s="269"/>
     </row>
     <row r="3" spans="1:14" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="289" t="s">
+      <c r="A3" s="149" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="298" t="s">
+      <c r="B3" s="160" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="299"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="161"/>
+      <c r="D3" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="327"/>
-      <c r="F3" s="327"/>
-      <c r="G3" s="327"/>
-      <c r="H3" s="327"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="292" t="s">
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="154" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="293"/>
-      <c r="L3" s="293"/>
-      <c r="M3" s="293"/>
-      <c r="N3" s="294"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="290"/>
-      <c r="B4" s="300"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="329" t="s">
+      <c r="A4" s="150"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="331"/>
-      <c r="J4" s="295" t="s">
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="296"/>
-      <c r="L4" s="296"/>
-      <c r="M4" s="296"/>
-      <c r="N4" s="297"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="159"/>
     </row>
     <row r="5" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="250" t="s">
+      <c r="A5" s="198" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="268" t="s">
+      <c r="B5" s="218" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="269"/>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="269"/>
-      <c r="G5" s="269"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="291" t="s">
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="269"/>
-      <c r="K5" s="270"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="153"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24" t="s">
         <v>135</v>
@@ -6583,13 +6442,13 @@
       <c r="N5" s="25"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="251"/>
-      <c r="B6" s="335" t="s">
+      <c r="A6" s="199"/>
+      <c r="B6" s="135" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="333"/>
-      <c r="D6" s="333"/>
-      <c r="E6" s="333"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
       <c r="F6" s="26" t="s">
         <v>15</v>
       </c>
@@ -6599,11 +6458,11 @@
       <c r="H6" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="332" t="s">
+      <c r="I6" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="J6" s="333"/>
-      <c r="K6" s="334"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="134"/>
       <c r="L6" s="28" t="s">
         <v>132</v>
       </c>
@@ -6613,11 +6472,11 @@
       <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="251"/>
-      <c r="B7" s="336"/>
-      <c r="C7" s="337"/>
-      <c r="D7" s="337"/>
-      <c r="E7" s="337"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
       <c r="F7" s="30" t="s">
         <v>14</v>
       </c>
@@ -6625,11 +6484,11 @@
       <c r="H7" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="332" t="s">
+      <c r="I7" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="J7" s="333"/>
-      <c r="K7" s="334"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="134"/>
       <c r="L7" s="32" t="s">
         <v>131</v>
       </c>
@@ -6637,11 +6496,11 @@
       <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="251"/>
-      <c r="B8" s="336"/>
-      <c r="C8" s="337"/>
-      <c r="D8" s="337"/>
-      <c r="E8" s="337"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
       <c r="F8" s="30" t="s">
         <v>14</v>
       </c>
@@ -6649,11 +6508,11 @@
       <c r="H8" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="332" t="s">
+      <c r="I8" s="132" t="s">
         <v>194</v>
       </c>
-      <c r="J8" s="333"/>
-      <c r="K8" s="334"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="134"/>
       <c r="L8" s="32" t="s">
         <v>131</v>
       </c>
@@ -6661,11 +6520,11 @@
       <c r="N8" s="34"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="251"/>
-      <c r="B9" s="336"/>
-      <c r="C9" s="337"/>
-      <c r="D9" s="337"/>
-      <c r="E9" s="337"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
       <c r="F9" s="30" t="s">
         <v>14</v>
       </c>
@@ -6673,11 +6532,11 @@
       <c r="H9" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="332" t="s">
+      <c r="I9" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="J9" s="333"/>
-      <c r="K9" s="334"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="134"/>
       <c r="L9" s="32" t="s">
         <v>131</v>
       </c>
@@ -6685,11 +6544,11 @@
       <c r="N9" s="34"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="251"/>
-      <c r="B10" s="336"/>
-      <c r="C10" s="337"/>
-      <c r="D10" s="337"/>
-      <c r="E10" s="337"/>
+      <c r="A10" s="199"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
       <c r="F10" s="30" t="s">
         <v>14</v>
       </c>
@@ -6697,11 +6556,11 @@
       <c r="H10" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="332" t="s">
+      <c r="I10" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="J10" s="333"/>
-      <c r="K10" s="334"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="134"/>
       <c r="L10" s="32" t="s">
         <v>131</v>
       </c>
@@ -6709,11 +6568,11 @@
       <c r="N10" s="34"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="251"/>
-      <c r="B11" s="336"/>
-      <c r="C11" s="337"/>
-      <c r="D11" s="337"/>
-      <c r="E11" s="337"/>
+      <c r="A11" s="199"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
       <c r="F11" s="30" t="s">
         <v>14</v>
       </c>
@@ -6721,11 +6580,11 @@
       <c r="H11" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="332" t="s">
+      <c r="I11" s="132" t="s">
         <v>195</v>
       </c>
-      <c r="J11" s="333"/>
-      <c r="K11" s="334"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="134"/>
       <c r="L11" s="32" t="s">
         <v>131</v>
       </c>
@@ -6733,13 +6592,13 @@
       <c r="N11" s="34"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="252"/>
-      <c r="B12" s="338" t="s">
+      <c r="A12" s="200"/>
+      <c r="B12" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="339"/>
-      <c r="D12" s="339"/>
-      <c r="E12" s="339"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
       <c r="F12" s="35" t="s">
         <v>14</v>
       </c>
@@ -6747,11 +6606,11 @@
       <c r="H12" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="332" t="s">
+      <c r="I12" s="132" t="s">
         <v>196</v>
       </c>
-      <c r="J12" s="333"/>
-      <c r="K12" s="334"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="134"/>
       <c r="L12" s="37" t="s">
         <v>131</v>
       </c>
@@ -6759,245 +6618,245 @@
       <c r="N12" s="39"/>
     </row>
     <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="286" t="s">
+      <c r="A13" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="260" t="s">
+      <c r="B13" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="171"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="261"/>
-      <c r="F13" s="202" t="s">
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="211"/>
+      <c r="F13" s="282" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="171"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="265" t="s">
+      <c r="G13" s="210"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="215" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="265"/>
-      <c r="K13" s="265"/>
-      <c r="L13" s="170" t="s">
+      <c r="J13" s="215"/>
+      <c r="K13" s="215"/>
+      <c r="L13" s="304" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="171"/>
-      <c r="N13" s="172"/>
+      <c r="M13" s="210"/>
+      <c r="N13" s="305"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="287"/>
-      <c r="B14" s="254" t="s">
+      <c r="A14" s="147"/>
+      <c r="B14" s="203" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="255"/>
-      <c r="D14" s="255"/>
-      <c r="E14" s="256"/>
+      <c r="C14" s="204"/>
+      <c r="D14" s="204"/>
+      <c r="E14" s="205"/>
       <c r="F14" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="159" t="s">
+      <c r="G14" s="343" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="160"/>
-      <c r="I14" s="262" t="s">
+      <c r="H14" s="344"/>
+      <c r="I14" s="212" t="s">
         <v>189</v>
       </c>
-      <c r="J14" s="263"/>
-      <c r="K14" s="264"/>
-      <c r="L14" s="130" t="s">
+      <c r="J14" s="213"/>
+      <c r="K14" s="214"/>
+      <c r="L14" s="320" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="131"/>
+      <c r="M14" s="321"/>
       <c r="N14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="287"/>
-      <c r="B15" s="254"/>
-      <c r="C15" s="255"/>
-      <c r="D15" s="255"/>
-      <c r="E15" s="256"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="203"/>
+      <c r="C15" s="204"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="205"/>
       <c r="F15" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="137" t="s">
+      <c r="G15" s="201" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="253"/>
-      <c r="I15" s="280" t="s">
+      <c r="H15" s="202"/>
+      <c r="I15" s="140" t="s">
         <v>190</v>
       </c>
-      <c r="J15" s="281"/>
-      <c r="K15" s="282"/>
-      <c r="L15" s="126" t="s">
+      <c r="J15" s="141"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="316" t="s">
         <v>136</v>
       </c>
-      <c r="M15" s="127"/>
+      <c r="M15" s="317"/>
       <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="287"/>
-      <c r="B16" s="254"/>
-      <c r="C16" s="255"/>
-      <c r="D16" s="255"/>
-      <c r="E16" s="256"/>
+      <c r="A16" s="147"/>
+      <c r="B16" s="203"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="205"/>
       <c r="F16" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="137" t="s">
+      <c r="G16" s="201" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="253"/>
-      <c r="I16" s="280"/>
-      <c r="J16" s="281"/>
-      <c r="K16" s="282"/>
-      <c r="L16" s="128" t="s">
+      <c r="H16" s="202"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="318" t="s">
         <v>188</v>
       </c>
-      <c r="M16" s="129"/>
+      <c r="M16" s="319"/>
       <c r="N16" s="44"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="288"/>
-      <c r="B17" s="257"/>
-      <c r="C17" s="258"/>
-      <c r="D17" s="258"/>
-      <c r="E17" s="259"/>
+      <c r="A17" s="148"/>
+      <c r="B17" s="206"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="208"/>
       <c r="F17" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="204" t="s">
+      <c r="G17" s="190" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="205"/>
-      <c r="I17" s="283"/>
-      <c r="J17" s="284"/>
-      <c r="K17" s="285"/>
+      <c r="H17" s="284"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="145"/>
       <c r="L17" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="M17" s="344" t="s">
+      <c r="M17" s="120" t="s">
         <v>201</v>
       </c>
       <c r="N17" s="47"/>
     </row>
     <row r="18" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="266" t="s">
+      <c r="A18" s="216" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="277" t="s">
+      <c r="B18" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="278"/>
-      <c r="D18" s="278"/>
-      <c r="E18" s="278"/>
-      <c r="F18" s="278"/>
-      <c r="G18" s="278"/>
-      <c r="H18" s="278"/>
-      <c r="I18" s="278"/>
-      <c r="J18" s="278"/>
-      <c r="K18" s="278"/>
-      <c r="L18" s="278"/>
-      <c r="M18" s="278"/>
-      <c r="N18" s="279"/>
+      <c r="C18" s="229"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="229"/>
+      <c r="F18" s="229"/>
+      <c r="G18" s="229"/>
+      <c r="H18" s="229"/>
+      <c r="I18" s="229"/>
+      <c r="J18" s="229"/>
+      <c r="K18" s="229"/>
+      <c r="L18" s="229"/>
+      <c r="M18" s="229"/>
+      <c r="N18" s="230"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="267"/>
-      <c r="B19" s="275" t="s">
+      <c r="A19" s="217"/>
+      <c r="B19" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="276"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="201"/>
+      <c r="K19" s="201"/>
+      <c r="L19" s="201"/>
+      <c r="M19" s="201"/>
+      <c r="N19" s="227"/>
     </row>
     <row r="20" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="267"/>
+      <c r="A20" s="217"/>
       <c r="B20" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="137" t="s">
+      <c r="D20" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="137"/>
+      <c r="E20" s="201"/>
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
-      <c r="H20" s="235"/>
-      <c r="I20" s="235"/>
-      <c r="J20" s="235"/>
-      <c r="K20" s="235"/>
-      <c r="L20" s="235"/>
-      <c r="M20" s="235"/>
-      <c r="N20" s="271"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="219"/>
+      <c r="K20" s="219"/>
+      <c r="L20" s="219"/>
+      <c r="M20" s="219"/>
+      <c r="N20" s="220"/>
     </row>
     <row r="21" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="267"/>
+      <c r="A21" s="217"/>
       <c r="B21" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="138" t="s">
+      <c r="C21" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138" t="s">
+      <c r="D21" s="221"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="221" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="138"/>
-      <c r="H21" s="222" t="s">
+      <c r="G21" s="221"/>
+      <c r="H21" s="253" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="222"/>
-      <c r="J21" s="222"/>
+      <c r="I21" s="253"/>
+      <c r="J21" s="253"/>
       <c r="K21" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="234"/>
-      <c r="M21" s="234"/>
+      <c r="L21" s="267"/>
+      <c r="M21" s="267"/>
       <c r="N21" s="52" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="267"/>
+      <c r="A22" s="217"/>
       <c r="B22" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="137" t="s">
+      <c r="C22" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137" t="s">
+      <c r="D22" s="201"/>
+      <c r="E22" s="201"/>
+      <c r="F22" s="201" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="137"/>
-      <c r="H22" s="139" t="s">
+      <c r="G22" s="201"/>
+      <c r="H22" s="254" t="s">
         <v>140</v>
       </c>
-      <c r="I22" s="139"/>
-      <c r="J22" s="139"/>
+      <c r="I22" s="254"/>
+      <c r="J22" s="254"/>
       <c r="K22" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="234"/>
-      <c r="M22" s="234"/>
+      <c r="L22" s="267"/>
+      <c r="M22" s="267"/>
       <c r="N22" s="52" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="267"/>
+      <c r="A23" s="217"/>
       <c r="B23" s="53" t="s">
         <v>11</v>
       </c>
@@ -7007,39 +6866,39 @@
       <c r="D23" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
+      <c r="E23" s="322"/>
+      <c r="F23" s="322"/>
+      <c r="G23" s="322"/>
+      <c r="H23" s="322"/>
+      <c r="I23" s="322"/>
+      <c r="J23" s="322"/>
+      <c r="K23" s="322"/>
+      <c r="L23" s="322"/>
+      <c r="M23" s="322"/>
       <c r="N23" s="55" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="267"/>
-      <c r="B24" s="272" t="s">
+      <c r="A24" s="217"/>
+      <c r="B24" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="273"/>
-      <c r="D24" s="273"/>
-      <c r="E24" s="273"/>
-      <c r="F24" s="273"/>
-      <c r="G24" s="273"/>
-      <c r="H24" s="273"/>
-      <c r="I24" s="273"/>
-      <c r="J24" s="273"/>
-      <c r="K24" s="273"/>
-      <c r="L24" s="273"/>
-      <c r="M24" s="273"/>
-      <c r="N24" s="274"/>
+      <c r="C24" s="223"/>
+      <c r="D24" s="223"/>
+      <c r="E24" s="223"/>
+      <c r="F24" s="223"/>
+      <c r="G24" s="223"/>
+      <c r="H24" s="223"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="223"/>
+      <c r="L24" s="223"/>
+      <c r="M24" s="223"/>
+      <c r="N24" s="224"/>
     </row>
     <row r="25" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="267"/>
+      <c r="A25" s="217"/>
       <c r="B25" s="53" t="s">
         <v>11</v>
       </c>
@@ -7052,120 +6911,120 @@
       <c r="E25" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="206" t="s">
+      <c r="F25" s="225" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="207"/>
-      <c r="H25" s="206" t="s">
+      <c r="G25" s="285"/>
+      <c r="H25" s="225" t="s">
         <v>143</v>
       </c>
-      <c r="I25" s="206"/>
-      <c r="J25" s="206"/>
+      <c r="I25" s="225"/>
+      <c r="J25" s="225"/>
       <c r="K25" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="L25" s="233"/>
-      <c r="M25" s="233"/>
+      <c r="L25" s="266"/>
+      <c r="M25" s="266"/>
       <c r="N25" s="55" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="267"/>
-      <c r="B26" s="275" t="s">
+      <c r="A26" s="217"/>
+      <c r="B26" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="276"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="201"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="201"/>
+      <c r="G26" s="201"/>
+      <c r="H26" s="201"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="201"/>
+      <c r="K26" s="201"/>
+      <c r="L26" s="201"/>
+      <c r="M26" s="201"/>
+      <c r="N26" s="227"/>
     </row>
     <row r="27" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="267"/>
+      <c r="A27" s="217"/>
       <c r="B27" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="137" t="s">
+      <c r="D27" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="137"/>
-      <c r="F27" s="235"/>
-      <c r="G27" s="235"/>
-      <c r="H27" s="235"/>
-      <c r="I27" s="235"/>
-      <c r="J27" s="235"/>
-      <c r="K27" s="235"/>
-      <c r="L27" s="235"/>
-      <c r="M27" s="235"/>
+      <c r="E27" s="201"/>
+      <c r="F27" s="219"/>
+      <c r="G27" s="219"/>
+      <c r="H27" s="219"/>
+      <c r="I27" s="219"/>
+      <c r="J27" s="219"/>
+      <c r="K27" s="219"/>
+      <c r="L27" s="219"/>
+      <c r="M27" s="219"/>
       <c r="N27" s="58"/>
     </row>
     <row r="28" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="267"/>
+      <c r="A28" s="217"/>
       <c r="B28" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="138" t="s">
+      <c r="C28" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="136" t="s">
+      <c r="D28" s="221"/>
+      <c r="E28" s="221"/>
+      <c r="F28" s="323" t="s">
         <v>138</v>
       </c>
-      <c r="G28" s="136"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
+      <c r="G28" s="323"/>
+      <c r="H28" s="221"/>
+      <c r="I28" s="221"/>
+      <c r="J28" s="221"/>
       <c r="K28" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="L28" s="234"/>
-      <c r="M28" s="234"/>
+      <c r="L28" s="267"/>
+      <c r="M28" s="267"/>
       <c r="N28" s="58" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="267"/>
+      <c r="A29" s="217"/>
       <c r="B29" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="137" t="s">
+      <c r="C29" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="137"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137" t="s">
+      <c r="D29" s="201"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="137"/>
-      <c r="H29" s="139" t="s">
+      <c r="G29" s="201"/>
+      <c r="H29" s="254" t="s">
         <v>140</v>
       </c>
-      <c r="I29" s="139"/>
-      <c r="J29" s="139"/>
+      <c r="I29" s="254"/>
+      <c r="J29" s="254"/>
       <c r="K29" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="234"/>
-      <c r="M29" s="234"/>
+      <c r="L29" s="267"/>
+      <c r="M29" s="267"/>
       <c r="N29" s="58" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="267"/>
+      <c r="A30" s="217"/>
       <c r="B30" s="48" t="s">
         <v>11</v>
       </c>
@@ -7175,29 +7034,29 @@
       <c r="D30" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="135"/>
-      <c r="K30" s="135"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="135"/>
+      <c r="E30" s="322"/>
+      <c r="F30" s="322"/>
+      <c r="G30" s="322"/>
+      <c r="H30" s="322"/>
+      <c r="I30" s="322"/>
+      <c r="J30" s="322"/>
+      <c r="K30" s="322"/>
+      <c r="L30" s="322"/>
+      <c r="M30" s="322"/>
       <c r="N30" s="55" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="267"/>
+      <c r="A31" s="217"/>
       <c r="B31" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="273" t="s">
+      <c r="C31" s="223" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="273"/>
-      <c r="E31" s="273"/>
+      <c r="D31" s="223"/>
+      <c r="E31" s="223"/>
       <c r="F31" s="61" t="s">
         <v>56</v>
       </c>
@@ -7210,12 +7069,12 @@
       <c r="I31" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="143" t="s">
+      <c r="J31" s="327" t="s">
         <v>162</v>
       </c>
-      <c r="K31" s="143"/>
-      <c r="L31" s="143"/>
-      <c r="M31" s="143"/>
+      <c r="K31" s="327"/>
+      <c r="L31" s="327"/>
+      <c r="M31" s="327"/>
       <c r="N31" s="63" t="s">
         <v>124</v>
       </c>
@@ -7225,25 +7084,25 @@
       <c r="A32" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="140" t="s">
+      <c r="B32" s="324" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="141"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="142"/>
+      <c r="C32" s="325"/>
+      <c r="D32" s="325"/>
+      <c r="E32" s="325"/>
+      <c r="F32" s="325"/>
+      <c r="G32" s="325"/>
+      <c r="H32" s="325"/>
+      <c r="I32" s="325"/>
+      <c r="J32" s="325"/>
+      <c r="K32" s="325"/>
+      <c r="L32" s="325"/>
+      <c r="M32" s="325"/>
+      <c r="N32" s="326"/>
       <c r="O32" s="7"/>
     </row>
     <row r="33" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="164" t="s">
+      <c r="A33" s="182" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="53" t="s">
@@ -7254,20 +7113,20 @@
       </c>
       <c r="D33" s="115"/>
       <c r="E33" s="115"/>
-      <c r="F33" s="150" t="s">
+      <c r="F33" s="334" t="s">
         <v>182</v>
       </c>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="152"/>
+      <c r="G33" s="335"/>
+      <c r="H33" s="335"/>
+      <c r="I33" s="335"/>
+      <c r="J33" s="335"/>
+      <c r="K33" s="335"/>
+      <c r="L33" s="335"/>
+      <c r="M33" s="335"/>
+      <c r="N33" s="336"/>
     </row>
     <row r="34" spans="1:14" s="114" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="165"/>
+      <c r="A34" s="183"/>
       <c r="B34" s="116" t="s">
         <v>180</v>
       </c>
@@ -7276,311 +7135,311 @@
       </c>
       <c r="D34" s="117"/>
       <c r="E34" s="117"/>
-      <c r="F34" s="342" t="s">
+      <c r="F34" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="342"/>
-      <c r="H34" s="342"/>
-      <c r="I34" s="342"/>
-      <c r="J34" s="342"/>
-      <c r="K34" s="342"/>
-      <c r="L34" s="342"/>
-      <c r="M34" s="342"/>
-      <c r="N34" s="343"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="124"/>
     </row>
     <row r="35" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="165"/>
+      <c r="A35" s="183"/>
       <c r="B35" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="134" t="s">
+      <c r="C35" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="340" t="s">
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="G35" s="340"/>
-      <c r="H35" s="340"/>
-      <c r="I35" s="340"/>
-      <c r="J35" s="340"/>
-      <c r="K35" s="340"/>
-      <c r="L35" s="340"/>
-      <c r="M35" s="340"/>
-      <c r="N35" s="341"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="121"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="122"/>
     </row>
     <row r="36" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="165"/>
+      <c r="A36" s="183"/>
       <c r="B36" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="134" t="s">
+      <c r="C36" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="340" t="s">
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="340"/>
-      <c r="H36" s="340"/>
-      <c r="I36" s="340"/>
-      <c r="J36" s="340"/>
-      <c r="K36" s="340"/>
-      <c r="L36" s="340"/>
-      <c r="M36" s="340"/>
-      <c r="N36" s="341"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="121"/>
+      <c r="K36" s="121"/>
+      <c r="L36" s="121"/>
+      <c r="M36" s="121"/>
+      <c r="N36" s="122"/>
     </row>
     <row r="37" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="165"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="134" t="s">
+      <c r="C37" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="340" t="s">
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="340"/>
-      <c r="H37" s="340"/>
-      <c r="I37" s="340"/>
-      <c r="J37" s="340"/>
-      <c r="K37" s="340"/>
-      <c r="L37" s="340"/>
-      <c r="M37" s="340"/>
-      <c r="N37" s="341"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="121"/>
+      <c r="K37" s="121"/>
+      <c r="L37" s="121"/>
+      <c r="M37" s="121"/>
+      <c r="N37" s="122"/>
     </row>
     <row r="38" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="165"/>
+      <c r="A38" s="183"/>
       <c r="B38" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="134" t="s">
+      <c r="C38" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="340" t="s">
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="340"/>
-      <c r="H38" s="340"/>
-      <c r="I38" s="340"/>
-      <c r="J38" s="340"/>
-      <c r="K38" s="340"/>
-      <c r="L38" s="340"/>
-      <c r="M38" s="340"/>
-      <c r="N38" s="341"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="121"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="121"/>
+      <c r="N38" s="122"/>
     </row>
     <row r="39" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="165"/>
+      <c r="A39" s="183"/>
       <c r="B39" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="134" t="s">
+      <c r="C39" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="340" t="s">
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="340"/>
-      <c r="H39" s="340"/>
-      <c r="I39" s="340"/>
-      <c r="J39" s="340"/>
-      <c r="K39" s="340"/>
-      <c r="L39" s="340"/>
-      <c r="M39" s="340"/>
-      <c r="N39" s="341"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="121"/>
+      <c r="K39" s="121"/>
+      <c r="L39" s="121"/>
+      <c r="M39" s="121"/>
+      <c r="N39" s="122"/>
     </row>
     <row r="40" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="165"/>
+      <c r="A40" s="183"/>
       <c r="B40" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="134" t="s">
+      <c r="C40" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="134"/>
-      <c r="E40" s="134"/>
-      <c r="F40" s="340" t="s">
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="340"/>
-      <c r="H40" s="340"/>
-      <c r="I40" s="340"/>
-      <c r="J40" s="340"/>
-      <c r="K40" s="340"/>
-      <c r="L40" s="340"/>
-      <c r="M40" s="340"/>
-      <c r="N40" s="341"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="121"/>
+      <c r="K40" s="121"/>
+      <c r="L40" s="121"/>
+      <c r="M40" s="121"/>
+      <c r="N40" s="122"/>
     </row>
     <row r="41" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="165"/>
+      <c r="A41" s="183"/>
       <c r="B41" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="121" t="s">
+      <c r="C41" s="192" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="121"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="342" t="s">
+      <c r="D41" s="192"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="342"/>
-      <c r="H41" s="342"/>
-      <c r="I41" s="342"/>
-      <c r="J41" s="342"/>
-      <c r="K41" s="342"/>
-      <c r="L41" s="342"/>
-      <c r="M41" s="342"/>
-      <c r="N41" s="343"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
+      <c r="N41" s="124"/>
     </row>
     <row r="42" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="319"/>
+      <c r="A42" s="184"/>
       <c r="B42" s="66"/>
-      <c r="C42" s="204" t="s">
+      <c r="C42" s="190" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
-      <c r="H42" s="204"/>
-      <c r="I42" s="204"/>
-      <c r="J42" s="204"/>
-      <c r="K42" s="204"/>
-      <c r="L42" s="204"/>
-      <c r="M42" s="204"/>
-      <c r="N42" s="325"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="190"/>
+      <c r="J42" s="190"/>
+      <c r="K42" s="190"/>
+      <c r="L42" s="190"/>
+      <c r="M42" s="190"/>
+      <c r="N42" s="191"/>
     </row>
     <row r="43" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="286" t="s">
+      <c r="A43" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="311" t="s">
+      <c r="B43" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="312"/>
-      <c r="D43" s="195" t="s">
+      <c r="C43" s="175"/>
+      <c r="D43" s="312" t="s">
         <v>192</v>
       </c>
-      <c r="E43" s="195"/>
-      <c r="F43" s="195"/>
-      <c r="G43" s="195"/>
-      <c r="H43" s="195"/>
-      <c r="I43" s="195"/>
-      <c r="J43" s="195"/>
-      <c r="K43" s="195"/>
-      <c r="L43" s="195"/>
-      <c r="M43" s="195"/>
-      <c r="N43" s="196"/>
+      <c r="E43" s="312"/>
+      <c r="F43" s="312"/>
+      <c r="G43" s="312"/>
+      <c r="H43" s="312"/>
+      <c r="I43" s="312"/>
+      <c r="J43" s="312"/>
+      <c r="K43" s="312"/>
+      <c r="L43" s="312"/>
+      <c r="M43" s="312"/>
+      <c r="N43" s="313"/>
     </row>
     <row r="44" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="287"/>
-      <c r="B44" s="313" t="s">
+      <c r="A44" s="147"/>
+      <c r="B44" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="314"/>
-      <c r="D44" s="197" t="s">
+      <c r="C44" s="177"/>
+      <c r="D44" s="232" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="197"/>
-      <c r="F44" s="197"/>
-      <c r="G44" s="197"/>
-      <c r="H44" s="197"/>
-      <c r="I44" s="197"/>
-      <c r="J44" s="197"/>
+      <c r="E44" s="232"/>
+      <c r="F44" s="232"/>
+      <c r="G44" s="232"/>
+      <c r="H44" s="232"/>
+      <c r="I44" s="232"/>
+      <c r="J44" s="232"/>
       <c r="K44" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="L44" s="236"/>
-      <c r="M44" s="236"/>
+      <c r="L44" s="231"/>
+      <c r="M44" s="231"/>
       <c r="N44" s="68"/>
     </row>
     <row r="45" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="287"/>
-      <c r="B45" s="315"/>
-      <c r="C45" s="316"/>
-      <c r="D45" s="137" t="s">
+      <c r="A45" s="147"/>
+      <c r="B45" s="178"/>
+      <c r="C45" s="179"/>
+      <c r="D45" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="132" t="s">
+      <c r="E45" s="201"/>
+      <c r="F45" s="201"/>
+      <c r="G45" s="201"/>
+      <c r="H45" s="201"/>
+      <c r="I45" s="201"/>
+      <c r="J45" s="201"/>
+      <c r="K45" s="194" t="s">
         <v>141</v>
       </c>
-      <c r="L45" s="132"/>
-      <c r="M45" s="132"/>
-      <c r="N45" s="133"/>
+      <c r="L45" s="194"/>
+      <c r="M45" s="194"/>
+      <c r="N45" s="195"/>
     </row>
     <row r="46" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="287"/>
-      <c r="B46" s="315"/>
-      <c r="C46" s="316"/>
-      <c r="D46" s="231" t="s">
+      <c r="A46" s="147"/>
+      <c r="B46" s="178"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="231"/>
-      <c r="F46" s="231"/>
-      <c r="G46" s="231"/>
-      <c r="H46" s="231"/>
-      <c r="I46" s="231"/>
-      <c r="J46" s="231"/>
+      <c r="E46" s="171"/>
+      <c r="F46" s="171"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="171"/>
+      <c r="I46" s="171"/>
+      <c r="J46" s="171"/>
       <c r="K46" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="L46" s="184"/>
-      <c r="M46" s="184"/>
+      <c r="L46" s="248"/>
+      <c r="M46" s="248"/>
       <c r="N46" s="101"/>
     </row>
     <row r="47" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="287"/>
-      <c r="B47" s="317"/>
-      <c r="C47" s="318"/>
-      <c r="D47" s="249" t="s">
+      <c r="A47" s="147"/>
+      <c r="B47" s="180"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="193" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="249"/>
-      <c r="F47" s="249"/>
-      <c r="G47" s="249"/>
-      <c r="H47" s="249"/>
-      <c r="I47" s="249"/>
-      <c r="J47" s="249"/>
-      <c r="K47" s="132" t="s">
+      <c r="E47" s="193"/>
+      <c r="F47" s="193"/>
+      <c r="G47" s="193"/>
+      <c r="H47" s="193"/>
+      <c r="I47" s="193"/>
+      <c r="J47" s="193"/>
+      <c r="K47" s="194" t="s">
         <v>140</v>
       </c>
-      <c r="L47" s="132"/>
-      <c r="M47" s="132"/>
-      <c r="N47" s="133"/>
+      <c r="L47" s="194"/>
+      <c r="M47" s="194"/>
+      <c r="N47" s="195"/>
     </row>
     <row r="48" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="320"/>
-      <c r="B48" s="321" t="s">
+      <c r="A48" s="185"/>
+      <c r="B48" s="186" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="322"/>
-      <c r="D48" s="241"/>
-      <c r="E48" s="241"/>
-      <c r="F48" s="241"/>
-      <c r="G48" s="241"/>
-      <c r="H48" s="241"/>
-      <c r="I48" s="241"/>
-      <c r="J48" s="241"/>
-      <c r="K48" s="241"/>
-      <c r="L48" s="241"/>
-      <c r="M48" s="241"/>
-      <c r="N48" s="242"/>
+      <c r="C48" s="187"/>
+      <c r="D48" s="240"/>
+      <c r="E48" s="240"/>
+      <c r="F48" s="240"/>
+      <c r="G48" s="240"/>
+      <c r="H48" s="240"/>
+      <c r="I48" s="240"/>
+      <c r="J48" s="240"/>
+      <c r="K48" s="240"/>
+      <c r="L48" s="240"/>
+      <c r="M48" s="240"/>
+      <c r="N48" s="241"/>
     </row>
     <row r="49" spans="1:14" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="113"/>
@@ -7599,29 +7458,29 @@
       <c r="N49" s="102"/>
     </row>
     <row r="50" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="286" t="s">
+      <c r="A50" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="246" t="s">
+      <c r="B50" s="245" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="247"/>
-      <c r="D50" s="247"/>
-      <c r="E50" s="247"/>
-      <c r="F50" s="247"/>
-      <c r="G50" s="247"/>
-      <c r="H50" s="247"/>
-      <c r="I50" s="247"/>
-      <c r="J50" s="247"/>
-      <c r="K50" s="247"/>
-      <c r="L50" s="247"/>
-      <c r="M50" s="247"/>
-      <c r="N50" s="248"/>
+      <c r="C50" s="246"/>
+      <c r="D50" s="246"/>
+      <c r="E50" s="246"/>
+      <c r="F50" s="246"/>
+      <c r="G50" s="246"/>
+      <c r="H50" s="246"/>
+      <c r="I50" s="246"/>
+      <c r="J50" s="246"/>
+      <c r="K50" s="246"/>
+      <c r="L50" s="246"/>
+      <c r="M50" s="246"/>
+      <c r="N50" s="247"/>
     </row>
     <row r="51" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="287"/>
-      <c r="B51" s="323"/>
-      <c r="C51" s="324"/>
+      <c r="A51" s="147"/>
+      <c r="B51" s="188"/>
+      <c r="C51" s="189"/>
       <c r="D51" s="71"/>
       <c r="E51" s="72"/>
       <c r="F51" s="72"/>
@@ -7635,47 +7494,47 @@
       <c r="N51" s="70"/>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="287"/>
-      <c r="B52" s="243" t="s">
+      <c r="A52" s="147"/>
+      <c r="B52" s="242" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="244"/>
-      <c r="D52" s="244"/>
-      <c r="E52" s="244"/>
-      <c r="F52" s="244"/>
-      <c r="G52" s="244"/>
-      <c r="H52" s="244"/>
-      <c r="I52" s="244"/>
-      <c r="J52" s="244"/>
-      <c r="K52" s="244"/>
-      <c r="L52" s="244"/>
-      <c r="M52" s="244"/>
-      <c r="N52" s="245"/>
+      <c r="C52" s="243"/>
+      <c r="D52" s="243"/>
+      <c r="E52" s="243"/>
+      <c r="F52" s="243"/>
+      <c r="G52" s="243"/>
+      <c r="H52" s="243"/>
+      <c r="I52" s="243"/>
+      <c r="J52" s="243"/>
+      <c r="K52" s="243"/>
+      <c r="L52" s="243"/>
+      <c r="M52" s="243"/>
+      <c r="N52" s="244"/>
     </row>
     <row r="53" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="287"/>
-      <c r="B53" s="243"/>
-      <c r="C53" s="244"/>
-      <c r="D53" s="244"/>
-      <c r="E53" s="244"/>
-      <c r="F53" s="244"/>
-      <c r="G53" s="244"/>
-      <c r="H53" s="244"/>
-      <c r="I53" s="244"/>
-      <c r="J53" s="244"/>
-      <c r="K53" s="244"/>
-      <c r="L53" s="244"/>
-      <c r="M53" s="244"/>
-      <c r="N53" s="245"/>
+      <c r="A53" s="147"/>
+      <c r="B53" s="242"/>
+      <c r="C53" s="243"/>
+      <c r="D53" s="243"/>
+      <c r="E53" s="243"/>
+      <c r="F53" s="243"/>
+      <c r="G53" s="243"/>
+      <c r="H53" s="243"/>
+      <c r="I53" s="243"/>
+      <c r="J53" s="243"/>
+      <c r="K53" s="243"/>
+      <c r="L53" s="243"/>
+      <c r="M53" s="243"/>
+      <c r="N53" s="244"/>
     </row>
     <row r="54" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="287"/>
-      <c r="B54" s="243" t="s">
+      <c r="A54" s="147"/>
+      <c r="B54" s="242" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="244"/>
-      <c r="D54" s="244"/>
-      <c r="E54" s="244"/>
+      <c r="C54" s="243"/>
+      <c r="D54" s="243"/>
+      <c r="E54" s="243"/>
       <c r="F54" s="73"/>
       <c r="G54" s="73"/>
       <c r="H54" s="72"/>
@@ -7687,87 +7546,87 @@
       <c r="N54" s="70"/>
     </row>
     <row r="55" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="287"/>
-      <c r="B55" s="308" t="s">
+      <c r="A55" s="147"/>
+      <c r="B55" s="170" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="231"/>
-      <c r="D55" s="137" t="s">
+      <c r="C55" s="171"/>
+      <c r="D55" s="201" t="s">
         <v>204</v>
       </c>
-      <c r="E55" s="137"/>
-      <c r="F55" s="137"/>
-      <c r="G55" s="137"/>
-      <c r="H55" s="137"/>
-      <c r="I55" s="137"/>
+      <c r="E55" s="201"/>
+      <c r="F55" s="201"/>
+      <c r="G55" s="201"/>
+      <c r="H55" s="201"/>
+      <c r="I55" s="201"/>
       <c r="J55" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="K55" s="237" t="s">
+      <c r="K55" s="236" t="s">
         <v>202</v>
       </c>
-      <c r="L55" s="237"/>
-      <c r="M55" s="237"/>
-      <c r="N55" s="238"/>
+      <c r="L55" s="236"/>
+      <c r="M55" s="236"/>
+      <c r="N55" s="237"/>
     </row>
     <row r="56" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="288"/>
-      <c r="B56" s="309" t="s">
+      <c r="A56" s="148"/>
+      <c r="B56" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="310"/>
-      <c r="D56" s="204"/>
-      <c r="E56" s="204"/>
-      <c r="F56" s="204"/>
-      <c r="G56" s="204"/>
-      <c r="H56" s="204"/>
-      <c r="I56" s="204"/>
+      <c r="C56" s="173"/>
+      <c r="D56" s="190"/>
+      <c r="E56" s="190"/>
+      <c r="F56" s="190"/>
+      <c r="G56" s="190"/>
+      <c r="H56" s="190"/>
+      <c r="I56" s="190"/>
       <c r="J56" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="K56" s="239"/>
-      <c r="L56" s="239"/>
-      <c r="M56" s="239"/>
-      <c r="N56" s="240"/>
+      <c r="K56" s="238"/>
+      <c r="L56" s="238"/>
+      <c r="M56" s="238"/>
+      <c r="N56" s="239"/>
     </row>
     <row r="57" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="286" t="s">
+      <c r="A57" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="302" t="s">
+      <c r="B57" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="303"/>
-      <c r="D57" s="303"/>
-      <c r="E57" s="303"/>
-      <c r="F57" s="303"/>
-      <c r="G57" s="303"/>
-      <c r="H57" s="303"/>
-      <c r="I57" s="303"/>
-      <c r="J57" s="303"/>
-      <c r="K57" s="303"/>
-      <c r="L57" s="303"/>
-      <c r="M57" s="303"/>
-      <c r="N57" s="304"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
+      <c r="E57" s="165"/>
+      <c r="F57" s="165"/>
+      <c r="G57" s="165"/>
+      <c r="H57" s="165"/>
+      <c r="I57" s="165"/>
+      <c r="J57" s="165"/>
+      <c r="K57" s="165"/>
+      <c r="L57" s="165"/>
+      <c r="M57" s="165"/>
+      <c r="N57" s="166"/>
     </row>
     <row r="58" spans="1:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="288"/>
-      <c r="B58" s="305"/>
-      <c r="C58" s="306"/>
-      <c r="D58" s="306"/>
-      <c r="E58" s="306"/>
-      <c r="F58" s="306"/>
-      <c r="G58" s="306"/>
-      <c r="H58" s="306"/>
-      <c r="I58" s="306"/>
-      <c r="J58" s="306"/>
-      <c r="K58" s="306"/>
-      <c r="L58" s="306"/>
-      <c r="M58" s="306"/>
-      <c r="N58" s="307"/>
+      <c r="A58" s="148"/>
+      <c r="B58" s="167"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
+      <c r="E58" s="168"/>
+      <c r="F58" s="168"/>
+      <c r="G58" s="168"/>
+      <c r="H58" s="168"/>
+      <c r="I58" s="168"/>
+      <c r="J58" s="168"/>
+      <c r="K58" s="168"/>
+      <c r="L58" s="168"/>
+      <c r="M58" s="168"/>
+      <c r="N58" s="169"/>
     </row>
     <row r="59" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="164" t="s">
+      <c r="A59" s="182" t="s">
         <v>49</v>
       </c>
       <c r="B59" s="75" t="s">
@@ -7787,45 +7646,45 @@
       <c r="N59" s="77"/>
     </row>
     <row r="60" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="166"/>
+      <c r="A60" s="235"/>
       <c r="B60" s="78"/>
-      <c r="C60" s="124" t="s">
+      <c r="C60" s="233" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="124"/>
-      <c r="E60" s="124"/>
-      <c r="F60" s="124"/>
-      <c r="G60" s="124"/>
-      <c r="H60" s="124"/>
-      <c r="I60" s="124"/>
-      <c r="J60" s="124"/>
-      <c r="K60" s="124"/>
-      <c r="L60" s="124"/>
-      <c r="M60" s="124"/>
-      <c r="N60" s="125"/>
+      <c r="D60" s="233"/>
+      <c r="E60" s="233"/>
+      <c r="F60" s="233"/>
+      <c r="G60" s="233"/>
+      <c r="H60" s="233"/>
+      <c r="I60" s="233"/>
+      <c r="J60" s="233"/>
+      <c r="K60" s="233"/>
+      <c r="L60" s="233"/>
+      <c r="M60" s="233"/>
+      <c r="N60" s="234"/>
     </row>
     <row r="61" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="190" t="s">
+      <c r="A61" s="280" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="189" t="s">
+      <c r="B61" s="272" t="s">
         <v>54</v>
       </c>
-      <c r="C61" s="193"/>
-      <c r="D61" s="193"/>
-      <c r="E61" s="193"/>
-      <c r="F61" s="193"/>
-      <c r="G61" s="193"/>
-      <c r="H61" s="193"/>
-      <c r="I61" s="193"/>
-      <c r="J61" s="193"/>
-      <c r="K61" s="193"/>
-      <c r="L61" s="193"/>
-      <c r="M61" s="193"/>
-      <c r="N61" s="194"/>
+      <c r="C61" s="273"/>
+      <c r="D61" s="273"/>
+      <c r="E61" s="273"/>
+      <c r="F61" s="273"/>
+      <c r="G61" s="273"/>
+      <c r="H61" s="273"/>
+      <c r="I61" s="273"/>
+      <c r="J61" s="273"/>
+      <c r="K61" s="273"/>
+      <c r="L61" s="273"/>
+      <c r="M61" s="273"/>
+      <c r="N61" s="274"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="191"/>
+      <c r="A62" s="281"/>
       <c r="B62" s="69" t="s">
         <v>11</v>
       </c>
@@ -7849,7 +7708,7 @@
       <c r="N62" s="79"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="191"/>
+      <c r="A63" s="281"/>
       <c r="B63" s="69"/>
       <c r="C63" s="69" t="s">
         <v>58</v>
@@ -7867,67 +7726,67 @@
       <c r="N63" s="79"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="191"/>
+      <c r="A64" s="281"/>
       <c r="B64" s="69"/>
       <c r="C64" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="D64" s="132" t="s">
+      <c r="D64" s="194" t="s">
         <v>79</v>
       </c>
-      <c r="E64" s="132"/>
-      <c r="F64" s="132"/>
-      <c r="G64" s="132"/>
-      <c r="H64" s="132"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="132"/>
-      <c r="K64" s="132"/>
-      <c r="L64" s="132"/>
-      <c r="M64" s="132"/>
-      <c r="N64" s="133"/>
+      <c r="E64" s="194"/>
+      <c r="F64" s="194"/>
+      <c r="G64" s="194"/>
+      <c r="H64" s="194"/>
+      <c r="I64" s="194"/>
+      <c r="J64" s="194"/>
+      <c r="K64" s="194"/>
+      <c r="L64" s="194"/>
+      <c r="M64" s="194"/>
+      <c r="N64" s="195"/>
     </row>
     <row r="65" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="192"/>
+      <c r="A65" s="300"/>
       <c r="B65" s="80"/>
       <c r="C65" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="D65" s="178" t="s">
+      <c r="D65" s="196" t="s">
         <v>79</v>
       </c>
-      <c r="E65" s="178"/>
-      <c r="F65" s="178"/>
-      <c r="G65" s="178"/>
-      <c r="H65" s="178"/>
-      <c r="I65" s="178"/>
-      <c r="J65" s="178"/>
-      <c r="K65" s="178"/>
-      <c r="L65" s="178"/>
-      <c r="M65" s="178"/>
-      <c r="N65" s="179"/>
+      <c r="E65" s="196"/>
+      <c r="F65" s="196"/>
+      <c r="G65" s="196"/>
+      <c r="H65" s="196"/>
+      <c r="I65" s="196"/>
+      <c r="J65" s="196"/>
+      <c r="K65" s="196"/>
+      <c r="L65" s="196"/>
+      <c r="M65" s="196"/>
+      <c r="N65" s="197"/>
     </row>
     <row r="66" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="190" t="s">
+      <c r="A66" s="280" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="189" t="s">
+      <c r="B66" s="272" t="s">
         <v>184</v>
       </c>
-      <c r="C66" s="193"/>
-      <c r="D66" s="193"/>
-      <c r="E66" s="193"/>
-      <c r="F66" s="193"/>
-      <c r="G66" s="193"/>
-      <c r="H66" s="193"/>
-      <c r="I66" s="193"/>
-      <c r="J66" s="193"/>
-      <c r="K66" s="193"/>
-      <c r="L66" s="193"/>
-      <c r="M66" s="193"/>
-      <c r="N66" s="194"/>
+      <c r="C66" s="273"/>
+      <c r="D66" s="273"/>
+      <c r="E66" s="273"/>
+      <c r="F66" s="273"/>
+      <c r="G66" s="273"/>
+      <c r="H66" s="273"/>
+      <c r="I66" s="273"/>
+      <c r="J66" s="273"/>
+      <c r="K66" s="273"/>
+      <c r="L66" s="273"/>
+      <c r="M66" s="273"/>
+      <c r="N66" s="274"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="191"/>
+      <c r="A67" s="281"/>
       <c r="B67" s="81" t="s">
         <v>11</v>
       </c>
@@ -7951,7 +7810,7 @@
       <c r="N67" s="79"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="191"/>
+      <c r="A68" s="281"/>
       <c r="B68" s="81"/>
       <c r="C68" s="69" t="s">
         <v>62</v>
@@ -7964,781 +7823,781 @@
       <c r="I68" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J68" s="132" t="s">
+      <c r="J68" s="194" t="s">
         <v>81</v>
       </c>
-      <c r="K68" s="132"/>
-      <c r="L68" s="132"/>
-      <c r="M68" s="132"/>
-      <c r="N68" s="133"/>
+      <c r="K68" s="194"/>
+      <c r="L68" s="194"/>
+      <c r="M68" s="194"/>
+      <c r="N68" s="195"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="191"/>
+      <c r="A69" s="281"/>
       <c r="B69" s="81"/>
       <c r="C69" s="69" t="s">
         <v>63</v>
       </c>
       <c r="D69" s="69"/>
-      <c r="E69" s="132" t="s">
+      <c r="E69" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="F69" s="132"/>
-      <c r="G69" s="132"/>
-      <c r="H69" s="132"/>
-      <c r="I69" s="132"/>
-      <c r="J69" s="132"/>
-      <c r="K69" s="132"/>
-      <c r="L69" s="132"/>
-      <c r="M69" s="132"/>
-      <c r="N69" s="133"/>
+      <c r="F69" s="194"/>
+      <c r="G69" s="194"/>
+      <c r="H69" s="194"/>
+      <c r="I69" s="194"/>
+      <c r="J69" s="194"/>
+      <c r="K69" s="194"/>
+      <c r="L69" s="194"/>
+      <c r="M69" s="194"/>
+      <c r="N69" s="195"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="191"/>
+      <c r="A70" s="281"/>
       <c r="B70" s="81"/>
       <c r="C70" s="69"/>
       <c r="D70" s="69"/>
-      <c r="E70" s="132" t="s">
+      <c r="E70" s="194" t="s">
         <v>65</v>
       </c>
-      <c r="F70" s="132"/>
-      <c r="G70" s="132"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="132"/>
-      <c r="J70" s="132"/>
-      <c r="K70" s="132"/>
-      <c r="L70" s="132"/>
-      <c r="M70" s="132"/>
-      <c r="N70" s="133"/>
+      <c r="F70" s="194"/>
+      <c r="G70" s="194"/>
+      <c r="H70" s="194"/>
+      <c r="I70" s="194"/>
+      <c r="J70" s="194"/>
+      <c r="K70" s="194"/>
+      <c r="L70" s="194"/>
+      <c r="M70" s="194"/>
+      <c r="N70" s="195"/>
     </row>
     <row r="71" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="191"/>
+      <c r="A71" s="281"/>
       <c r="B71" s="81"/>
       <c r="C71" s="69"/>
       <c r="D71" s="69"/>
-      <c r="E71" s="132" t="s">
+      <c r="E71" s="194" t="s">
         <v>66</v>
       </c>
-      <c r="F71" s="132"/>
-      <c r="G71" s="132"/>
-      <c r="H71" s="132"/>
-      <c r="I71" s="132"/>
-      <c r="J71" s="132"/>
-      <c r="K71" s="132"/>
-      <c r="L71" s="132"/>
-      <c r="M71" s="132"/>
-      <c r="N71" s="133"/>
+      <c r="F71" s="194"/>
+      <c r="G71" s="194"/>
+      <c r="H71" s="194"/>
+      <c r="I71" s="194"/>
+      <c r="J71" s="194"/>
+      <c r="K71" s="194"/>
+      <c r="L71" s="194"/>
+      <c r="M71" s="194"/>
+      <c r="N71" s="195"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="164" t="s">
+      <c r="A72" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="167" t="s">
+      <c r="B72" s="301" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="168"/>
-      <c r="D72" s="168"/>
-      <c r="E72" s="168"/>
-      <c r="F72" s="168"/>
-      <c r="G72" s="168"/>
-      <c r="H72" s="168"/>
-      <c r="I72" s="168"/>
-      <c r="J72" s="168"/>
-      <c r="K72" s="168"/>
-      <c r="L72" s="168"/>
-      <c r="M72" s="168"/>
-      <c r="N72" s="169"/>
+      <c r="C72" s="302"/>
+      <c r="D72" s="302"/>
+      <c r="E72" s="302"/>
+      <c r="F72" s="302"/>
+      <c r="G72" s="302"/>
+      <c r="H72" s="302"/>
+      <c r="I72" s="302"/>
+      <c r="J72" s="302"/>
+      <c r="K72" s="302"/>
+      <c r="L72" s="302"/>
+      <c r="M72" s="302"/>
+      <c r="N72" s="303"/>
     </row>
     <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="165"/>
-      <c r="B73" s="183"/>
-      <c r="C73" s="184"/>
-      <c r="D73" s="184"/>
-      <c r="E73" s="184"/>
-      <c r="F73" s="184"/>
-      <c r="G73" s="184"/>
-      <c r="H73" s="184"/>
-      <c r="I73" s="184"/>
-      <c r="J73" s="184"/>
-      <c r="K73" s="184"/>
-      <c r="L73" s="184"/>
-      <c r="M73" s="184"/>
-      <c r="N73" s="185"/>
+      <c r="A73" s="183"/>
+      <c r="B73" s="275"/>
+      <c r="C73" s="248"/>
+      <c r="D73" s="248"/>
+      <c r="E73" s="248"/>
+      <c r="F73" s="248"/>
+      <c r="G73" s="248"/>
+      <c r="H73" s="248"/>
+      <c r="I73" s="248"/>
+      <c r="J73" s="248"/>
+      <c r="K73" s="248"/>
+      <c r="L73" s="248"/>
+      <c r="M73" s="248"/>
+      <c r="N73" s="276"/>
     </row>
     <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="165"/>
-      <c r="B74" s="183"/>
-      <c r="C74" s="184"/>
-      <c r="D74" s="184"/>
-      <c r="E74" s="184"/>
-      <c r="F74" s="184"/>
-      <c r="G74" s="184"/>
-      <c r="H74" s="184"/>
-      <c r="I74" s="184"/>
-      <c r="J74" s="184"/>
-      <c r="K74" s="184"/>
-      <c r="L74" s="184"/>
-      <c r="M74" s="184"/>
-      <c r="N74" s="185"/>
+      <c r="A74" s="183"/>
+      <c r="B74" s="275"/>
+      <c r="C74" s="248"/>
+      <c r="D74" s="248"/>
+      <c r="E74" s="248"/>
+      <c r="F74" s="248"/>
+      <c r="G74" s="248"/>
+      <c r="H74" s="248"/>
+      <c r="I74" s="248"/>
+      <c r="J74" s="248"/>
+      <c r="K74" s="248"/>
+      <c r="L74" s="248"/>
+      <c r="M74" s="248"/>
+      <c r="N74" s="276"/>
     </row>
     <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="165"/>
-      <c r="B75" s="183"/>
-      <c r="C75" s="184"/>
-      <c r="D75" s="184"/>
-      <c r="E75" s="184"/>
-      <c r="F75" s="184"/>
-      <c r="G75" s="184"/>
-      <c r="H75" s="184"/>
-      <c r="I75" s="184"/>
-      <c r="J75" s="184"/>
-      <c r="K75" s="184"/>
-      <c r="L75" s="184"/>
-      <c r="M75" s="184"/>
-      <c r="N75" s="185"/>
+      <c r="A75" s="183"/>
+      <c r="B75" s="275"/>
+      <c r="C75" s="248"/>
+      <c r="D75" s="248"/>
+      <c r="E75" s="248"/>
+      <c r="F75" s="248"/>
+      <c r="G75" s="248"/>
+      <c r="H75" s="248"/>
+      <c r="I75" s="248"/>
+      <c r="J75" s="248"/>
+      <c r="K75" s="248"/>
+      <c r="L75" s="248"/>
+      <c r="M75" s="248"/>
+      <c r="N75" s="276"/>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="166"/>
-      <c r="B76" s="186"/>
-      <c r="C76" s="187"/>
-      <c r="D76" s="187"/>
-      <c r="E76" s="187"/>
-      <c r="F76" s="187"/>
-      <c r="G76" s="187"/>
-      <c r="H76" s="187"/>
-      <c r="I76" s="187"/>
-      <c r="J76" s="187"/>
-      <c r="K76" s="187"/>
-      <c r="L76" s="187"/>
-      <c r="M76" s="187"/>
-      <c r="N76" s="188"/>
+      <c r="A76" s="235"/>
+      <c r="B76" s="277"/>
+      <c r="C76" s="278"/>
+      <c r="D76" s="278"/>
+      <c r="E76" s="278"/>
+      <c r="F76" s="278"/>
+      <c r="G76" s="278"/>
+      <c r="H76" s="278"/>
+      <c r="I76" s="278"/>
+      <c r="J76" s="278"/>
+      <c r="K76" s="278"/>
+      <c r="L76" s="278"/>
+      <c r="M76" s="278"/>
+      <c r="N76" s="279"/>
     </row>
     <row r="77" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="164" t="s">
+      <c r="A77" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="B77" s="147" t="s">
+      <c r="B77" s="331" t="s">
         <v>70</v>
       </c>
-      <c r="C77" s="148"/>
-      <c r="D77" s="148"/>
-      <c r="E77" s="148"/>
-      <c r="F77" s="148"/>
-      <c r="G77" s="148"/>
-      <c r="H77" s="148"/>
-      <c r="I77" s="148"/>
-      <c r="J77" s="148"/>
-      <c r="K77" s="148"/>
-      <c r="L77" s="148"/>
-      <c r="M77" s="148"/>
-      <c r="N77" s="149"/>
+      <c r="C77" s="332"/>
+      <c r="D77" s="332"/>
+      <c r="E77" s="332"/>
+      <c r="F77" s="332"/>
+      <c r="G77" s="332"/>
+      <c r="H77" s="332"/>
+      <c r="I77" s="332"/>
+      <c r="J77" s="332"/>
+      <c r="K77" s="332"/>
+      <c r="L77" s="332"/>
+      <c r="M77" s="332"/>
+      <c r="N77" s="333"/>
     </row>
     <row r="78" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="165"/>
-      <c r="B78" s="183"/>
-      <c r="C78" s="184"/>
-      <c r="D78" s="184"/>
-      <c r="E78" s="184"/>
-      <c r="F78" s="184"/>
-      <c r="G78" s="184"/>
-      <c r="H78" s="184"/>
-      <c r="I78" s="184"/>
-      <c r="J78" s="184"/>
-      <c r="K78" s="184"/>
-      <c r="L78" s="184"/>
-      <c r="M78" s="184"/>
-      <c r="N78" s="185"/>
+      <c r="A78" s="183"/>
+      <c r="B78" s="275"/>
+      <c r="C78" s="248"/>
+      <c r="D78" s="248"/>
+      <c r="E78" s="248"/>
+      <c r="F78" s="248"/>
+      <c r="G78" s="248"/>
+      <c r="H78" s="248"/>
+      <c r="I78" s="248"/>
+      <c r="J78" s="248"/>
+      <c r="K78" s="248"/>
+      <c r="L78" s="248"/>
+      <c r="M78" s="248"/>
+      <c r="N78" s="276"/>
     </row>
     <row r="79" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="165"/>
-      <c r="B79" s="183"/>
-      <c r="C79" s="184"/>
-      <c r="D79" s="184"/>
-      <c r="E79" s="184"/>
-      <c r="F79" s="184"/>
-      <c r="G79" s="184"/>
-      <c r="H79" s="184"/>
-      <c r="I79" s="184"/>
-      <c r="J79" s="184"/>
-      <c r="K79" s="184"/>
-      <c r="L79" s="184"/>
-      <c r="M79" s="184"/>
-      <c r="N79" s="185"/>
+      <c r="A79" s="183"/>
+      <c r="B79" s="275"/>
+      <c r="C79" s="248"/>
+      <c r="D79" s="248"/>
+      <c r="E79" s="248"/>
+      <c r="F79" s="248"/>
+      <c r="G79" s="248"/>
+      <c r="H79" s="248"/>
+      <c r="I79" s="248"/>
+      <c r="J79" s="248"/>
+      <c r="K79" s="248"/>
+      <c r="L79" s="248"/>
+      <c r="M79" s="248"/>
+      <c r="N79" s="276"/>
     </row>
     <row r="80" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="165"/>
-      <c r="B80" s="183"/>
-      <c r="C80" s="184"/>
-      <c r="D80" s="184"/>
-      <c r="E80" s="184"/>
-      <c r="F80" s="184"/>
-      <c r="G80" s="184"/>
-      <c r="H80" s="184"/>
-      <c r="I80" s="184"/>
-      <c r="J80" s="184"/>
-      <c r="K80" s="184"/>
-      <c r="L80" s="184"/>
-      <c r="M80" s="184"/>
-      <c r="N80" s="185"/>
+      <c r="A80" s="183"/>
+      <c r="B80" s="275"/>
+      <c r="C80" s="248"/>
+      <c r="D80" s="248"/>
+      <c r="E80" s="248"/>
+      <c r="F80" s="248"/>
+      <c r="G80" s="248"/>
+      <c r="H80" s="248"/>
+      <c r="I80" s="248"/>
+      <c r="J80" s="248"/>
+      <c r="K80" s="248"/>
+      <c r="L80" s="248"/>
+      <c r="M80" s="248"/>
+      <c r="N80" s="276"/>
     </row>
     <row r="81" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="166"/>
-      <c r="B81" s="186"/>
-      <c r="C81" s="187"/>
-      <c r="D81" s="187"/>
-      <c r="E81" s="187"/>
-      <c r="F81" s="187"/>
-      <c r="G81" s="187"/>
-      <c r="H81" s="187"/>
-      <c r="I81" s="187"/>
-      <c r="J81" s="187"/>
-      <c r="K81" s="187"/>
-      <c r="L81" s="187"/>
-      <c r="M81" s="187"/>
-      <c r="N81" s="188"/>
+      <c r="A81" s="235"/>
+      <c r="B81" s="277"/>
+      <c r="C81" s="278"/>
+      <c r="D81" s="278"/>
+      <c r="E81" s="278"/>
+      <c r="F81" s="278"/>
+      <c r="G81" s="278"/>
+      <c r="H81" s="278"/>
+      <c r="I81" s="278"/>
+      <c r="J81" s="278"/>
+      <c r="K81" s="278"/>
+      <c r="L81" s="278"/>
+      <c r="M81" s="278"/>
+      <c r="N81" s="279"/>
     </row>
     <row r="82" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="164" t="s">
+      <c r="A82" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="189"/>
-      <c r="C82" s="181"/>
-      <c r="D82" s="181"/>
-      <c r="E82" s="181"/>
-      <c r="F82" s="181"/>
-      <c r="G82" s="181"/>
-      <c r="H82" s="181"/>
-      <c r="I82" s="181"/>
-      <c r="J82" s="181"/>
-      <c r="K82" s="181"/>
-      <c r="L82" s="181"/>
-      <c r="M82" s="181"/>
-      <c r="N82" s="182"/>
+      <c r="B82" s="272"/>
+      <c r="C82" s="296"/>
+      <c r="D82" s="296"/>
+      <c r="E82" s="296"/>
+      <c r="F82" s="296"/>
+      <c r="G82" s="296"/>
+      <c r="H82" s="296"/>
+      <c r="I82" s="296"/>
+      <c r="J82" s="296"/>
+      <c r="K82" s="296"/>
+      <c r="L82" s="296"/>
+      <c r="M82" s="296"/>
+      <c r="N82" s="297"/>
     </row>
     <row r="83" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="165"/>
-      <c r="B83" s="183"/>
-      <c r="C83" s="184"/>
-      <c r="D83" s="184"/>
-      <c r="E83" s="184"/>
-      <c r="F83" s="184"/>
-      <c r="G83" s="184"/>
-      <c r="H83" s="184"/>
-      <c r="I83" s="184"/>
-      <c r="J83" s="184"/>
-      <c r="K83" s="184"/>
-      <c r="L83" s="184"/>
-      <c r="M83" s="184"/>
-      <c r="N83" s="185"/>
+      <c r="A83" s="183"/>
+      <c r="B83" s="275"/>
+      <c r="C83" s="248"/>
+      <c r="D83" s="248"/>
+      <c r="E83" s="248"/>
+      <c r="F83" s="248"/>
+      <c r="G83" s="248"/>
+      <c r="H83" s="248"/>
+      <c r="I83" s="248"/>
+      <c r="J83" s="248"/>
+      <c r="K83" s="248"/>
+      <c r="L83" s="248"/>
+      <c r="M83" s="248"/>
+      <c r="N83" s="276"/>
     </row>
     <row r="84" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="165"/>
-      <c r="B84" s="183"/>
-      <c r="C84" s="184"/>
-      <c r="D84" s="184"/>
-      <c r="E84" s="184"/>
-      <c r="F84" s="184"/>
-      <c r="G84" s="184"/>
-      <c r="H84" s="184"/>
-      <c r="I84" s="184"/>
-      <c r="J84" s="184"/>
-      <c r="K84" s="184"/>
-      <c r="L84" s="184"/>
-      <c r="M84" s="184"/>
-      <c r="N84" s="185"/>
+      <c r="A84" s="183"/>
+      <c r="B84" s="275"/>
+      <c r="C84" s="248"/>
+      <c r="D84" s="248"/>
+      <c r="E84" s="248"/>
+      <c r="F84" s="248"/>
+      <c r="G84" s="248"/>
+      <c r="H84" s="248"/>
+      <c r="I84" s="248"/>
+      <c r="J84" s="248"/>
+      <c r="K84" s="248"/>
+      <c r="L84" s="248"/>
+      <c r="M84" s="248"/>
+      <c r="N84" s="276"/>
     </row>
     <row r="85" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="165"/>
-      <c r="B85" s="183"/>
-      <c r="C85" s="184"/>
-      <c r="D85" s="184"/>
-      <c r="E85" s="184"/>
-      <c r="F85" s="184"/>
-      <c r="G85" s="184"/>
-      <c r="H85" s="184"/>
-      <c r="I85" s="184"/>
-      <c r="J85" s="184"/>
-      <c r="K85" s="184"/>
-      <c r="L85" s="184"/>
-      <c r="M85" s="184"/>
-      <c r="N85" s="185"/>
+      <c r="A85" s="183"/>
+      <c r="B85" s="275"/>
+      <c r="C85" s="248"/>
+      <c r="D85" s="248"/>
+      <c r="E85" s="248"/>
+      <c r="F85" s="248"/>
+      <c r="G85" s="248"/>
+      <c r="H85" s="248"/>
+      <c r="I85" s="248"/>
+      <c r="J85" s="248"/>
+      <c r="K85" s="248"/>
+      <c r="L85" s="248"/>
+      <c r="M85" s="248"/>
+      <c r="N85" s="276"/>
     </row>
     <row r="86" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="166"/>
-      <c r="B86" s="186"/>
-      <c r="C86" s="187"/>
-      <c r="D86" s="187"/>
-      <c r="E86" s="187"/>
-      <c r="F86" s="187"/>
-      <c r="G86" s="187"/>
-      <c r="H86" s="187"/>
-      <c r="I86" s="187"/>
-      <c r="J86" s="187"/>
-      <c r="K86" s="187"/>
-      <c r="L86" s="187"/>
-      <c r="M86" s="187"/>
-      <c r="N86" s="188"/>
+      <c r="A86" s="235"/>
+      <c r="B86" s="277"/>
+      <c r="C86" s="278"/>
+      <c r="D86" s="278"/>
+      <c r="E86" s="278"/>
+      <c r="F86" s="278"/>
+      <c r="G86" s="278"/>
+      <c r="H86" s="278"/>
+      <c r="I86" s="278"/>
+      <c r="J86" s="278"/>
+      <c r="K86" s="278"/>
+      <c r="L86" s="278"/>
+      <c r="M86" s="278"/>
+      <c r="N86" s="279"/>
     </row>
     <row r="87" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="190" t="s">
+      <c r="A87" s="280" t="s">
         <v>72</v>
       </c>
-      <c r="B87" s="180" t="s">
+      <c r="B87" s="311" t="s">
         <v>199</v>
       </c>
-      <c r="C87" s="181"/>
-      <c r="D87" s="181"/>
-      <c r="E87" s="181"/>
-      <c r="F87" s="181"/>
-      <c r="G87" s="181"/>
-      <c r="H87" s="181"/>
-      <c r="I87" s="181"/>
-      <c r="J87" s="181"/>
-      <c r="K87" s="181"/>
-      <c r="L87" s="181"/>
-      <c r="M87" s="181"/>
-      <c r="N87" s="182"/>
+      <c r="C87" s="296"/>
+      <c r="D87" s="296"/>
+      <c r="E87" s="296"/>
+      <c r="F87" s="296"/>
+      <c r="G87" s="296"/>
+      <c r="H87" s="296"/>
+      <c r="I87" s="296"/>
+      <c r="J87" s="296"/>
+      <c r="K87" s="296"/>
+      <c r="L87" s="296"/>
+      <c r="M87" s="296"/>
+      <c r="N87" s="297"/>
     </row>
     <row r="88" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="191"/>
-      <c r="B88" s="183"/>
-      <c r="C88" s="184"/>
-      <c r="D88" s="184"/>
-      <c r="E88" s="184"/>
-      <c r="F88" s="184"/>
-      <c r="G88" s="184"/>
-      <c r="H88" s="184"/>
-      <c r="I88" s="184"/>
-      <c r="J88" s="184"/>
-      <c r="K88" s="184"/>
-      <c r="L88" s="184"/>
-      <c r="M88" s="184"/>
-      <c r="N88" s="185"/>
+      <c r="A88" s="281"/>
+      <c r="B88" s="275"/>
+      <c r="C88" s="248"/>
+      <c r="D88" s="248"/>
+      <c r="E88" s="248"/>
+      <c r="F88" s="248"/>
+      <c r="G88" s="248"/>
+      <c r="H88" s="248"/>
+      <c r="I88" s="248"/>
+      <c r="J88" s="248"/>
+      <c r="K88" s="248"/>
+      <c r="L88" s="248"/>
+      <c r="M88" s="248"/>
+      <c r="N88" s="276"/>
     </row>
     <row r="89" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="191"/>
-      <c r="B89" s="183"/>
-      <c r="C89" s="184"/>
-      <c r="D89" s="184"/>
-      <c r="E89" s="184"/>
-      <c r="F89" s="184"/>
-      <c r="G89" s="184"/>
-      <c r="H89" s="184"/>
-      <c r="I89" s="184"/>
-      <c r="J89" s="184"/>
-      <c r="K89" s="184"/>
-      <c r="L89" s="184"/>
-      <c r="M89" s="184"/>
-      <c r="N89" s="185"/>
+      <c r="A89" s="281"/>
+      <c r="B89" s="275"/>
+      <c r="C89" s="248"/>
+      <c r="D89" s="248"/>
+      <c r="E89" s="248"/>
+      <c r="F89" s="248"/>
+      <c r="G89" s="248"/>
+      <c r="H89" s="248"/>
+      <c r="I89" s="248"/>
+      <c r="J89" s="248"/>
+      <c r="K89" s="248"/>
+      <c r="L89" s="248"/>
+      <c r="M89" s="248"/>
+      <c r="N89" s="276"/>
     </row>
     <row r="90" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="191"/>
-      <c r="B90" s="183"/>
-      <c r="C90" s="184"/>
-      <c r="D90" s="184"/>
-      <c r="E90" s="184"/>
-      <c r="F90" s="184"/>
-      <c r="G90" s="184"/>
-      <c r="H90" s="184"/>
-      <c r="I90" s="184"/>
-      <c r="J90" s="184"/>
-      <c r="K90" s="184"/>
-      <c r="L90" s="184"/>
-      <c r="M90" s="184"/>
-      <c r="N90" s="185"/>
+      <c r="A90" s="281"/>
+      <c r="B90" s="275"/>
+      <c r="C90" s="248"/>
+      <c r="D90" s="248"/>
+      <c r="E90" s="248"/>
+      <c r="F90" s="248"/>
+      <c r="G90" s="248"/>
+      <c r="H90" s="248"/>
+      <c r="I90" s="248"/>
+      <c r="J90" s="248"/>
+      <c r="K90" s="248"/>
+      <c r="L90" s="248"/>
+      <c r="M90" s="248"/>
+      <c r="N90" s="276"/>
     </row>
     <row r="91" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="191"/>
-      <c r="B91" s="183"/>
-      <c r="C91" s="184"/>
-      <c r="D91" s="184"/>
-      <c r="E91" s="184"/>
-      <c r="F91" s="184"/>
-      <c r="G91" s="184"/>
-      <c r="H91" s="184"/>
-      <c r="I91" s="184"/>
-      <c r="J91" s="184"/>
-      <c r="K91" s="184"/>
-      <c r="L91" s="184"/>
-      <c r="M91" s="184"/>
-      <c r="N91" s="185"/>
+      <c r="A91" s="281"/>
+      <c r="B91" s="275"/>
+      <c r="C91" s="248"/>
+      <c r="D91" s="248"/>
+      <c r="E91" s="248"/>
+      <c r="F91" s="248"/>
+      <c r="G91" s="248"/>
+      <c r="H91" s="248"/>
+      <c r="I91" s="248"/>
+      <c r="J91" s="248"/>
+      <c r="K91" s="248"/>
+      <c r="L91" s="248"/>
+      <c r="M91" s="248"/>
+      <c r="N91" s="276"/>
     </row>
     <row r="92" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="191"/>
-      <c r="B92" s="183"/>
-      <c r="C92" s="184"/>
-      <c r="D92" s="184"/>
-      <c r="E92" s="184"/>
-      <c r="F92" s="184"/>
-      <c r="G92" s="184"/>
-      <c r="H92" s="184"/>
-      <c r="I92" s="184"/>
-      <c r="J92" s="184"/>
-      <c r="K92" s="184"/>
-      <c r="L92" s="184"/>
-      <c r="M92" s="184"/>
-      <c r="N92" s="185"/>
+      <c r="A92" s="281"/>
+      <c r="B92" s="275"/>
+      <c r="C92" s="248"/>
+      <c r="D92" s="248"/>
+      <c r="E92" s="248"/>
+      <c r="F92" s="248"/>
+      <c r="G92" s="248"/>
+      <c r="H92" s="248"/>
+      <c r="I92" s="248"/>
+      <c r="J92" s="248"/>
+      <c r="K92" s="248"/>
+      <c r="L92" s="248"/>
+      <c r="M92" s="248"/>
+      <c r="N92" s="276"/>
     </row>
     <row r="93" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="192"/>
-      <c r="B93" s="186"/>
-      <c r="C93" s="187"/>
-      <c r="D93" s="187"/>
-      <c r="E93" s="187"/>
-      <c r="F93" s="187"/>
-      <c r="G93" s="187"/>
-      <c r="H93" s="187"/>
-      <c r="I93" s="187"/>
-      <c r="J93" s="187"/>
-      <c r="K93" s="187"/>
-      <c r="L93" s="187"/>
-      <c r="M93" s="187"/>
-      <c r="N93" s="188"/>
+      <c r="A93" s="300"/>
+      <c r="B93" s="277"/>
+      <c r="C93" s="278"/>
+      <c r="D93" s="278"/>
+      <c r="E93" s="278"/>
+      <c r="F93" s="278"/>
+      <c r="G93" s="278"/>
+      <c r="H93" s="278"/>
+      <c r="I93" s="278"/>
+      <c r="J93" s="278"/>
+      <c r="K93" s="278"/>
+      <c r="L93" s="278"/>
+      <c r="M93" s="278"/>
+      <c r="N93" s="279"/>
     </row>
     <row r="94" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="164" t="s">
+      <c r="A94" s="182" t="s">
         <v>148</v>
       </c>
-      <c r="B94" s="180" t="s">
+      <c r="B94" s="311" t="s">
         <v>200</v>
       </c>
-      <c r="C94" s="181"/>
-      <c r="D94" s="181"/>
-      <c r="E94" s="181"/>
-      <c r="F94" s="181"/>
-      <c r="G94" s="181"/>
-      <c r="H94" s="181"/>
-      <c r="I94" s="181"/>
-      <c r="J94" s="181"/>
-      <c r="K94" s="181"/>
-      <c r="L94" s="181"/>
-      <c r="M94" s="181"/>
-      <c r="N94" s="182"/>
+      <c r="C94" s="296"/>
+      <c r="D94" s="296"/>
+      <c r="E94" s="296"/>
+      <c r="F94" s="296"/>
+      <c r="G94" s="296"/>
+      <c r="H94" s="296"/>
+      <c r="I94" s="296"/>
+      <c r="J94" s="296"/>
+      <c r="K94" s="296"/>
+      <c r="L94" s="296"/>
+      <c r="M94" s="296"/>
+      <c r="N94" s="297"/>
     </row>
     <row r="95" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="165"/>
-      <c r="B95" s="183"/>
-      <c r="C95" s="184"/>
-      <c r="D95" s="184"/>
-      <c r="E95" s="184"/>
-      <c r="F95" s="184"/>
-      <c r="G95" s="184"/>
-      <c r="H95" s="184"/>
-      <c r="I95" s="184"/>
-      <c r="J95" s="184"/>
-      <c r="K95" s="184"/>
-      <c r="L95" s="184"/>
-      <c r="M95" s="184"/>
-      <c r="N95" s="185"/>
+      <c r="A95" s="183"/>
+      <c r="B95" s="275"/>
+      <c r="C95" s="248"/>
+      <c r="D95" s="248"/>
+      <c r="E95" s="248"/>
+      <c r="F95" s="248"/>
+      <c r="G95" s="248"/>
+      <c r="H95" s="248"/>
+      <c r="I95" s="248"/>
+      <c r="J95" s="248"/>
+      <c r="K95" s="248"/>
+      <c r="L95" s="248"/>
+      <c r="M95" s="248"/>
+      <c r="N95" s="276"/>
     </row>
     <row r="96" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="165"/>
-      <c r="B96" s="183"/>
-      <c r="C96" s="184"/>
-      <c r="D96" s="184"/>
-      <c r="E96" s="184"/>
-      <c r="F96" s="184"/>
-      <c r="G96" s="184"/>
-      <c r="H96" s="184"/>
-      <c r="I96" s="184"/>
-      <c r="J96" s="184"/>
-      <c r="K96" s="184"/>
-      <c r="L96" s="184"/>
-      <c r="M96" s="184"/>
-      <c r="N96" s="185"/>
+      <c r="A96" s="183"/>
+      <c r="B96" s="275"/>
+      <c r="C96" s="248"/>
+      <c r="D96" s="248"/>
+      <c r="E96" s="248"/>
+      <c r="F96" s="248"/>
+      <c r="G96" s="248"/>
+      <c r="H96" s="248"/>
+      <c r="I96" s="248"/>
+      <c r="J96" s="248"/>
+      <c r="K96" s="248"/>
+      <c r="L96" s="248"/>
+      <c r="M96" s="248"/>
+      <c r="N96" s="276"/>
     </row>
     <row r="97" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="165"/>
-      <c r="B97" s="183"/>
-      <c r="C97" s="184"/>
-      <c r="D97" s="184"/>
-      <c r="E97" s="184"/>
-      <c r="F97" s="184"/>
-      <c r="G97" s="184"/>
-      <c r="H97" s="184"/>
-      <c r="I97" s="184"/>
-      <c r="J97" s="184"/>
-      <c r="K97" s="184"/>
-      <c r="L97" s="184"/>
-      <c r="M97" s="184"/>
-      <c r="N97" s="185"/>
+      <c r="A97" s="183"/>
+      <c r="B97" s="275"/>
+      <c r="C97" s="248"/>
+      <c r="D97" s="248"/>
+      <c r="E97" s="248"/>
+      <c r="F97" s="248"/>
+      <c r="G97" s="248"/>
+      <c r="H97" s="248"/>
+      <c r="I97" s="248"/>
+      <c r="J97" s="248"/>
+      <c r="K97" s="248"/>
+      <c r="L97" s="248"/>
+      <c r="M97" s="248"/>
+      <c r="N97" s="276"/>
     </row>
     <row r="98" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="165"/>
-      <c r="B98" s="183"/>
-      <c r="C98" s="184"/>
-      <c r="D98" s="184"/>
-      <c r="E98" s="184"/>
-      <c r="F98" s="184"/>
-      <c r="G98" s="184"/>
-      <c r="H98" s="184"/>
-      <c r="I98" s="184"/>
-      <c r="J98" s="184"/>
-      <c r="K98" s="184"/>
-      <c r="L98" s="184"/>
-      <c r="M98" s="184"/>
-      <c r="N98" s="185"/>
+      <c r="A98" s="183"/>
+      <c r="B98" s="275"/>
+      <c r="C98" s="248"/>
+      <c r="D98" s="248"/>
+      <c r="E98" s="248"/>
+      <c r="F98" s="248"/>
+      <c r="G98" s="248"/>
+      <c r="H98" s="248"/>
+      <c r="I98" s="248"/>
+      <c r="J98" s="248"/>
+      <c r="K98" s="248"/>
+      <c r="L98" s="248"/>
+      <c r="M98" s="248"/>
+      <c r="N98" s="276"/>
     </row>
     <row r="99" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="166"/>
-      <c r="B99" s="186"/>
-      <c r="C99" s="187"/>
-      <c r="D99" s="187"/>
-      <c r="E99" s="187"/>
-      <c r="F99" s="187"/>
-      <c r="G99" s="187"/>
-      <c r="H99" s="187"/>
-      <c r="I99" s="187"/>
-      <c r="J99" s="187"/>
-      <c r="K99" s="187"/>
-      <c r="L99" s="187"/>
-      <c r="M99" s="187"/>
-      <c r="N99" s="188"/>
+      <c r="A99" s="235"/>
+      <c r="B99" s="277"/>
+      <c r="C99" s="278"/>
+      <c r="D99" s="278"/>
+      <c r="E99" s="278"/>
+      <c r="F99" s="278"/>
+      <c r="G99" s="278"/>
+      <c r="H99" s="278"/>
+      <c r="I99" s="278"/>
+      <c r="J99" s="278"/>
+      <c r="K99" s="278"/>
+      <c r="L99" s="278"/>
+      <c r="M99" s="278"/>
+      <c r="N99" s="279"/>
     </row>
     <row r="100" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="164" t="s">
+      <c r="A100" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="B100" s="189"/>
-      <c r="C100" s="181"/>
-      <c r="D100" s="181"/>
-      <c r="E100" s="181"/>
-      <c r="F100" s="181"/>
-      <c r="G100" s="181"/>
-      <c r="H100" s="181"/>
-      <c r="I100" s="181"/>
-      <c r="J100" s="181"/>
-      <c r="K100" s="181"/>
-      <c r="L100" s="181"/>
-      <c r="M100" s="181"/>
-      <c r="N100" s="182"/>
+      <c r="B100" s="272"/>
+      <c r="C100" s="296"/>
+      <c r="D100" s="296"/>
+      <c r="E100" s="296"/>
+      <c r="F100" s="296"/>
+      <c r="G100" s="296"/>
+      <c r="H100" s="296"/>
+      <c r="I100" s="296"/>
+      <c r="J100" s="296"/>
+      <c r="K100" s="296"/>
+      <c r="L100" s="296"/>
+      <c r="M100" s="296"/>
+      <c r="N100" s="297"/>
     </row>
     <row r="101" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="165"/>
-      <c r="B101" s="183"/>
-      <c r="C101" s="184"/>
-      <c r="D101" s="184"/>
-      <c r="E101" s="184"/>
-      <c r="F101" s="184"/>
-      <c r="G101" s="184"/>
-      <c r="H101" s="184"/>
-      <c r="I101" s="184"/>
-      <c r="J101" s="184"/>
-      <c r="K101" s="184"/>
-      <c r="L101" s="184"/>
-      <c r="M101" s="184"/>
-      <c r="N101" s="185"/>
+      <c r="A101" s="183"/>
+      <c r="B101" s="275"/>
+      <c r="C101" s="248"/>
+      <c r="D101" s="248"/>
+      <c r="E101" s="248"/>
+      <c r="F101" s="248"/>
+      <c r="G101" s="248"/>
+      <c r="H101" s="248"/>
+      <c r="I101" s="248"/>
+      <c r="J101" s="248"/>
+      <c r="K101" s="248"/>
+      <c r="L101" s="248"/>
+      <c r="M101" s="248"/>
+      <c r="N101" s="276"/>
     </row>
     <row r="102" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="165"/>
-      <c r="B102" s="183"/>
-      <c r="C102" s="184"/>
-      <c r="D102" s="184"/>
-      <c r="E102" s="184"/>
-      <c r="F102" s="184"/>
-      <c r="G102" s="184"/>
-      <c r="H102" s="184"/>
-      <c r="I102" s="184"/>
-      <c r="J102" s="184"/>
-      <c r="K102" s="184"/>
-      <c r="L102" s="184"/>
-      <c r="M102" s="184"/>
-      <c r="N102" s="185"/>
+      <c r="A102" s="183"/>
+      <c r="B102" s="275"/>
+      <c r="C102" s="248"/>
+      <c r="D102" s="248"/>
+      <c r="E102" s="248"/>
+      <c r="F102" s="248"/>
+      <c r="G102" s="248"/>
+      <c r="H102" s="248"/>
+      <c r="I102" s="248"/>
+      <c r="J102" s="248"/>
+      <c r="K102" s="248"/>
+      <c r="L102" s="248"/>
+      <c r="M102" s="248"/>
+      <c r="N102" s="276"/>
     </row>
     <row r="103" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="165"/>
-      <c r="B103" s="183"/>
-      <c r="C103" s="184"/>
-      <c r="D103" s="184"/>
-      <c r="E103" s="184"/>
-      <c r="F103" s="184"/>
-      <c r="G103" s="184"/>
-      <c r="H103" s="184"/>
-      <c r="I103" s="184"/>
-      <c r="J103" s="184"/>
-      <c r="K103" s="184"/>
-      <c r="L103" s="184"/>
-      <c r="M103" s="184"/>
-      <c r="N103" s="185"/>
+      <c r="A103" s="183"/>
+      <c r="B103" s="275"/>
+      <c r="C103" s="248"/>
+      <c r="D103" s="248"/>
+      <c r="E103" s="248"/>
+      <c r="F103" s="248"/>
+      <c r="G103" s="248"/>
+      <c r="H103" s="248"/>
+      <c r="I103" s="248"/>
+      <c r="J103" s="248"/>
+      <c r="K103" s="248"/>
+      <c r="L103" s="248"/>
+      <c r="M103" s="248"/>
+      <c r="N103" s="276"/>
     </row>
     <row r="104" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="165"/>
-      <c r="B104" s="183"/>
-      <c r="C104" s="184"/>
-      <c r="D104" s="184"/>
-      <c r="E104" s="184"/>
-      <c r="F104" s="184"/>
-      <c r="G104" s="184"/>
-      <c r="H104" s="184"/>
-      <c r="I104" s="184"/>
-      <c r="J104" s="184"/>
-      <c r="K104" s="184"/>
-      <c r="L104" s="184"/>
-      <c r="M104" s="184"/>
-      <c r="N104" s="185"/>
+      <c r="A104" s="183"/>
+      <c r="B104" s="275"/>
+      <c r="C104" s="248"/>
+      <c r="D104" s="248"/>
+      <c r="E104" s="248"/>
+      <c r="F104" s="248"/>
+      <c r="G104" s="248"/>
+      <c r="H104" s="248"/>
+      <c r="I104" s="248"/>
+      <c r="J104" s="248"/>
+      <c r="K104" s="248"/>
+      <c r="L104" s="248"/>
+      <c r="M104" s="248"/>
+      <c r="N104" s="276"/>
     </row>
     <row r="105" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="165"/>
-      <c r="B105" s="183"/>
-      <c r="C105" s="184"/>
-      <c r="D105" s="184"/>
-      <c r="E105" s="184"/>
-      <c r="F105" s="184"/>
-      <c r="G105" s="184"/>
-      <c r="H105" s="184"/>
-      <c r="I105" s="184"/>
-      <c r="J105" s="184"/>
-      <c r="K105" s="184"/>
-      <c r="L105" s="184"/>
-      <c r="M105" s="184"/>
-      <c r="N105" s="185"/>
+      <c r="A105" s="183"/>
+      <c r="B105" s="275"/>
+      <c r="C105" s="248"/>
+      <c r="D105" s="248"/>
+      <c r="E105" s="248"/>
+      <c r="F105" s="248"/>
+      <c r="G105" s="248"/>
+      <c r="H105" s="248"/>
+      <c r="I105" s="248"/>
+      <c r="J105" s="248"/>
+      <c r="K105" s="248"/>
+      <c r="L105" s="248"/>
+      <c r="M105" s="248"/>
+      <c r="N105" s="276"/>
     </row>
     <row r="106" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="164" t="s">
+      <c r="A106" s="182" t="s">
         <v>74</v>
       </c>
-      <c r="B106" s="189"/>
-      <c r="C106" s="181"/>
-      <c r="D106" s="181"/>
-      <c r="E106" s="181"/>
-      <c r="F106" s="181"/>
-      <c r="G106" s="181"/>
-      <c r="H106" s="181"/>
-      <c r="I106" s="181"/>
-      <c r="J106" s="181"/>
-      <c r="K106" s="181"/>
-      <c r="L106" s="181"/>
-      <c r="M106" s="181"/>
-      <c r="N106" s="182"/>
+      <c r="B106" s="272"/>
+      <c r="C106" s="296"/>
+      <c r="D106" s="296"/>
+      <c r="E106" s="296"/>
+      <c r="F106" s="296"/>
+      <c r="G106" s="296"/>
+      <c r="H106" s="296"/>
+      <c r="I106" s="296"/>
+      <c r="J106" s="296"/>
+      <c r="K106" s="296"/>
+      <c r="L106" s="296"/>
+      <c r="M106" s="296"/>
+      <c r="N106" s="297"/>
     </row>
     <row r="107" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="165"/>
-      <c r="B107" s="183"/>
-      <c r="C107" s="184"/>
-      <c r="D107" s="184"/>
-      <c r="E107" s="184"/>
-      <c r="F107" s="184"/>
-      <c r="G107" s="184"/>
-      <c r="H107" s="184"/>
-      <c r="I107" s="184"/>
-      <c r="J107" s="184"/>
-      <c r="K107" s="184"/>
-      <c r="L107" s="184"/>
-      <c r="M107" s="184"/>
-      <c r="N107" s="185"/>
+      <c r="A107" s="183"/>
+      <c r="B107" s="275"/>
+      <c r="C107" s="248"/>
+      <c r="D107" s="248"/>
+      <c r="E107" s="248"/>
+      <c r="F107" s="248"/>
+      <c r="G107" s="248"/>
+      <c r="H107" s="248"/>
+      <c r="I107" s="248"/>
+      <c r="J107" s="248"/>
+      <c r="K107" s="248"/>
+      <c r="L107" s="248"/>
+      <c r="M107" s="248"/>
+      <c r="N107" s="276"/>
     </row>
     <row r="108" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="165"/>
-      <c r="B108" s="183"/>
-      <c r="C108" s="184"/>
-      <c r="D108" s="184"/>
-      <c r="E108" s="184"/>
-      <c r="F108" s="184"/>
-      <c r="G108" s="184"/>
-      <c r="H108" s="184"/>
-      <c r="I108" s="184"/>
-      <c r="J108" s="184"/>
-      <c r="K108" s="184"/>
-      <c r="L108" s="184"/>
-      <c r="M108" s="184"/>
-      <c r="N108" s="185"/>
+      <c r="A108" s="183"/>
+      <c r="B108" s="275"/>
+      <c r="C108" s="248"/>
+      <c r="D108" s="248"/>
+      <c r="E108" s="248"/>
+      <c r="F108" s="248"/>
+      <c r="G108" s="248"/>
+      <c r="H108" s="248"/>
+      <c r="I108" s="248"/>
+      <c r="J108" s="248"/>
+      <c r="K108" s="248"/>
+      <c r="L108" s="248"/>
+      <c r="M108" s="248"/>
+      <c r="N108" s="276"/>
     </row>
     <row r="109" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="165"/>
-      <c r="B109" s="183"/>
-      <c r="C109" s="184"/>
-      <c r="D109" s="184"/>
-      <c r="E109" s="184"/>
-      <c r="F109" s="184"/>
-      <c r="G109" s="184"/>
-      <c r="H109" s="184"/>
-      <c r="I109" s="184"/>
-      <c r="J109" s="184"/>
-      <c r="K109" s="184"/>
-      <c r="L109" s="184"/>
-      <c r="M109" s="184"/>
-      <c r="N109" s="185"/>
+      <c r="A109" s="183"/>
+      <c r="B109" s="275"/>
+      <c r="C109" s="248"/>
+      <c r="D109" s="248"/>
+      <c r="E109" s="248"/>
+      <c r="F109" s="248"/>
+      <c r="G109" s="248"/>
+      <c r="H109" s="248"/>
+      <c r="I109" s="248"/>
+      <c r="J109" s="248"/>
+      <c r="K109" s="248"/>
+      <c r="L109" s="248"/>
+      <c r="M109" s="248"/>
+      <c r="N109" s="276"/>
     </row>
     <row r="110" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="166"/>
-      <c r="B110" s="186"/>
-      <c r="C110" s="187"/>
-      <c r="D110" s="187"/>
-      <c r="E110" s="187"/>
-      <c r="F110" s="187"/>
-      <c r="G110" s="187"/>
-      <c r="H110" s="187"/>
-      <c r="I110" s="187"/>
-      <c r="J110" s="187"/>
-      <c r="K110" s="187"/>
-      <c r="L110" s="187"/>
-      <c r="M110" s="187"/>
-      <c r="N110" s="188"/>
+      <c r="A110" s="235"/>
+      <c r="B110" s="277"/>
+      <c r="C110" s="278"/>
+      <c r="D110" s="278"/>
+      <c r="E110" s="278"/>
+      <c r="F110" s="278"/>
+      <c r="G110" s="278"/>
+      <c r="H110" s="278"/>
+      <c r="I110" s="278"/>
+      <c r="J110" s="278"/>
+      <c r="K110" s="278"/>
+      <c r="L110" s="278"/>
+      <c r="M110" s="278"/>
+      <c r="N110" s="279"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="190" t="s">
+      <c r="A111" s="280" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="181"/>
-      <c r="C111" s="181"/>
-      <c r="D111" s="181"/>
-      <c r="E111" s="181"/>
-      <c r="F111" s="181"/>
-      <c r="G111" s="181"/>
-      <c r="H111" s="181"/>
-      <c r="I111" s="181"/>
-      <c r="J111" s="181"/>
-      <c r="K111" s="181"/>
-      <c r="L111" s="181"/>
-      <c r="M111" s="181"/>
-      <c r="N111" s="182"/>
+      <c r="B111" s="296"/>
+      <c r="C111" s="296"/>
+      <c r="D111" s="296"/>
+      <c r="E111" s="296"/>
+      <c r="F111" s="296"/>
+      <c r="G111" s="296"/>
+      <c r="H111" s="296"/>
+      <c r="I111" s="296"/>
+      <c r="J111" s="296"/>
+      <c r="K111" s="296"/>
+      <c r="L111" s="296"/>
+      <c r="M111" s="296"/>
+      <c r="N111" s="297"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" s="191"/>
-      <c r="B112" s="184"/>
-      <c r="C112" s="184"/>
-      <c r="D112" s="184"/>
-      <c r="E112" s="184"/>
-      <c r="F112" s="184"/>
-      <c r="G112" s="184"/>
-      <c r="H112" s="184"/>
-      <c r="I112" s="184"/>
-      <c r="J112" s="184"/>
-      <c r="K112" s="184"/>
-      <c r="L112" s="184"/>
-      <c r="M112" s="184"/>
-      <c r="N112" s="185"/>
+      <c r="A112" s="281"/>
+      <c r="B112" s="248"/>
+      <c r="C112" s="248"/>
+      <c r="D112" s="248"/>
+      <c r="E112" s="248"/>
+      <c r="F112" s="248"/>
+      <c r="G112" s="248"/>
+      <c r="H112" s="248"/>
+      <c r="I112" s="248"/>
+      <c r="J112" s="248"/>
+      <c r="K112" s="248"/>
+      <c r="L112" s="248"/>
+      <c r="M112" s="248"/>
+      <c r="N112" s="276"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" s="191"/>
-      <c r="B113" s="184"/>
-      <c r="C113" s="184"/>
-      <c r="D113" s="184"/>
-      <c r="E113" s="184"/>
-      <c r="F113" s="184"/>
-      <c r="G113" s="184"/>
-      <c r="H113" s="184"/>
-      <c r="I113" s="184"/>
-      <c r="J113" s="184"/>
-      <c r="K113" s="184"/>
-      <c r="L113" s="184"/>
-      <c r="M113" s="184"/>
-      <c r="N113" s="185"/>
+      <c r="A113" s="281"/>
+      <c r="B113" s="248"/>
+      <c r="C113" s="248"/>
+      <c r="D113" s="248"/>
+      <c r="E113" s="248"/>
+      <c r="F113" s="248"/>
+      <c r="G113" s="248"/>
+      <c r="H113" s="248"/>
+      <c r="I113" s="248"/>
+      <c r="J113" s="248"/>
+      <c r="K113" s="248"/>
+      <c r="L113" s="248"/>
+      <c r="M113" s="248"/>
+      <c r="N113" s="276"/>
     </row>
     <row r="114" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="217"/>
-      <c r="B114" s="218"/>
-      <c r="C114" s="218"/>
-      <c r="D114" s="218"/>
-      <c r="E114" s="218"/>
-      <c r="F114" s="218"/>
-      <c r="G114" s="218"/>
-      <c r="H114" s="218"/>
-      <c r="I114" s="218"/>
-      <c r="J114" s="218"/>
-      <c r="K114" s="218"/>
-      <c r="L114" s="218"/>
-      <c r="M114" s="218"/>
-      <c r="N114" s="219"/>
+      <c r="A114" s="295"/>
+      <c r="B114" s="298"/>
+      <c r="C114" s="298"/>
+      <c r="D114" s="298"/>
+      <c r="E114" s="298"/>
+      <c r="F114" s="298"/>
+      <c r="G114" s="298"/>
+      <c r="H114" s="298"/>
+      <c r="I114" s="298"/>
+      <c r="J114" s="298"/>
+      <c r="K114" s="298"/>
+      <c r="L114" s="298"/>
+      <c r="M114" s="298"/>
+      <c r="N114" s="299"/>
     </row>
     <row r="115" spans="1:14" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
@@ -8757,385 +8616,385 @@
       <c r="N115" s="6"/>
     </row>
     <row r="116" spans="1:14" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="232" t="s">
+      <c r="A116" s="265" t="s">
         <v>85</v>
       </c>
-      <c r="B116" s="208" t="s">
+      <c r="B116" s="286" t="s">
         <v>174</v>
       </c>
-      <c r="C116" s="209"/>
-      <c r="D116" s="209"/>
-      <c r="E116" s="209"/>
-      <c r="F116" s="209"/>
-      <c r="G116" s="209"/>
-      <c r="H116" s="209"/>
-      <c r="I116" s="209"/>
-      <c r="J116" s="209"/>
-      <c r="K116" s="209"/>
-      <c r="L116" s="209"/>
-      <c r="M116" s="209"/>
-      <c r="N116" s="210"/>
+      <c r="C116" s="287"/>
+      <c r="D116" s="287"/>
+      <c r="E116" s="287"/>
+      <c r="F116" s="287"/>
+      <c r="G116" s="287"/>
+      <c r="H116" s="287"/>
+      <c r="I116" s="287"/>
+      <c r="J116" s="287"/>
+      <c r="K116" s="287"/>
+      <c r="L116" s="287"/>
+      <c r="M116" s="287"/>
+      <c r="N116" s="288"/>
     </row>
     <row r="117" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="165"/>
-      <c r="B117" s="211"/>
-      <c r="C117" s="212"/>
-      <c r="D117" s="212"/>
-      <c r="E117" s="212"/>
-      <c r="F117" s="212"/>
-      <c r="G117" s="212"/>
-      <c r="H117" s="212"/>
-      <c r="I117" s="212"/>
-      <c r="J117" s="212"/>
-      <c r="K117" s="212"/>
-      <c r="L117" s="212"/>
-      <c r="M117" s="212"/>
-      <c r="N117" s="213"/>
+      <c r="A117" s="183"/>
+      <c r="B117" s="289"/>
+      <c r="C117" s="290"/>
+      <c r="D117" s="290"/>
+      <c r="E117" s="290"/>
+      <c r="F117" s="290"/>
+      <c r="G117" s="290"/>
+      <c r="H117" s="290"/>
+      <c r="I117" s="290"/>
+      <c r="J117" s="290"/>
+      <c r="K117" s="290"/>
+      <c r="L117" s="290"/>
+      <c r="M117" s="290"/>
+      <c r="N117" s="291"/>
     </row>
     <row r="118" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="165"/>
-      <c r="B118" s="211"/>
-      <c r="C118" s="212"/>
-      <c r="D118" s="212"/>
-      <c r="E118" s="212"/>
-      <c r="F118" s="212"/>
-      <c r="G118" s="212"/>
-      <c r="H118" s="212"/>
-      <c r="I118" s="212"/>
-      <c r="J118" s="212"/>
-      <c r="K118" s="212"/>
-      <c r="L118" s="212"/>
-      <c r="M118" s="212"/>
-      <c r="N118" s="213"/>
+      <c r="A118" s="183"/>
+      <c r="B118" s="289"/>
+      <c r="C118" s="290"/>
+      <c r="D118" s="290"/>
+      <c r="E118" s="290"/>
+      <c r="F118" s="290"/>
+      <c r="G118" s="290"/>
+      <c r="H118" s="290"/>
+      <c r="I118" s="290"/>
+      <c r="J118" s="290"/>
+      <c r="K118" s="290"/>
+      <c r="L118" s="290"/>
+      <c r="M118" s="290"/>
+      <c r="N118" s="291"/>
     </row>
     <row r="119" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="165"/>
-      <c r="B119" s="211"/>
-      <c r="C119" s="212"/>
-      <c r="D119" s="212"/>
-      <c r="E119" s="212"/>
-      <c r="F119" s="212"/>
-      <c r="G119" s="212"/>
-      <c r="H119" s="212"/>
-      <c r="I119" s="212"/>
-      <c r="J119" s="212"/>
-      <c r="K119" s="212"/>
-      <c r="L119" s="212"/>
-      <c r="M119" s="212"/>
-      <c r="N119" s="213"/>
+      <c r="A119" s="183"/>
+      <c r="B119" s="289"/>
+      <c r="C119" s="290"/>
+      <c r="D119" s="290"/>
+      <c r="E119" s="290"/>
+      <c r="F119" s="290"/>
+      <c r="G119" s="290"/>
+      <c r="H119" s="290"/>
+      <c r="I119" s="290"/>
+      <c r="J119" s="290"/>
+      <c r="K119" s="290"/>
+      <c r="L119" s="290"/>
+      <c r="M119" s="290"/>
+      <c r="N119" s="291"/>
     </row>
     <row r="120" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="165"/>
-      <c r="B120" s="211"/>
-      <c r="C120" s="212"/>
-      <c r="D120" s="212"/>
-      <c r="E120" s="212"/>
-      <c r="F120" s="212"/>
-      <c r="G120" s="212"/>
-      <c r="H120" s="212"/>
-      <c r="I120" s="212"/>
-      <c r="J120" s="212"/>
-      <c r="K120" s="212"/>
-      <c r="L120" s="212"/>
-      <c r="M120" s="212"/>
-      <c r="N120" s="213"/>
+      <c r="A120" s="183"/>
+      <c r="B120" s="289"/>
+      <c r="C120" s="290"/>
+      <c r="D120" s="290"/>
+      <c r="E120" s="290"/>
+      <c r="F120" s="290"/>
+      <c r="G120" s="290"/>
+      <c r="H120" s="290"/>
+      <c r="I120" s="290"/>
+      <c r="J120" s="290"/>
+      <c r="K120" s="290"/>
+      <c r="L120" s="290"/>
+      <c r="M120" s="290"/>
+      <c r="N120" s="291"/>
     </row>
     <row r="121" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="165"/>
-      <c r="B121" s="211"/>
-      <c r="C121" s="212"/>
-      <c r="D121" s="212"/>
-      <c r="E121" s="212"/>
-      <c r="F121" s="212"/>
-      <c r="G121" s="212"/>
-      <c r="H121" s="212"/>
-      <c r="I121" s="212"/>
-      <c r="J121" s="212"/>
-      <c r="K121" s="212"/>
-      <c r="L121" s="212"/>
-      <c r="M121" s="212"/>
-      <c r="N121" s="213"/>
+      <c r="A121" s="183"/>
+      <c r="B121" s="289"/>
+      <c r="C121" s="290"/>
+      <c r="D121" s="290"/>
+      <c r="E121" s="290"/>
+      <c r="F121" s="290"/>
+      <c r="G121" s="290"/>
+      <c r="H121" s="290"/>
+      <c r="I121" s="290"/>
+      <c r="J121" s="290"/>
+      <c r="K121" s="290"/>
+      <c r="L121" s="290"/>
+      <c r="M121" s="290"/>
+      <c r="N121" s="291"/>
     </row>
     <row r="122" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="165"/>
-      <c r="B122" s="211"/>
-      <c r="C122" s="212"/>
-      <c r="D122" s="212"/>
-      <c r="E122" s="212"/>
-      <c r="F122" s="212"/>
-      <c r="G122" s="212"/>
-      <c r="H122" s="212"/>
-      <c r="I122" s="212"/>
-      <c r="J122" s="212"/>
-      <c r="K122" s="212"/>
-      <c r="L122" s="212"/>
-      <c r="M122" s="212"/>
-      <c r="N122" s="213"/>
+      <c r="A122" s="183"/>
+      <c r="B122" s="289"/>
+      <c r="C122" s="290"/>
+      <c r="D122" s="290"/>
+      <c r="E122" s="290"/>
+      <c r="F122" s="290"/>
+      <c r="G122" s="290"/>
+      <c r="H122" s="290"/>
+      <c r="I122" s="290"/>
+      <c r="J122" s="290"/>
+      <c r="K122" s="290"/>
+      <c r="L122" s="290"/>
+      <c r="M122" s="290"/>
+      <c r="N122" s="291"/>
     </row>
     <row r="123" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="165"/>
-      <c r="B123" s="211"/>
-      <c r="C123" s="212"/>
-      <c r="D123" s="212"/>
-      <c r="E123" s="212"/>
-      <c r="F123" s="212"/>
-      <c r="G123" s="212"/>
-      <c r="H123" s="212"/>
-      <c r="I123" s="212"/>
-      <c r="J123" s="212"/>
-      <c r="K123" s="212"/>
-      <c r="L123" s="212"/>
-      <c r="M123" s="212"/>
-      <c r="N123" s="213"/>
+      <c r="A123" s="183"/>
+      <c r="B123" s="289"/>
+      <c r="C123" s="290"/>
+      <c r="D123" s="290"/>
+      <c r="E123" s="290"/>
+      <c r="F123" s="290"/>
+      <c r="G123" s="290"/>
+      <c r="H123" s="290"/>
+      <c r="I123" s="290"/>
+      <c r="J123" s="290"/>
+      <c r="K123" s="290"/>
+      <c r="L123" s="290"/>
+      <c r="M123" s="290"/>
+      <c r="N123" s="291"/>
     </row>
     <row r="124" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="165"/>
-      <c r="B124" s="211"/>
-      <c r="C124" s="212"/>
-      <c r="D124" s="212"/>
-      <c r="E124" s="212"/>
-      <c r="F124" s="212"/>
-      <c r="G124" s="212"/>
-      <c r="H124" s="212"/>
-      <c r="I124" s="212"/>
-      <c r="J124" s="212"/>
-      <c r="K124" s="212"/>
-      <c r="L124" s="212"/>
-      <c r="M124" s="212"/>
-      <c r="N124" s="213"/>
+      <c r="A124" s="183"/>
+      <c r="B124" s="289"/>
+      <c r="C124" s="290"/>
+      <c r="D124" s="290"/>
+      <c r="E124" s="290"/>
+      <c r="F124" s="290"/>
+      <c r="G124" s="290"/>
+      <c r="H124" s="290"/>
+      <c r="I124" s="290"/>
+      <c r="J124" s="290"/>
+      <c r="K124" s="290"/>
+      <c r="L124" s="290"/>
+      <c r="M124" s="290"/>
+      <c r="N124" s="291"/>
     </row>
     <row r="125" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="165"/>
-      <c r="B125" s="211"/>
-      <c r="C125" s="212"/>
-      <c r="D125" s="212"/>
-      <c r="E125" s="212"/>
-      <c r="F125" s="212"/>
-      <c r="G125" s="212"/>
-      <c r="H125" s="212"/>
-      <c r="I125" s="212"/>
-      <c r="J125" s="212"/>
-      <c r="K125" s="212"/>
-      <c r="L125" s="212"/>
-      <c r="M125" s="212"/>
-      <c r="N125" s="213"/>
+      <c r="A125" s="183"/>
+      <c r="B125" s="289"/>
+      <c r="C125" s="290"/>
+      <c r="D125" s="290"/>
+      <c r="E125" s="290"/>
+      <c r="F125" s="290"/>
+      <c r="G125" s="290"/>
+      <c r="H125" s="290"/>
+      <c r="I125" s="290"/>
+      <c r="J125" s="290"/>
+      <c r="K125" s="290"/>
+      <c r="L125" s="290"/>
+      <c r="M125" s="290"/>
+      <c r="N125" s="291"/>
     </row>
     <row r="126" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="165"/>
-      <c r="B126" s="211"/>
-      <c r="C126" s="212"/>
-      <c r="D126" s="212"/>
-      <c r="E126" s="212"/>
-      <c r="F126" s="212"/>
-      <c r="G126" s="212"/>
-      <c r="H126" s="212"/>
-      <c r="I126" s="212"/>
-      <c r="J126" s="212"/>
-      <c r="K126" s="212"/>
-      <c r="L126" s="212"/>
-      <c r="M126" s="212"/>
-      <c r="N126" s="213"/>
+      <c r="A126" s="183"/>
+      <c r="B126" s="289"/>
+      <c r="C126" s="290"/>
+      <c r="D126" s="290"/>
+      <c r="E126" s="290"/>
+      <c r="F126" s="290"/>
+      <c r="G126" s="290"/>
+      <c r="H126" s="290"/>
+      <c r="I126" s="290"/>
+      <c r="J126" s="290"/>
+      <c r="K126" s="290"/>
+      <c r="L126" s="290"/>
+      <c r="M126" s="290"/>
+      <c r="N126" s="291"/>
     </row>
     <row r="127" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="165"/>
-      <c r="B127" s="211"/>
-      <c r="C127" s="212"/>
-      <c r="D127" s="212"/>
-      <c r="E127" s="212"/>
-      <c r="F127" s="212"/>
-      <c r="G127" s="212"/>
-      <c r="H127" s="212"/>
-      <c r="I127" s="212"/>
-      <c r="J127" s="212"/>
-      <c r="K127" s="212"/>
-      <c r="L127" s="212"/>
-      <c r="M127" s="212"/>
-      <c r="N127" s="213"/>
+      <c r="A127" s="183"/>
+      <c r="B127" s="289"/>
+      <c r="C127" s="290"/>
+      <c r="D127" s="290"/>
+      <c r="E127" s="290"/>
+      <c r="F127" s="290"/>
+      <c r="G127" s="290"/>
+      <c r="H127" s="290"/>
+      <c r="I127" s="290"/>
+      <c r="J127" s="290"/>
+      <c r="K127" s="290"/>
+      <c r="L127" s="290"/>
+      <c r="M127" s="290"/>
+      <c r="N127" s="291"/>
     </row>
     <row r="128" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="165"/>
-      <c r="B128" s="211"/>
-      <c r="C128" s="212"/>
-      <c r="D128" s="212"/>
-      <c r="E128" s="212"/>
-      <c r="F128" s="212"/>
-      <c r="G128" s="212"/>
-      <c r="H128" s="212"/>
-      <c r="I128" s="212"/>
-      <c r="J128" s="212"/>
-      <c r="K128" s="212"/>
-      <c r="L128" s="212"/>
-      <c r="M128" s="212"/>
-      <c r="N128" s="213"/>
+      <c r="A128" s="183"/>
+      <c r="B128" s="289"/>
+      <c r="C128" s="290"/>
+      <c r="D128" s="290"/>
+      <c r="E128" s="290"/>
+      <c r="F128" s="290"/>
+      <c r="G128" s="290"/>
+      <c r="H128" s="290"/>
+      <c r="I128" s="290"/>
+      <c r="J128" s="290"/>
+      <c r="K128" s="290"/>
+      <c r="L128" s="290"/>
+      <c r="M128" s="290"/>
+      <c r="N128" s="291"/>
     </row>
     <row r="129" spans="1:14" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="165"/>
-      <c r="B129" s="214"/>
-      <c r="C129" s="215"/>
-      <c r="D129" s="215"/>
-      <c r="E129" s="215"/>
-      <c r="F129" s="215"/>
-      <c r="G129" s="215"/>
-      <c r="H129" s="215"/>
-      <c r="I129" s="215"/>
-      <c r="J129" s="215"/>
-      <c r="K129" s="215"/>
-      <c r="L129" s="215"/>
-      <c r="M129" s="215"/>
-      <c r="N129" s="216"/>
+      <c r="A129" s="183"/>
+      <c r="B129" s="292"/>
+      <c r="C129" s="293"/>
+      <c r="D129" s="293"/>
+      <c r="E129" s="293"/>
+      <c r="F129" s="293"/>
+      <c r="G129" s="293"/>
+      <c r="H129" s="293"/>
+      <c r="I129" s="293"/>
+      <c r="J129" s="293"/>
+      <c r="K129" s="293"/>
+      <c r="L129" s="293"/>
+      <c r="M129" s="293"/>
+      <c r="N129" s="294"/>
     </row>
     <row r="130" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="164" t="s">
+      <c r="A130" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="B130" s="153" t="s">
+      <c r="B130" s="337" t="s">
         <v>177</v>
       </c>
-      <c r="C130" s="154"/>
-      <c r="D130" s="154"/>
-      <c r="E130" s="154"/>
-      <c r="F130" s="154"/>
-      <c r="G130" s="154"/>
-      <c r="H130" s="154"/>
-      <c r="I130" s="154"/>
-      <c r="J130" s="154"/>
-      <c r="K130" s="154"/>
-      <c r="L130" s="154"/>
-      <c r="M130" s="154"/>
-      <c r="N130" s="155"/>
+      <c r="C130" s="338"/>
+      <c r="D130" s="338"/>
+      <c r="E130" s="338"/>
+      <c r="F130" s="338"/>
+      <c r="G130" s="338"/>
+      <c r="H130" s="338"/>
+      <c r="I130" s="338"/>
+      <c r="J130" s="338"/>
+      <c r="K130" s="338"/>
+      <c r="L130" s="338"/>
+      <c r="M130" s="338"/>
+      <c r="N130" s="339"/>
     </row>
     <row r="131" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="165"/>
-      <c r="B131" s="156"/>
-      <c r="C131" s="157"/>
-      <c r="D131" s="157"/>
-      <c r="E131" s="157"/>
-      <c r="F131" s="157"/>
-      <c r="G131" s="157"/>
-      <c r="H131" s="157"/>
-      <c r="I131" s="157"/>
-      <c r="J131" s="157"/>
-      <c r="K131" s="157"/>
-      <c r="L131" s="157"/>
-      <c r="M131" s="157"/>
-      <c r="N131" s="158"/>
+      <c r="A131" s="183"/>
+      <c r="B131" s="340"/>
+      <c r="C131" s="341"/>
+      <c r="D131" s="341"/>
+      <c r="E131" s="341"/>
+      <c r="F131" s="341"/>
+      <c r="G131" s="341"/>
+      <c r="H131" s="341"/>
+      <c r="I131" s="341"/>
+      <c r="J131" s="341"/>
+      <c r="K131" s="341"/>
+      <c r="L131" s="341"/>
+      <c r="M131" s="341"/>
+      <c r="N131" s="342"/>
     </row>
     <row r="132" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="165"/>
-      <c r="B132" s="156"/>
-      <c r="C132" s="157"/>
-      <c r="D132" s="157"/>
-      <c r="E132" s="157"/>
-      <c r="F132" s="157"/>
-      <c r="G132" s="157"/>
-      <c r="H132" s="157"/>
-      <c r="I132" s="157"/>
-      <c r="J132" s="157"/>
-      <c r="K132" s="157"/>
-      <c r="L132" s="157"/>
-      <c r="M132" s="157"/>
-      <c r="N132" s="158"/>
+      <c r="A132" s="183"/>
+      <c r="B132" s="340"/>
+      <c r="C132" s="341"/>
+      <c r="D132" s="341"/>
+      <c r="E132" s="341"/>
+      <c r="F132" s="341"/>
+      <c r="G132" s="341"/>
+      <c r="H132" s="341"/>
+      <c r="I132" s="341"/>
+      <c r="J132" s="341"/>
+      <c r="K132" s="341"/>
+      <c r="L132" s="341"/>
+      <c r="M132" s="341"/>
+      <c r="N132" s="342"/>
     </row>
     <row r="133" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="165"/>
-      <c r="B133" s="156"/>
-      <c r="C133" s="157"/>
-      <c r="D133" s="157"/>
-      <c r="E133" s="157"/>
-      <c r="F133" s="157"/>
-      <c r="G133" s="157"/>
-      <c r="H133" s="157"/>
-      <c r="I133" s="157"/>
-      <c r="J133" s="157"/>
-      <c r="K133" s="157"/>
-      <c r="L133" s="157"/>
-      <c r="M133" s="157"/>
-      <c r="N133" s="158"/>
+      <c r="A133" s="183"/>
+      <c r="B133" s="340"/>
+      <c r="C133" s="341"/>
+      <c r="D133" s="341"/>
+      <c r="E133" s="341"/>
+      <c r="F133" s="341"/>
+      <c r="G133" s="341"/>
+      <c r="H133" s="341"/>
+      <c r="I133" s="341"/>
+      <c r="J133" s="341"/>
+      <c r="K133" s="341"/>
+      <c r="L133" s="341"/>
+      <c r="M133" s="341"/>
+      <c r="N133" s="342"/>
     </row>
     <row r="134" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="165"/>
-      <c r="B134" s="156"/>
-      <c r="C134" s="157"/>
-      <c r="D134" s="157"/>
-      <c r="E134" s="157"/>
-      <c r="F134" s="157"/>
-      <c r="G134" s="157"/>
-      <c r="H134" s="157"/>
-      <c r="I134" s="157"/>
-      <c r="J134" s="157"/>
-      <c r="K134" s="157"/>
-      <c r="L134" s="157"/>
-      <c r="M134" s="157"/>
-      <c r="N134" s="158"/>
+      <c r="A134" s="183"/>
+      <c r="B134" s="340"/>
+      <c r="C134" s="341"/>
+      <c r="D134" s="341"/>
+      <c r="E134" s="341"/>
+      <c r="F134" s="341"/>
+      <c r="G134" s="341"/>
+      <c r="H134" s="341"/>
+      <c r="I134" s="341"/>
+      <c r="J134" s="341"/>
+      <c r="K134" s="341"/>
+      <c r="L134" s="341"/>
+      <c r="M134" s="341"/>
+      <c r="N134" s="342"/>
     </row>
     <row r="135" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="165"/>
-      <c r="B135" s="156"/>
-      <c r="C135" s="157"/>
-      <c r="D135" s="157"/>
-      <c r="E135" s="157"/>
-      <c r="F135" s="157"/>
-      <c r="G135" s="157"/>
-      <c r="H135" s="157"/>
-      <c r="I135" s="157"/>
-      <c r="J135" s="157"/>
-      <c r="K135" s="157"/>
-      <c r="L135" s="157"/>
-      <c r="M135" s="157"/>
-      <c r="N135" s="158"/>
+      <c r="A135" s="183"/>
+      <c r="B135" s="340"/>
+      <c r="C135" s="341"/>
+      <c r="D135" s="341"/>
+      <c r="E135" s="341"/>
+      <c r="F135" s="341"/>
+      <c r="G135" s="341"/>
+      <c r="H135" s="341"/>
+      <c r="I135" s="341"/>
+      <c r="J135" s="341"/>
+      <c r="K135" s="341"/>
+      <c r="L135" s="341"/>
+      <c r="M135" s="341"/>
+      <c r="N135" s="342"/>
     </row>
     <row r="136" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="165"/>
-      <c r="B136" s="156"/>
-      <c r="C136" s="157"/>
-      <c r="D136" s="157"/>
-      <c r="E136" s="157"/>
-      <c r="F136" s="157"/>
-      <c r="G136" s="157"/>
-      <c r="H136" s="157"/>
-      <c r="I136" s="157"/>
-      <c r="J136" s="157"/>
-      <c r="K136" s="157"/>
-      <c r="L136" s="157"/>
-      <c r="M136" s="157"/>
-      <c r="N136" s="158"/>
+      <c r="A136" s="183"/>
+      <c r="B136" s="340"/>
+      <c r="C136" s="341"/>
+      <c r="D136" s="341"/>
+      <c r="E136" s="341"/>
+      <c r="F136" s="341"/>
+      <c r="G136" s="341"/>
+      <c r="H136" s="341"/>
+      <c r="I136" s="341"/>
+      <c r="J136" s="341"/>
+      <c r="K136" s="341"/>
+      <c r="L136" s="341"/>
+      <c r="M136" s="341"/>
+      <c r="N136" s="342"/>
     </row>
     <row r="137" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="165"/>
-      <c r="B137" s="156"/>
-      <c r="C137" s="157"/>
-      <c r="D137" s="157"/>
-      <c r="E137" s="157"/>
-      <c r="F137" s="157"/>
-      <c r="G137" s="157"/>
-      <c r="H137" s="157"/>
-      <c r="I137" s="157"/>
-      <c r="J137" s="157"/>
-      <c r="K137" s="157"/>
-      <c r="L137" s="157"/>
-      <c r="M137" s="157"/>
-      <c r="N137" s="158"/>
+      <c r="A137" s="183"/>
+      <c r="B137" s="340"/>
+      <c r="C137" s="341"/>
+      <c r="D137" s="341"/>
+      <c r="E137" s="341"/>
+      <c r="F137" s="341"/>
+      <c r="G137" s="341"/>
+      <c r="H137" s="341"/>
+      <c r="I137" s="341"/>
+      <c r="J137" s="341"/>
+      <c r="K137" s="341"/>
+      <c r="L137" s="341"/>
+      <c r="M137" s="341"/>
+      <c r="N137" s="342"/>
     </row>
     <row r="138" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="165"/>
-      <c r="B138" s="144" t="s">
+      <c r="A138" s="183"/>
+      <c r="B138" s="328" t="s">
         <v>152</v>
       </c>
-      <c r="C138" s="144"/>
-      <c r="D138" s="144"/>
-      <c r="E138" s="144"/>
-      <c r="F138" s="144"/>
-      <c r="G138" s="144"/>
-      <c r="H138" s="144"/>
-      <c r="I138" s="144"/>
-      <c r="J138" s="144"/>
-      <c r="K138" s="144"/>
-      <c r="L138" s="144"/>
-      <c r="M138" s="144"/>
-      <c r="N138" s="145"/>
+      <c r="C138" s="328"/>
+      <c r="D138" s="328"/>
+      <c r="E138" s="328"/>
+      <c r="F138" s="328"/>
+      <c r="G138" s="328"/>
+      <c r="H138" s="328"/>
+      <c r="I138" s="328"/>
+      <c r="J138" s="328"/>
+      <c r="K138" s="328"/>
+      <c r="L138" s="328"/>
+      <c r="M138" s="328"/>
+      <c r="N138" s="329"/>
     </row>
     <row r="139" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="165"/>
+      <c r="A139" s="183"/>
       <c r="B139" s="8"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -9151,24 +9010,24 @@
       <c r="N139" s="1"/>
     </row>
     <row r="140" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="225"/>
+      <c r="A140" s="257"/>
       <c r="B140" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="C140" s="223" t="s">
+      <c r="C140" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="D140" s="223"/>
-      <c r="E140" s="223"/>
-      <c r="F140" s="223"/>
-      <c r="G140" s="223"/>
-      <c r="H140" s="223"/>
-      <c r="I140" s="223"/>
-      <c r="J140" s="223"/>
-      <c r="K140" s="223"/>
-      <c r="L140" s="223"/>
-      <c r="M140" s="223"/>
-      <c r="N140" s="224"/>
+      <c r="D140" s="255"/>
+      <c r="E140" s="255"/>
+      <c r="F140" s="255"/>
+      <c r="G140" s="255"/>
+      <c r="H140" s="255"/>
+      <c r="I140" s="255"/>
+      <c r="J140" s="255"/>
+      <c r="K140" s="255"/>
+      <c r="L140" s="255"/>
+      <c r="M140" s="255"/>
+      <c r="N140" s="256"/>
     </row>
     <row r="141" spans="1:14" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -9177,10 +9036,10 @@
       </c>
     </row>
     <row r="144" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I144" s="146" t="s">
+      <c r="I144" s="330" t="s">
         <v>89</v>
       </c>
-      <c r="J144" s="146"/>
+      <c r="J144" s="330"/>
       <c r="K144" s="83" t="s">
         <v>173</v>
       </c>
@@ -9201,7 +9060,7 @@
     </row>
     <row r="148" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="149" spans="1:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="230" t="s">
+      <c r="A149" s="262" t="s">
         <v>92</v>
       </c>
       <c r="B149" s="84" t="s">
@@ -9221,7 +9080,7 @@
       <c r="N149" s="86"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A150" s="176"/>
+      <c r="A150" s="263"/>
       <c r="B150" s="69" t="s">
         <v>56</v>
       </c>
@@ -9241,7 +9100,7 @@
       <c r="N150" s="79"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A151" s="176"/>
+      <c r="A151" s="263"/>
       <c r="B151" s="69" t="s">
         <v>56</v>
       </c>
@@ -9261,25 +9120,25 @@
       <c r="N151" s="79"/>
     </row>
     <row r="152" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="176"/>
+      <c r="A152" s="263"/>
       <c r="B152" s="69"/>
-      <c r="C152" s="226" t="s">
+      <c r="C152" s="258" t="s">
         <v>94</v>
       </c>
-      <c r="D152" s="226"/>
-      <c r="E152" s="226"/>
-      <c r="F152" s="226"/>
-      <c r="G152" s="226"/>
-      <c r="H152" s="226"/>
-      <c r="I152" s="226"/>
-      <c r="J152" s="226"/>
-      <c r="K152" s="226"/>
-      <c r="L152" s="226"/>
-      <c r="M152" s="226"/>
-      <c r="N152" s="227"/>
+      <c r="D152" s="258"/>
+      <c r="E152" s="258"/>
+      <c r="F152" s="258"/>
+      <c r="G152" s="258"/>
+      <c r="H152" s="258"/>
+      <c r="I152" s="258"/>
+      <c r="J152" s="258"/>
+      <c r="K152" s="258"/>
+      <c r="L152" s="258"/>
+      <c r="M152" s="258"/>
+      <c r="N152" s="259"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A153" s="176"/>
+      <c r="A153" s="263"/>
       <c r="B153" s="69" t="s">
         <v>56</v>
       </c>
@@ -9299,41 +9158,41 @@
       <c r="N153" s="79"/>
     </row>
     <row r="154" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="176"/>
+      <c r="A154" s="263"/>
       <c r="B154" s="69"/>
-      <c r="C154" s="228" t="s">
+      <c r="C154" s="260" t="s">
         <v>183</v>
       </c>
-      <c r="D154" s="228"/>
-      <c r="E154" s="228"/>
-      <c r="F154" s="228"/>
-      <c r="G154" s="228"/>
-      <c r="H154" s="228"/>
-      <c r="I154" s="228"/>
-      <c r="J154" s="228"/>
-      <c r="K154" s="228"/>
-      <c r="L154" s="228"/>
-      <c r="M154" s="228"/>
-      <c r="N154" s="229"/>
+      <c r="D154" s="260"/>
+      <c r="E154" s="260"/>
+      <c r="F154" s="260"/>
+      <c r="G154" s="260"/>
+      <c r="H154" s="260"/>
+      <c r="I154" s="260"/>
+      <c r="J154" s="260"/>
+      <c r="K154" s="260"/>
+      <c r="L154" s="260"/>
+      <c r="M154" s="260"/>
+      <c r="N154" s="261"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A155" s="176"/>
+      <c r="A155" s="263"/>
       <c r="B155" s="69"/>
-      <c r="C155" s="228"/>
-      <c r="D155" s="228"/>
-      <c r="E155" s="228"/>
-      <c r="F155" s="228"/>
-      <c r="G155" s="228"/>
-      <c r="H155" s="228"/>
-      <c r="I155" s="228"/>
-      <c r="J155" s="228"/>
-      <c r="K155" s="228"/>
-      <c r="L155" s="228"/>
-      <c r="M155" s="228"/>
-      <c r="N155" s="229"/>
+      <c r="C155" s="260"/>
+      <c r="D155" s="260"/>
+      <c r="E155" s="260"/>
+      <c r="F155" s="260"/>
+      <c r="G155" s="260"/>
+      <c r="H155" s="260"/>
+      <c r="I155" s="260"/>
+      <c r="J155" s="260"/>
+      <c r="K155" s="260"/>
+      <c r="L155" s="260"/>
+      <c r="M155" s="260"/>
+      <c r="N155" s="261"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A156" s="176"/>
+      <c r="A156" s="263"/>
       <c r="B156" s="69" t="s">
         <v>56</v>
       </c>
@@ -9353,7 +9212,7 @@
       <c r="N156" s="79"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A157" s="176"/>
+      <c r="A157" s="263"/>
       <c r="B157" s="69" t="s">
         <v>56</v>
       </c>
@@ -9373,7 +9232,7 @@
       <c r="N157" s="79"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A158" s="176"/>
+      <c r="A158" s="263"/>
       <c r="B158" s="69" t="s">
         <v>11</v>
       </c>
@@ -9393,7 +9252,7 @@
       <c r="N158" s="79"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A159" s="176"/>
+      <c r="A159" s="263"/>
       <c r="B159" s="69" t="s">
         <v>11</v>
       </c>
@@ -9413,7 +9272,7 @@
       <c r="N159" s="79"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A160" s="176"/>
+      <c r="A160" s="263"/>
       <c r="B160" s="69" t="s">
         <v>11</v>
       </c>
@@ -9433,7 +9292,7 @@
       <c r="N160" s="79"/>
     </row>
     <row r="161" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="177"/>
+      <c r="A161" s="264"/>
       <c r="B161" s="80" t="s">
         <v>11</v>
       </c>
@@ -9453,7 +9312,7 @@
       <c r="N161" s="87"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A162" s="175" t="s">
+      <c r="A162" s="310" t="s">
         <v>102</v>
       </c>
       <c r="B162" s="88" t="s">
@@ -9473,127 +9332,127 @@
       <c r="N162" s="79"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A163" s="176"/>
+      <c r="A163" s="263"/>
       <c r="B163" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C163" s="132" t="s">
+      <c r="C163" s="194" t="s">
         <v>115</v>
       </c>
-      <c r="D163" s="132"/>
-      <c r="E163" s="132"/>
-      <c r="F163" s="132"/>
-      <c r="G163" s="132"/>
-      <c r="H163" s="132"/>
-      <c r="I163" s="132"/>
-      <c r="J163" s="132"/>
-      <c r="K163" s="132"/>
-      <c r="L163" s="132"/>
-      <c r="M163" s="132"/>
-      <c r="N163" s="133"/>
+      <c r="D163" s="194"/>
+      <c r="E163" s="194"/>
+      <c r="F163" s="194"/>
+      <c r="G163" s="194"/>
+      <c r="H163" s="194"/>
+      <c r="I163" s="194"/>
+      <c r="J163" s="194"/>
+      <c r="K163" s="194"/>
+      <c r="L163" s="194"/>
+      <c r="M163" s="194"/>
+      <c r="N163" s="195"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A164" s="176"/>
+      <c r="A164" s="263"/>
       <c r="B164" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="132" t="s">
+      <c r="C164" s="194" t="s">
         <v>116</v>
       </c>
-      <c r="D164" s="132"/>
-      <c r="E164" s="132"/>
-      <c r="F164" s="132"/>
-      <c r="G164" s="132"/>
-      <c r="H164" s="132"/>
-      <c r="I164" s="132"/>
-      <c r="J164" s="132"/>
-      <c r="K164" s="132"/>
-      <c r="L164" s="132"/>
-      <c r="M164" s="132"/>
-      <c r="N164" s="133"/>
+      <c r="D164" s="194"/>
+      <c r="E164" s="194"/>
+      <c r="F164" s="194"/>
+      <c r="G164" s="194"/>
+      <c r="H164" s="194"/>
+      <c r="I164" s="194"/>
+      <c r="J164" s="194"/>
+      <c r="K164" s="194"/>
+      <c r="L164" s="194"/>
+      <c r="M164" s="194"/>
+      <c r="N164" s="195"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A165" s="176"/>
+      <c r="A165" s="263"/>
       <c r="B165" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C165" s="132" t="s">
+      <c r="C165" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="D165" s="132"/>
-      <c r="E165" s="132"/>
-      <c r="F165" s="132"/>
-      <c r="G165" s="132"/>
-      <c r="H165" s="132"/>
-      <c r="I165" s="132"/>
-      <c r="J165" s="132"/>
-      <c r="K165" s="132"/>
-      <c r="L165" s="132"/>
-      <c r="M165" s="132"/>
-      <c r="N165" s="133"/>
+      <c r="D165" s="194"/>
+      <c r="E165" s="194"/>
+      <c r="F165" s="194"/>
+      <c r="G165" s="194"/>
+      <c r="H165" s="194"/>
+      <c r="I165" s="194"/>
+      <c r="J165" s="194"/>
+      <c r="K165" s="194"/>
+      <c r="L165" s="194"/>
+      <c r="M165" s="194"/>
+      <c r="N165" s="195"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A166" s="176"/>
+      <c r="A166" s="263"/>
       <c r="B166" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C166" s="132" t="s">
+      <c r="C166" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="D166" s="132"/>
-      <c r="E166" s="132"/>
-      <c r="F166" s="132"/>
-      <c r="G166" s="132"/>
-      <c r="H166" s="132"/>
-      <c r="I166" s="132"/>
-      <c r="J166" s="132"/>
-      <c r="K166" s="132"/>
-      <c r="L166" s="132"/>
-      <c r="M166" s="132"/>
-      <c r="N166" s="133"/>
+      <c r="D166" s="194"/>
+      <c r="E166" s="194"/>
+      <c r="F166" s="194"/>
+      <c r="G166" s="194"/>
+      <c r="H166" s="194"/>
+      <c r="I166" s="194"/>
+      <c r="J166" s="194"/>
+      <c r="K166" s="194"/>
+      <c r="L166" s="194"/>
+      <c r="M166" s="194"/>
+      <c r="N166" s="195"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A167" s="176"/>
+      <c r="A167" s="263"/>
       <c r="B167" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C167" s="200" t="s">
+      <c r="C167" s="270" t="s">
         <v>149</v>
       </c>
-      <c r="D167" s="200"/>
-      <c r="E167" s="200"/>
-      <c r="F167" s="200"/>
-      <c r="G167" s="200"/>
-      <c r="H167" s="200"/>
-      <c r="I167" s="200"/>
-      <c r="J167" s="200"/>
-      <c r="K167" s="200"/>
-      <c r="L167" s="200"/>
-      <c r="M167" s="200"/>
-      <c r="N167" s="201"/>
+      <c r="D167" s="270"/>
+      <c r="E167" s="270"/>
+      <c r="F167" s="270"/>
+      <c r="G167" s="270"/>
+      <c r="H167" s="270"/>
+      <c r="I167" s="270"/>
+      <c r="J167" s="270"/>
+      <c r="K167" s="270"/>
+      <c r="L167" s="270"/>
+      <c r="M167" s="270"/>
+      <c r="N167" s="271"/>
     </row>
     <row r="168" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="177"/>
+      <c r="A168" s="264"/>
       <c r="B168" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C168" s="178" t="s">
+      <c r="C168" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="D168" s="178"/>
-      <c r="E168" s="178"/>
-      <c r="F168" s="178"/>
-      <c r="G168" s="178"/>
-      <c r="H168" s="178"/>
-      <c r="I168" s="178"/>
-      <c r="J168" s="178"/>
-      <c r="K168" s="178"/>
-      <c r="L168" s="178"/>
-      <c r="M168" s="178"/>
-      <c r="N168" s="179"/>
+      <c r="D168" s="196"/>
+      <c r="E168" s="196"/>
+      <c r="F168" s="196"/>
+      <c r="G168" s="196"/>
+      <c r="H168" s="196"/>
+      <c r="I168" s="196"/>
+      <c r="J168" s="196"/>
+      <c r="K168" s="196"/>
+      <c r="L168" s="196"/>
+      <c r="M168" s="196"/>
+      <c r="N168" s="197"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A169" s="175" t="s">
+      <c r="A169" s="310" t="s">
         <v>154</v>
       </c>
       <c r="B169" s="88" t="s">
@@ -9613,87 +9472,87 @@
       <c r="N169" s="70"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A170" s="176"/>
+      <c r="A170" s="263"/>
       <c r="B170" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="C170" s="132" t="s">
+      <c r="C170" s="194" t="s">
         <v>120</v>
       </c>
-      <c r="D170" s="132"/>
-      <c r="E170" s="132"/>
-      <c r="F170" s="132"/>
-      <c r="G170" s="132"/>
-      <c r="H170" s="132"/>
-      <c r="I170" s="132"/>
-      <c r="J170" s="132"/>
-      <c r="K170" s="132"/>
-      <c r="L170" s="132"/>
-      <c r="M170" s="132"/>
-      <c r="N170" s="133"/>
+      <c r="D170" s="194"/>
+      <c r="E170" s="194"/>
+      <c r="F170" s="194"/>
+      <c r="G170" s="194"/>
+      <c r="H170" s="194"/>
+      <c r="I170" s="194"/>
+      <c r="J170" s="194"/>
+      <c r="K170" s="194"/>
+      <c r="L170" s="194"/>
+      <c r="M170" s="194"/>
+      <c r="N170" s="195"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A171" s="176"/>
+      <c r="A171" s="263"/>
       <c r="B171" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C171" s="132" t="s">
+      <c r="C171" s="194" t="s">
         <v>156</v>
       </c>
-      <c r="D171" s="132"/>
-      <c r="E171" s="132"/>
-      <c r="F171" s="132"/>
-      <c r="G171" s="132"/>
-      <c r="H171" s="132"/>
-      <c r="I171" s="132"/>
-      <c r="J171" s="132"/>
-      <c r="K171" s="132"/>
-      <c r="L171" s="132"/>
-      <c r="M171" s="132"/>
-      <c r="N171" s="133"/>
+      <c r="D171" s="194"/>
+      <c r="E171" s="194"/>
+      <c r="F171" s="194"/>
+      <c r="G171" s="194"/>
+      <c r="H171" s="194"/>
+      <c r="I171" s="194"/>
+      <c r="J171" s="194"/>
+      <c r="K171" s="194"/>
+      <c r="L171" s="194"/>
+      <c r="M171" s="194"/>
+      <c r="N171" s="195"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A172" s="176"/>
+      <c r="A172" s="263"/>
       <c r="B172" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C172" s="132" t="s">
+      <c r="C172" s="194" t="s">
         <v>164</v>
       </c>
-      <c r="D172" s="132"/>
-      <c r="E172" s="132"/>
-      <c r="F172" s="132"/>
-      <c r="G172" s="132"/>
-      <c r="H172" s="132"/>
-      <c r="I172" s="132"/>
-      <c r="J172" s="132"/>
-      <c r="K172" s="132"/>
-      <c r="L172" s="132"/>
-      <c r="M172" s="132"/>
-      <c r="N172" s="133"/>
+      <c r="D172" s="194"/>
+      <c r="E172" s="194"/>
+      <c r="F172" s="194"/>
+      <c r="G172" s="194"/>
+      <c r="H172" s="194"/>
+      <c r="I172" s="194"/>
+      <c r="J172" s="194"/>
+      <c r="K172" s="194"/>
+      <c r="L172" s="194"/>
+      <c r="M172" s="194"/>
+      <c r="N172" s="195"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A173" s="176"/>
+      <c r="A173" s="263"/>
       <c r="B173" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C173" s="132" t="s">
+      <c r="C173" s="194" t="s">
         <v>165</v>
       </c>
-      <c r="D173" s="132"/>
-      <c r="E173" s="132"/>
-      <c r="F173" s="132"/>
-      <c r="G173" s="132"/>
-      <c r="H173" s="132"/>
-      <c r="I173" s="132"/>
-      <c r="J173" s="132"/>
-      <c r="K173" s="132"/>
-      <c r="L173" s="132"/>
-      <c r="M173" s="132"/>
-      <c r="N173" s="133"/>
+      <c r="D173" s="194"/>
+      <c r="E173" s="194"/>
+      <c r="F173" s="194"/>
+      <c r="G173" s="194"/>
+      <c r="H173" s="194"/>
+      <c r="I173" s="194"/>
+      <c r="J173" s="194"/>
+      <c r="K173" s="194"/>
+      <c r="L173" s="194"/>
+      <c r="M173" s="194"/>
+      <c r="N173" s="195"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A174" s="176"/>
+      <c r="A174" s="263"/>
       <c r="B174" s="89" t="s">
         <v>56</v>
       </c>
@@ -9713,136 +9572,136 @@
       <c r="N174" s="99"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A175" s="176"/>
+      <c r="A175" s="263"/>
       <c r="B175" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C175" s="132" t="s">
+      <c r="C175" s="194" t="s">
         <v>121</v>
       </c>
-      <c r="D175" s="132"/>
-      <c r="E175" s="132"/>
-      <c r="F175" s="132"/>
-      <c r="G175" s="132"/>
-      <c r="H175" s="132"/>
-      <c r="I175" s="132"/>
-      <c r="J175" s="132"/>
-      <c r="K175" s="132"/>
-      <c r="L175" s="132"/>
-      <c r="M175" s="132"/>
-      <c r="N175" s="133"/>
+      <c r="D175" s="194"/>
+      <c r="E175" s="194"/>
+      <c r="F175" s="194"/>
+      <c r="G175" s="194"/>
+      <c r="H175" s="194"/>
+      <c r="I175" s="194"/>
+      <c r="J175" s="194"/>
+      <c r="K175" s="194"/>
+      <c r="L175" s="194"/>
+      <c r="M175" s="194"/>
+      <c r="N175" s="195"/>
     </row>
     <row r="176" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="177"/>
+      <c r="A176" s="264"/>
       <c r="B176" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="C176" s="178" t="s">
+      <c r="C176" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="D176" s="178"/>
-      <c r="E176" s="178"/>
-      <c r="F176" s="178"/>
-      <c r="G176" s="178"/>
-      <c r="H176" s="178"/>
-      <c r="I176" s="178"/>
-      <c r="J176" s="178"/>
-      <c r="K176" s="178"/>
-      <c r="L176" s="178"/>
-      <c r="M176" s="178"/>
-      <c r="N176" s="179"/>
+      <c r="D176" s="196"/>
+      <c r="E176" s="196"/>
+      <c r="F176" s="196"/>
+      <c r="G176" s="196"/>
+      <c r="H176" s="196"/>
+      <c r="I176" s="196"/>
+      <c r="J176" s="196"/>
+      <c r="K176" s="196"/>
+      <c r="L176" s="196"/>
+      <c r="M176" s="196"/>
+      <c r="N176" s="197"/>
     </row>
     <row r="177" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="173" t="s">
+      <c r="A177" s="249" t="s">
         <v>153</v>
       </c>
-      <c r="B177" s="161" t="s">
+      <c r="B177" s="306" t="s">
         <v>167</v>
       </c>
-      <c r="C177" s="162"/>
-      <c r="D177" s="162"/>
-      <c r="E177" s="162"/>
-      <c r="F177" s="162"/>
-      <c r="G177" s="162"/>
-      <c r="H177" s="162"/>
-      <c r="I177" s="162"/>
-      <c r="J177" s="162"/>
-      <c r="K177" s="162"/>
-      <c r="L177" s="162"/>
-      <c r="M177" s="162"/>
-      <c r="N177" s="163"/>
+      <c r="C177" s="307"/>
+      <c r="D177" s="307"/>
+      <c r="E177" s="307"/>
+      <c r="F177" s="307"/>
+      <c r="G177" s="307"/>
+      <c r="H177" s="307"/>
+      <c r="I177" s="307"/>
+      <c r="J177" s="307"/>
+      <c r="K177" s="307"/>
+      <c r="L177" s="307"/>
+      <c r="M177" s="307"/>
+      <c r="N177" s="308"/>
     </row>
     <row r="178" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="174"/>
-      <c r="B178" s="123" t="s">
+      <c r="A178" s="251"/>
+      <c r="B178" s="309" t="s">
         <v>155</v>
       </c>
-      <c r="C178" s="124"/>
-      <c r="D178" s="124"/>
-      <c r="E178" s="124"/>
-      <c r="F178" s="124"/>
-      <c r="G178" s="124"/>
-      <c r="H178" s="124"/>
-      <c r="I178" s="124"/>
-      <c r="J178" s="124"/>
-      <c r="K178" s="124"/>
-      <c r="L178" s="124"/>
-      <c r="M178" s="124"/>
+      <c r="C178" s="233"/>
+      <c r="D178" s="233"/>
+      <c r="E178" s="233"/>
+      <c r="F178" s="233"/>
+      <c r="G178" s="233"/>
+      <c r="H178" s="233"/>
+      <c r="I178" s="233"/>
+      <c r="J178" s="233"/>
+      <c r="K178" s="233"/>
+      <c r="L178" s="233"/>
+      <c r="M178" s="233"/>
       <c r="N178" s="94"/>
     </row>
     <row r="179" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="173" t="s">
+      <c r="A179" s="249" t="s">
         <v>170</v>
       </c>
-      <c r="B179" s="161" t="s">
+      <c r="B179" s="306" t="s">
         <v>172</v>
       </c>
-      <c r="C179" s="162"/>
-      <c r="D179" s="162"/>
-      <c r="E179" s="162"/>
-      <c r="F179" s="162"/>
-      <c r="G179" s="162"/>
-      <c r="H179" s="162"/>
-      <c r="I179" s="162"/>
-      <c r="J179" s="162"/>
-      <c r="K179" s="162"/>
-      <c r="L179" s="162"/>
-      <c r="M179" s="162"/>
-      <c r="N179" s="163"/>
+      <c r="C179" s="307"/>
+      <c r="D179" s="307"/>
+      <c r="E179" s="307"/>
+      <c r="F179" s="307"/>
+      <c r="G179" s="307"/>
+      <c r="H179" s="307"/>
+      <c r="I179" s="307"/>
+      <c r="J179" s="307"/>
+      <c r="K179" s="307"/>
+      <c r="L179" s="307"/>
+      <c r="M179" s="307"/>
+      <c r="N179" s="308"/>
     </row>
     <row r="180" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="220"/>
-      <c r="B180" s="120" t="s">
+      <c r="A180" s="250"/>
+      <c r="B180" s="314" t="s">
         <v>175</v>
       </c>
-      <c r="C180" s="121"/>
-      <c r="D180" s="121"/>
-      <c r="E180" s="121"/>
-      <c r="F180" s="121"/>
-      <c r="G180" s="121"/>
-      <c r="H180" s="121"/>
-      <c r="I180" s="121"/>
-      <c r="J180" s="121"/>
-      <c r="K180" s="121"/>
-      <c r="L180" s="121"/>
-      <c r="M180" s="121"/>
-      <c r="N180" s="122"/>
+      <c r="C180" s="192"/>
+      <c r="D180" s="192"/>
+      <c r="E180" s="192"/>
+      <c r="F180" s="192"/>
+      <c r="G180" s="192"/>
+      <c r="H180" s="192"/>
+      <c r="I180" s="192"/>
+      <c r="J180" s="192"/>
+      <c r="K180" s="192"/>
+      <c r="L180" s="192"/>
+      <c r="M180" s="192"/>
+      <c r="N180" s="315"/>
     </row>
     <row r="181" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="174"/>
-      <c r="B181" s="123"/>
-      <c r="C181" s="124"/>
-      <c r="D181" s="124"/>
-      <c r="E181" s="124"/>
-      <c r="F181" s="124"/>
-      <c r="G181" s="124"/>
-      <c r="H181" s="124"/>
-      <c r="I181" s="124"/>
-      <c r="J181" s="124"/>
-      <c r="K181" s="124"/>
-      <c r="L181" s="124"/>
-      <c r="M181" s="124"/>
-      <c r="N181" s="125"/>
+      <c r="A181" s="251"/>
+      <c r="B181" s="309"/>
+      <c r="C181" s="233"/>
+      <c r="D181" s="233"/>
+      <c r="E181" s="233"/>
+      <c r="F181" s="233"/>
+      <c r="G181" s="233"/>
+      <c r="H181" s="233"/>
+      <c r="I181" s="233"/>
+      <c r="J181" s="233"/>
+      <c r="K181" s="233"/>
+      <c r="L181" s="233"/>
+      <c r="M181" s="233"/>
+      <c r="N181" s="234"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="21" t="s">
@@ -10145,33 +10004,141 @@
     <protectedRange password="CAED" sqref="B116:N137" name="範囲1"/>
   </protectedRanges>
   <mergeCells count="186">
-    <mergeCell ref="F35:N35"/>
-    <mergeCell ref="F34:N34"/>
-    <mergeCell ref="F36:N36"/>
-    <mergeCell ref="F37:N37"/>
-    <mergeCell ref="F38:N38"/>
-    <mergeCell ref="F39:N39"/>
-    <mergeCell ref="F40:N40"/>
-    <mergeCell ref="F41:N41"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B180:N181"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C172:N172"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="E30:M30"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="E23:M23"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B32:N32"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="B138:N138"/>
+    <mergeCell ref="I144:J144"/>
+    <mergeCell ref="B77:N77"/>
+    <mergeCell ref="F33:N33"/>
+    <mergeCell ref="B130:N137"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B179:N179"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B72:N72"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:N177"/>
+    <mergeCell ref="B178:M178"/>
+    <mergeCell ref="A162:A168"/>
+    <mergeCell ref="A169:A176"/>
+    <mergeCell ref="C170:N170"/>
+    <mergeCell ref="C171:N171"/>
+    <mergeCell ref="C173:N173"/>
+    <mergeCell ref="C175:N175"/>
+    <mergeCell ref="C176:N176"/>
+    <mergeCell ref="B87:N93"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="B94:N99"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="B100:N105"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="B61:N61"/>
+    <mergeCell ref="D43:N43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="C167:N167"/>
+    <mergeCell ref="C168:N168"/>
+    <mergeCell ref="B66:N66"/>
+    <mergeCell ref="B78:N81"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="I69:N69"/>
+    <mergeCell ref="I70:N70"/>
+    <mergeCell ref="I71:N71"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B73:N76"/>
+    <mergeCell ref="B116:N129"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="B106:N110"/>
+    <mergeCell ref="B111:N114"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:N86"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C163:N163"/>
+    <mergeCell ref="C164:N164"/>
+    <mergeCell ref="C165:N165"/>
+    <mergeCell ref="C166:N166"/>
+    <mergeCell ref="C140:N140"/>
+    <mergeCell ref="A130:A140"/>
+    <mergeCell ref="C152:N152"/>
+    <mergeCell ref="C154:N155"/>
+    <mergeCell ref="A149:A161"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="A116:A129"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="C60:N60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="D48:N48"/>
+    <mergeCell ref="B52:N53"/>
+    <mergeCell ref="B50:N50"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="D64:N64"/>
+    <mergeCell ref="D65:N65"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B14:E17"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A18:A31"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B24:N24"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B26:N26"/>
+    <mergeCell ref="B19:N19"/>
+    <mergeCell ref="B18:N18"/>
     <mergeCell ref="I15:K17"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A3:A4"/>
@@ -10196,141 +10163,33 @@
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="K45:N45"/>
     <mergeCell ref="K47:N47"/>
-    <mergeCell ref="D64:N64"/>
-    <mergeCell ref="D65:N65"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B14:E17"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A18:A31"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B24:N24"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B26:N26"/>
-    <mergeCell ref="B19:N19"/>
-    <mergeCell ref="B18:N18"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="C60:N60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="D48:N48"/>
-    <mergeCell ref="B52:N53"/>
-    <mergeCell ref="B50:N50"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C163:N163"/>
-    <mergeCell ref="C164:N164"/>
-    <mergeCell ref="C165:N165"/>
-    <mergeCell ref="C166:N166"/>
-    <mergeCell ref="C140:N140"/>
-    <mergeCell ref="A130:A140"/>
-    <mergeCell ref="C152:N152"/>
-    <mergeCell ref="C154:N155"/>
-    <mergeCell ref="A149:A161"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="A116:A129"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="C167:N167"/>
-    <mergeCell ref="C168:N168"/>
-    <mergeCell ref="B66:N66"/>
-    <mergeCell ref="B78:N81"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="I69:N69"/>
-    <mergeCell ref="I70:N70"/>
-    <mergeCell ref="I71:N71"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B73:N76"/>
-    <mergeCell ref="B116:N129"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="B106:N110"/>
-    <mergeCell ref="B111:N114"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:N86"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="B72:N72"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:N177"/>
-    <mergeCell ref="B178:M178"/>
-    <mergeCell ref="A162:A168"/>
-    <mergeCell ref="A169:A176"/>
-    <mergeCell ref="C170:N170"/>
-    <mergeCell ref="C171:N171"/>
-    <mergeCell ref="C173:N173"/>
-    <mergeCell ref="C175:N175"/>
-    <mergeCell ref="C176:N176"/>
-    <mergeCell ref="B87:N93"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="B94:N99"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="B100:N105"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="B61:N61"/>
-    <mergeCell ref="D43:N43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B180:N181"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C172:N172"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="E30:M30"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="E23:M23"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B32:N32"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="B138:N138"/>
-    <mergeCell ref="I144:J144"/>
-    <mergeCell ref="B77:N77"/>
-    <mergeCell ref="F33:N33"/>
-    <mergeCell ref="B130:N137"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B179:N179"/>
-    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F35:N35"/>
+    <mergeCell ref="F34:N34"/>
+    <mergeCell ref="F36:N36"/>
+    <mergeCell ref="F37:N37"/>
+    <mergeCell ref="F38:N38"/>
+    <mergeCell ref="F39:N39"/>
+    <mergeCell ref="F40:N40"/>
+    <mergeCell ref="F41:N41"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <hyperlinks>
